--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -54323,7 +54323,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="23" t="s">
         <v>73</v>
       </c>
     </row>

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -164,7 +164,7 @@
       <text>
         <t xml:space="preserve">https://swahili-llm-leaderboard.streamlit.app
 	-Jimmy Zhao
-https://github.com/msamwelmollel/Swahili_LLM_Leaderboard?tab=readme-ov-file#leaderboard
+https://huggingface.co/spaces/sartifyllc/Swahili_LLM_Leaderboard
 	-Jimmy Zhao</t>
       </text>
     </comment>
@@ -21413,7 +21413,7 @@
     <hyperlink r:id="rId312" ref="A166"/>
     <hyperlink r:id="rId313" ref="C166"/>
     <hyperlink r:id="rId314" ref="I166"/>
-    <hyperlink r:id="rId315" ref="A167"/>
+    <hyperlink r:id="rId315" location="leaderboard" ref="A167"/>
     <hyperlink r:id="rId316" ref="C167"/>
     <hyperlink r:id="rId317" location="leaderboard" ref="A168"/>
     <hyperlink r:id="rId318" ref="C168"/>
@@ -21471,7 +21471,7 @@
     <hyperlink r:id="rId370" ref="C196"/>
     <hyperlink r:id="rId371" ref="A197"/>
     <hyperlink r:id="rId372" ref="C197"/>
-    <hyperlink r:id="rId373" ref="A198"/>
+    <hyperlink r:id="rId373" location="results-preview" ref="A198"/>
     <hyperlink r:id="rId374" ref="C198"/>
     <hyperlink r:id="rId375" ref="A199"/>
     <hyperlink r:id="rId376" ref="C199"/>
@@ -21529,7 +21529,7 @@
     <hyperlink r:id="rId428" ref="I224"/>
     <hyperlink r:id="rId429" ref="A225"/>
     <hyperlink r:id="rId430" ref="C225"/>
-    <hyperlink r:id="rId431" ref="A226"/>
+    <hyperlink r:id="rId431" location="leaderboard" ref="A226"/>
     <hyperlink r:id="rId432" ref="C226"/>
     <hyperlink r:id="rId433" ref="I226"/>
     <hyperlink r:id="rId434" ref="A227"/>
@@ -21962,7 +21962,7 @@
     <hyperlink r:id="rId861" ref="A426"/>
     <hyperlink r:id="rId862" ref="C426"/>
     <hyperlink r:id="rId863" ref="I426"/>
-    <hyperlink r:id="rId864" ref="A427"/>
+    <hyperlink r:id="rId864" location="leaderboard" ref="A427"/>
     <hyperlink r:id="rId865" ref="C427"/>
     <hyperlink r:id="rId866" ref="I427"/>
     <hyperlink r:id="rId867" ref="A428"/>

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -15730,7 +15730,7 @@
       </c>
       <c r="G332" s="2"/>
       <c r="H332" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="333">
@@ -15747,7 +15747,7 @@
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
       <c r="H333" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="I333" s="3" t="s">
         <v>691</v>
@@ -18716,7 +18716,7 @@
       </c>
       <c r="F480" s="4"/>
       <c r="H480" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="481">

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -23023,7 +23023,7 @@
         <v>1057</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="25" t="s">
         <v>1058</v>
       </c>
     </row>

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -22266,7 +22266,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="23" t="s">
         <v>1376</v>
       </c>
     </row>
@@ -23072,7 +23072,7 @@
     </row>
     <row r="7">
       <c r="E7" s="5"/>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="27" t="s">
         <v>1060</v>
       </c>
     </row>

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -54968,7 +54968,7 @@
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="6" t="s">
+      <c r="G64" s="22" t="s">
         <v>770</v>
       </c>
     </row>

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -3683,7 +3683,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="1379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="1379">
   <si>
     <t>Name</t>
   </si>
@@ -10740,8 +10740,8 @@
         <v>11</v>
       </c>
       <c r="G90" s="2"/>
-      <c r="H90" s="2">
-        <v>4.0</v>
+      <c r="H90" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I90" s="3" t="s">
         <v>176</v>

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -22921,7 +22921,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="23" t="s">
         <v>602</v>
       </c>
     </row>

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -53475,7 +53475,7 @@
       <c r="F22" s="6" t="s">
         <v>1127</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="19" t="s">
         <v>1128</v>
       </c>
     </row>

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -23047,7 +23047,7 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="21" t="s">
         <v>1057</v>
       </c>
     </row>

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -54572,7 +54572,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="23" t="s">
         <v>1259</v>
       </c>
     </row>

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -25,6 +25,12 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="A335">
+      <text>
+        <t xml:space="preserve">https://mmbench-video.github.io
+	-Jimmy Zhao</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="F357">
       <text>
         <t xml:space="preserve">https://github.com/salesforce/QAConv?tab=readme-ov-file#leaderboard
@@ -15812,7 +15818,7 @@
         <v>696</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>697</v>

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -3689,7 +3689,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="1379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="1380">
   <si>
     <t>Name</t>
   </si>
@@ -8172,6 +8172,9 @@
   </si>
   <si>
     <t>https://huggingface.co/spaces/mesolitica/malaysian-stt-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/MIMIC-CDM/leaderboard/discussions/1</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard/discussions/2</t>
@@ -22123,7 +22126,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="2">
@@ -22133,7 +22136,7 @@
     </row>
     <row r="3">
       <c r="A3" s="29" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="4">
@@ -22153,7 +22156,7 @@
     </row>
     <row r="7">
       <c r="A7" s="23" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="8">
@@ -22173,22 +22176,22 @@
     </row>
     <row r="11">
       <c r="A11" s="36" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="15">
@@ -22202,43 +22205,43 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="27" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="21" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="29" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="19" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="35" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="25" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="29" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="25">
@@ -22248,32 +22251,32 @@
     </row>
     <row r="26">
       <c r="A26" s="25" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="29" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="19" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="23" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="23" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="32">
@@ -22283,12 +22286,12 @@
     </row>
     <row r="33">
       <c r="A33" s="27" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="35">
@@ -55161,7 +55164,7 @@
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="19" t="s">
+      <c r="G81" s="23" t="s">
         <v>1304</v>
       </c>
     </row>
@@ -55172,7 +55175,7 @@
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="21" t="s">
+      <c r="G82" s="19" t="s">
         <v>1305</v>
       </c>
     </row>
@@ -55183,7 +55186,7 @@
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="6" t="s">
+      <c r="G83" s="21" t="s">
         <v>1306</v>
       </c>
     </row>
@@ -55249,8 +55252,8 @@
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="19" t="s">
-        <v>634</v>
+      <c r="G89" s="6" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="90">
@@ -55260,8 +55263,8 @@
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
-      <c r="G90" s="23" t="s">
-        <v>556</v>
+      <c r="G90" s="19" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="91">
@@ -55271,8 +55274,8 @@
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
-      <c r="G91" s="19" t="s">
-        <v>1312</v>
+      <c r="G91" s="23" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="92">
@@ -55305,7 +55308,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="19" t="s">
-        <v>665</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="95">
@@ -55315,8 +55318,8 @@
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
-      <c r="G95" s="6" t="s">
-        <v>1315</v>
+      <c r="G95" s="19" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="96">
@@ -55326,7 +55329,7 @@
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
-      <c r="G96" s="3" t="s">
+      <c r="G96" s="6" t="s">
         <v>1316</v>
       </c>
     </row>
@@ -55337,7 +55340,7 @@
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
-      <c r="G97" s="6" t="s">
+      <c r="G97" s="3" t="s">
         <v>1317</v>
       </c>
     </row>
@@ -55436,8 +55439,8 @@
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
-      <c r="G106" s="19" t="s">
-        <v>156</v>
+      <c r="G106" s="6" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="107">
@@ -55447,8 +55450,8 @@
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
-      <c r="G107" s="6" t="s">
-        <v>1326</v>
+      <c r="G107" s="19" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="108">
@@ -55546,7 +55549,7 @@
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
-      <c r="G116" s="23" t="s">
+      <c r="G116" s="6" t="s">
         <v>1335</v>
       </c>
     </row>
@@ -55557,7 +55560,7 @@
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
-      <c r="G117" s="6" t="s">
+      <c r="G117" s="23" t="s">
         <v>1336</v>
       </c>
     </row>
@@ -55579,7 +55582,7 @@
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
-      <c r="G119" s="23" t="s">
+      <c r="G119" s="6" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -55590,7 +55593,7 @@
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
-      <c r="G120" s="6" t="s">
+      <c r="G120" s="23" t="s">
         <v>1339</v>
       </c>
     </row>
@@ -55602,7 +55605,7 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="6" t="s">
-        <v>719</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="122">
@@ -55612,8 +55615,8 @@
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
-      <c r="G122" s="3" t="s">
-        <v>1340</v>
+      <c r="G122" s="6" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="123">
@@ -55623,7 +55626,7 @@
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
-      <c r="G123" s="23" t="s">
+      <c r="G123" s="3" t="s">
         <v>1341</v>
       </c>
     </row>
@@ -55634,7 +55637,7 @@
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
-      <c r="G124" s="6" t="s">
+      <c r="G124" s="23" t="s">
         <v>1342</v>
       </c>
     </row>
@@ -55678,8 +55681,8 @@
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
-      <c r="G128" s="23" t="s">
-        <v>477</v>
+      <c r="G128" s="6" t="s">
+        <v>1346</v>
       </c>
     </row>
     <row r="129">
@@ -55689,8 +55692,8 @@
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
-      <c r="G129" s="19" t="s">
-        <v>1346</v>
+      <c r="G129" s="23" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="130">
@@ -55700,7 +55703,7 @@
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
-      <c r="G130" s="23" t="s">
+      <c r="G130" s="19" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -55711,7 +55714,7 @@
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
-      <c r="G131" s="19" t="s">
+      <c r="G131" s="23" t="s">
         <v>1348</v>
       </c>
     </row>
@@ -55722,8 +55725,8 @@
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
-      <c r="G132" s="23" t="s">
-        <v>939</v>
+      <c r="G132" s="19" t="s">
+        <v>1349</v>
       </c>
     </row>
     <row r="133">
@@ -55733,8 +55736,8 @@
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
-      <c r="G133" s="6" t="s">
-        <v>1349</v>
+      <c r="G133" s="23" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="134">
@@ -55775,13 +55778,18 @@
       </c>
     </row>
     <row r="139">
-      <c r="G139" s="25" t="s">
+      <c r="G139" s="6" t="s">
         <v>1355</v>
       </c>
     </row>
     <row r="140">
-      <c r="G140" s="6" t="s">
+      <c r="G140" s="25" t="s">
         <v>1356</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="G141" s="6" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="142">
@@ -55939,7 +55947,8 @@
     <hyperlink r:id="rId142" ref="G138"/>
     <hyperlink r:id="rId143" ref="G139"/>
     <hyperlink r:id="rId144" ref="G140"/>
+    <hyperlink r:id="rId145" ref="G141"/>
   </hyperlinks>
-  <drawing r:id="rId145"/>
+  <drawing r:id="rId146"/>
 </worksheet>
 </file>
--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -55665,7 +55665,7 @@
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
-      <c r="G126" s="6" t="s">
+      <c r="G126" s="23" t="s">
         <v>1344</v>
       </c>
     </row>

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -22930,7 +22930,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="19" t="s">
         <v>1052</v>
       </c>
     </row>

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -57804,7 +57804,7 @@
       <c r="E83" s="91"/>
       <c r="F83" s="91"/>
       <c r="G83" s="91"/>
-      <c r="H83" s="69" t="s">
+      <c r="H83" s="77" t="s">
         <v>1311</v>
       </c>
     </row>

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -25,6 +25,12 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="H201">
+      <text>
+        <t xml:space="preserve">https://labelbox.com/blog/labelbox-leaderboards-redefining-ai-evaluation-with-private-transparent-and-human-centric-assessments
+	-Jimmy Zhao</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="A335">
       <text>
         <t xml:space="preserve">https://mmbench-video.github.io
@@ -445,9 +451,6 @@
     <comment authorId="0" ref="A204">
       <text>
         <t xml:space="preserve">https://hkubs.hku.hk/aimodelrankings/en
-	-Jimmy Zhao
-----
-https://github.com/TongjiFinLab/CFBenchmark
 	-Jimmy Zhao</t>
       </text>
     </comment>
@@ -508,6 +511,9 @@
     <comment authorId="0" ref="A328">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/opencompass/opencompass-llm-leaderboard
+	-Jimmy Zhao
+----
+https://github.com/web-arena-x/visualwebarena
 	-Jimmy Zhao</t>
       </text>
     </comment>
@@ -660,6 +666,9 @@
     <comment authorId="0" ref="A414">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUE-Safety?tab=readme-ov-file#%E6%A8%A1%E5%9E%8B%E4%B8%8E%E6%A6%9C%E5%8D%95
+	-Jimmy Zhao
+----
+https://github.com/EleutherAI/lm_perplexity
 	-Jimmy Zhao</t>
       </text>
     </comment>
@@ -840,6 +849,18 @@
     <comment authorId="0" ref="F305">
       <text>
         <t xml:space="preserve">https://github.com/Yuliang-Liu/MultimodalOCR?tab=readme-ov-file#ocrbench
+	-Jimmy Zhao
+----
+https://ogb-save.stanford.edu/leaderboard
+	-Jimmy Zhao
+----
+https://ogb-save.stanford.edu/leaderboard
+	-Jimmy Zhao
+----
+https://ogb-save.stanford.edu/leaderboard
+	-Jimmy Zhao
+----
+https://ogb-save.stanford.edu/leaderboard
 	-Jimmy Zhao</t>
       </text>
     </comment>
@@ -1291,7 +1312,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F285">
+    <comment authorId="0" ref="F284">
       <text>
         <t xml:space="preserve">https://leaderboard.carla.org/submit
 	-Jimmy Zhao</t>
@@ -2128,6 +2149,9 @@
     <comment authorId="0" ref="A236">
       <text>
         <t xml:space="preserve">https://github.com/longvideobench/LongVideoBench?tab=readme-ov-file#initial-leaderboard
+	-Jimmy Zhao
+----
+https://github.com/TIGER-AI-Lab/LongICLBench?tab=readme-ov-file#%EF%B8%8F-model-evaluation
 	-Jimmy Zhao</t>
       </text>
     </comment>
@@ -2318,18 +2342,6 @@
     <comment authorId="0" ref="F306">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/valory/olas-prediction-leaderboard/discussions/3
-	-Jimmy Zhao
-----
-https://ogb-save.stanford.edu/leaderboard
-	-Jimmy Zhao
-----
-https://ogb-save.stanford.edu/leaderboard
-	-Jimmy Zhao
-----
-https://ogb-save.stanford.edu/leaderboard
-	-Jimmy Zhao
-----
-https://ogb-save.stanford.edu/leaderboard
 	-Jimmy Zhao</t>
       </text>
     </comment>
@@ -2399,12 +2411,6 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A237">
-      <text>
-        <t xml:space="preserve">https://github.com/TIGER-AI-Lab/LongICLBench?tab=readme-ov-file#%EF%B8%8F-model-evaluation
-	-Jimmy Zhao</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="A215">
       <text>
         <t xml:space="preserve">https://www.salesforceairesearch.com/crm-benchmark
@@ -2448,7 +2454,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H306">
+    <comment authorId="0" ref="H305">
       <text>
         <t xml:space="preserve">https://github.com/allenai/CommonGen-Eval?tab=readme-ov-file#run-gpt-4-based-evaluation
 	-Jimmy Zhao</t>
@@ -2466,7 +2472,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I285">
+    <comment authorId="0" ref="I284">
       <text>
         <t xml:space="preserve">https://leaderboard.carla.org/about
 	-Jimmy Zhao</t>
@@ -2514,13 +2520,13 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B306">
+    <comment authorId="0" ref="B305">
       <text>
         <t xml:space="preserve">https://github.com/allenai/CommonGen-Eval
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B399">
+    <comment authorId="0" ref="B398">
       <text>
         <t xml:space="preserve">https://github.com/MAGIC-AI4Med/MMedLM
 	-Jimmy Zhao</t>
@@ -2532,7 +2538,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B284">
+    <comment authorId="0" ref="B283">
       <text>
         <t xml:space="preserve">https://github.com/YihongDong/CDD-TED4LLMs
 	-Jimmy Zhao</t>
@@ -2544,7 +2550,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B300">
+    <comment authorId="0" ref="B299">
       <text>
         <t xml:space="preserve">https://github.com/mesolitica/malaysian-stt-benchmarks
 	-Jimmy Zhao
@@ -2643,19 +2649,19 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I399">
+    <comment authorId="0" ref="I398">
       <text>
         <t xml:space="preserve">https://medium.com/@tao.yu/spider-one-more-step-towards-natural-language-interfaces-to-databases-62298dc6df3c
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I463">
+    <comment authorId="0" ref="I462">
       <text>
         <t xml:space="preserve">https://huggingface.co/blog/manu/colpali
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I329">
+    <comment authorId="0" ref="I328">
       <text>
         <t xml:space="preserve">https://arxiv.org/pdf/2406.07545
 	-Jimmy Zhao</t>
@@ -2685,7 +2691,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I364">
+    <comment authorId="0" ref="I363">
       <text>
         <t xml:space="preserve">https://arxiv.org/html/2406.12066v2
 	-Jimmy Zhao</t>
@@ -2717,13 +2723,13 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I443">
+    <comment authorId="0" ref="I442">
       <text>
         <t xml:space="preserve">https://llm.extractum.io/static/blog/?id=ugi-leaderboard
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I438">
+    <comment authorId="0" ref="I437">
       <text>
         <t xml:space="preserve">https://www.trustbit.tech/en/llm-leaderboard-mai-2024
 	-Jimmy Zhao</t>
@@ -2735,7 +2741,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I256">
+    <comment authorId="0" ref="I255">
       <text>
         <t xml:space="preserve">https://www.philschmid.de/evaluate-llm-mixeval
 	-Jimmy Zhao</t>
@@ -2759,7 +2765,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I341">
+    <comment authorId="0" ref="I340">
       <text>
         <t xml:space="preserve">https://arxiv.org/html/2405.00732v1
 	-Jimmy Zhao</t>
@@ -2777,7 +2783,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I303">
+    <comment authorId="0" ref="I302">
       <text>
         <t xml:space="preserve">https://arxiv.org/html/2406.06462v2
 	-Jimmy Zhao
@@ -2830,7 +2836,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I290">
+    <comment authorId="0" ref="I289">
       <text>
         <t xml:space="preserve">https://arxiv.org/html/2405.04520v1
 	-Jimmy Zhao</t>
@@ -2852,7 +2858,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I270">
+    <comment authorId="0" ref="I269">
       <text>
         <t xml:space="preserve">https://arxiv.org/html/2312.14852v3
 	-Jimmy Zhao</t>
@@ -2876,7 +2882,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I260">
+    <comment authorId="0" ref="I259">
       <text>
         <t xml:space="preserve">https://arxiv.org/pdf/2406.04264
 	-Jimmy Zhao
@@ -2891,55 +2897,55 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I459">
+    <comment authorId="0" ref="I458">
       <text>
         <t xml:space="preserve">https://arxiv.org/pdf/2406.09367
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I421">
+    <comment authorId="0" ref="I420">
       <text>
         <t xml:space="preserve">https://mp.weixin.qq.com/s/pNLlWesPOIeCfHu5xVfOGg
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I422">
+    <comment authorId="0" ref="I421">
       <text>
         <t xml:space="preserve">https://mp.weixin.qq.com/s/dUfF2TfYKrR3ZTn-nhpH-w
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I413">
+    <comment authorId="0" ref="I412">
       <text>
         <t xml:space="preserve">https://mp.weixin.qq.com/s/eIS7BjFYmyby2gpSd875Hw
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I411">
+    <comment authorId="0" ref="I410">
       <text>
         <t xml:space="preserve">https://mp.weixin.qq.com/s/QPeUu5ThP2f0dKEPDuFqxA
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I410">
+    <comment authorId="0" ref="I409">
       <text>
         <t xml:space="preserve">https://mp.weixin.qq.com/s/emW_g5A8DKTFojvWFnsrqQ
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H415">
+    <comment authorId="0" ref="H414">
       <text>
         <t xml:space="preserve">https://github.com/EleutherAI/lm_perplexity/issues/2
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H223">
+    <comment authorId="0" ref="H222">
       <text>
         <t xml:space="preserve">https://matheval.ai/evaluation
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I223">
+    <comment authorId="0" ref="I222">
       <text>
         <t xml:space="preserve">https://ai.100tal.com
 	-Jimmy Zhao
@@ -2950,13 +2956,13 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B223">
+    <comment authorId="0" ref="B222">
       <text>
         <t xml:space="preserve">https://github.com/math-eval/MathEval
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B248">
+    <comment authorId="0" ref="B247">
       <text>
         <t xml:space="preserve">https://github.com/THUNLP-MT/StableToolBench
 	-Jimmy Zhao</t>
@@ -2968,7 +2974,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I445">
+    <comment authorId="0" ref="I444">
       <text>
         <t xml:space="preserve">https://arxiv.org/pdf/2403.20331
 	-Jimmy Zhao</t>
@@ -2989,7 +2995,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I392">
+    <comment authorId="0" ref="I391">
       <text>
         <t xml:space="preserve">https://scale.com/
 	-Jimmy Zhao</t>
@@ -3007,7 +3013,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I219">
+    <comment authorId="0" ref="I218">
       <text>
         <t xml:space="preserve">https://github.com/evalplus/repoqa
 	-Jimmy Zhao
@@ -3016,13 +3022,13 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I242">
+    <comment authorId="0" ref="I241">
       <text>
         <t xml:space="preserve">https://arxiv.org/pdf/2405.12209
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I455">
+    <comment authorId="0" ref="I454">
       <text>
         <t xml:space="preserve">https://www.reka.ai/news/vibe-eval
 	-Jimmy Zhao
@@ -3030,19 +3036,19 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I417">
+    <comment authorId="0" ref="I416">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_role.html
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I416">
+    <comment authorId="0" ref="I415">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_rag.html
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I203">
+    <comment authorId="0" ref="I202">
       <text>
         <t xml:space="preserve">https://ai.meta.com/blog/openeqa-embodied-question-answering-robotics-ar-glasses/
 	-Jimmy Zhao</t>
@@ -3054,18 +3060,24 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I273">
+    <comment authorId="0" ref="I272">
       <text>
         <t xml:space="preserve">Algorithm: Length Penalty
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I204">
+    <comment authorId="0" ref="I203">
       <text>
         <t xml:space="preserve">https://github.com/open-compass/opencompass/blob/main/configs/datasets/OpenFinData/OpenFinData.md
 	-Jimmy Zhao
 ----
 due to benchmark evolution
+	-Jimmy Zhao</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A203">
+      <text>
+        <t xml:space="preserve">https://github.com/TongjiFinLab/CFBenchmark
 	-Jimmy Zhao</t>
       </text>
     </comment>
@@ -3081,13 +3093,13 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H209">
+    <comment authorId="0" ref="H208">
       <text>
         <t xml:space="preserve">https://github.com/NousResearch/finetuning-subnet/blob/master/docs/validator.md
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A209">
+    <comment authorId="0" ref="A208">
       <text>
         <t xml:space="preserve">model- and data-centric leaderboards
 	-Jimmy Zhao
@@ -3098,67 +3110,67 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I238">
+    <comment authorId="0" ref="I237">
       <text>
         <t xml:space="preserve">https://toloka.ai/talk-to-us/
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I415">
+    <comment authorId="0" ref="I414">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_open.html
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I412">
+    <comment authorId="0" ref="I411">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_industry.html
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I405">
+    <comment authorId="0" ref="I404">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue.html
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I407">
+    <comment authorId="0" ref="I406">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_agent.html
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I408">
+    <comment authorId="0" ref="I407">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_auto.html
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I409">
+    <comment authorId="0" ref="I408">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_code3.html
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I414">
+    <comment authorId="0" ref="I413">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_math6.html
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I418">
+    <comment authorId="0" ref="I417">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_safety.html
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I291">
+    <comment authorId="0" ref="I290">
       <text>
         <t xml:space="preserve">https://nexusflow.ai/blogs/ravenv2
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I268">
+    <comment authorId="0" ref="I267">
       <text>
         <t xml:space="preserve">https://coreymorrisdata.medium.com/preliminary-analysis-of-mmlu-evaluation-data-insights-from-500-open-source-models-e67885aa364b
 	-Jimmy Zhao
@@ -3211,23 +3223,6 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A329">
-      <text>
-        <t xml:space="preserve">https://github.com/web-arena-x/visualwebarena
-	-Jimmy Zhao
-----
-https://huggingface.co/spaces/opencompass/open_vlm_leaderboard
-	-Jimmy Zhao
-https://openxlab.org.cn/apps/detail/kennyutc/open_mllm_leaderboard
-	-Jimmy Zhao</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A415">
-      <text>
-        <t xml:space="preserve">https://github.com/EleutherAI/lm_perplexity
-	-Jimmy Zhao</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="B163">
       <text>
         <t xml:space="preserve">https://github.com/tsb0601/MMVP
@@ -3240,7 +3235,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B250">
+    <comment authorId="0" ref="B249">
       <text>
         <t xml:space="preserve">https://github.com/salesforce/factualNLG
 	-Jimmy Zhao</t>
@@ -3330,19 +3325,19 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I249">
+    <comment authorId="0" ref="I248">
       <text>
         <t xml:space="preserve">https://whoops-benchmark.github.io/
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I262">
+    <comment authorId="0" ref="I261">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard/discussions/1
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I272">
+    <comment authorId="0" ref="I271">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard-Full/discussions/1
 	-Jimmy Zhao</t>
@@ -3354,7 +3349,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I209">
+    <comment authorId="0" ref="I208">
       <text>
         <t xml:space="preserve">https://github.com/NousResearch/finetuning-subnet/blob/master/docs/validator.md#getting-started
 	-Jimmy Zhao
@@ -3368,7 +3363,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B209">
+    <comment authorId="0" ref="B208">
       <text>
         <t xml:space="preserve">https://github.com/NousResearch/finetuning-subnet
 	-Jimmy Zhao
@@ -3419,7 +3414,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I248">
+    <comment authorId="0" ref="I247">
       <text>
         <t xml:space="preserve">https://github.com/sylinrl/TruthfulQA/issues/8
 	-Jimmy Zhao</t>
@@ -3470,7 +3465,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I250">
+    <comment authorId="0" ref="I249">
       <text>
         <t xml:space="preserve">IEEE International Conference on Acoustics, Speech and Signal Processing
 	-Jimmy Zhao</t>
@@ -3505,6 +3500,14 @@
     <comment authorId="0" ref="I69">
       <text>
         <t xml:space="preserve">https://github.com/EQ-bench/EQ-Bench
+	-Jimmy Zhao</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A329">
+      <text>
+        <t xml:space="preserve">https://huggingface.co/spaces/opencompass/open_vlm_leaderboard
+	-Jimmy Zhao
+https://openxlab.org.cn/apps/detail/kennyutc/open_mllm_leaderboard
 	-Jimmy Zhao</t>
       </text>
     </comment>
@@ -3595,7 +3598,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A269">
+    <comment authorId="0" ref="A268">
       <text>
         <t xml:space="preserve">https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/24
 	-Jimmy Zhao</t>
@@ -3645,7 +3648,7 @@
 	-Jimmy Zhao</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B373">
+    <comment authorId="0" ref="B372">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard
 	-Jimmy Zhao
@@ -3689,7 +3692,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="1385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="1385">
   <si>
     <t>Name</t>
   </si>
@@ -14735,6 +14738,23 @@
       <c r="I221" s="23" t="s">
         <v>446</v>
       </c>
+      <c r="J221" s="26"/>
+      <c r="K221" s="26"/>
+      <c r="L221" s="26"/>
+      <c r="M221" s="26"/>
+      <c r="N221" s="26"/>
+      <c r="O221" s="26"/>
+      <c r="P221" s="26"/>
+      <c r="Q221" s="26"/>
+      <c r="R221" s="26"/>
+      <c r="S221" s="26"/>
+      <c r="T221" s="26"/>
+      <c r="U221" s="26"/>
+      <c r="V221" s="26"/>
+      <c r="W221" s="26"/>
+      <c r="X221" s="26"/>
+      <c r="Y221" s="26"/>
+      <c r="Z221" s="26"/>
     </row>
     <row r="222">
       <c r="A222" s="4" t="s">
@@ -14756,23 +14776,6 @@
       <c r="I222" s="43" t="s">
         <v>448</v>
       </c>
-      <c r="J222" s="26"/>
-      <c r="K222" s="26"/>
-      <c r="L222" s="26"/>
-      <c r="M222" s="26"/>
-      <c r="N222" s="26"/>
-      <c r="O222" s="26"/>
-      <c r="P222" s="26"/>
-      <c r="Q222" s="26"/>
-      <c r="R222" s="26"/>
-      <c r="S222" s="26"/>
-      <c r="T222" s="26"/>
-      <c r="U222" s="26"/>
-      <c r="V222" s="26"/>
-      <c r="W222" s="26"/>
-      <c r="X222" s="26"/>
-      <c r="Y222" s="26"/>
-      <c r="Z222" s="26"/>
     </row>
     <row r="223">
       <c r="A223" s="8" t="s">
@@ -15581,6 +15584,23 @@
       <c r="H261" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="J261" s="26"/>
+      <c r="K261" s="26"/>
+      <c r="L261" s="26"/>
+      <c r="M261" s="26"/>
+      <c r="N261" s="26"/>
+      <c r="O261" s="26"/>
+      <c r="P261" s="26"/>
+      <c r="Q261" s="26"/>
+      <c r="R261" s="26"/>
+      <c r="S261" s="26"/>
+      <c r="T261" s="26"/>
+      <c r="U261" s="26"/>
+      <c r="V261" s="26"/>
+      <c r="W261" s="26"/>
+      <c r="X261" s="26"/>
+      <c r="Y261" s="26"/>
+      <c r="Z261" s="26"/>
     </row>
     <row r="262">
       <c r="A262" s="4" t="s">
@@ -15604,23 +15624,6 @@
         <v>32</v>
       </c>
       <c r="I262" s="44"/>
-      <c r="J262" s="26"/>
-      <c r="K262" s="26"/>
-      <c r="L262" s="26"/>
-      <c r="M262" s="26"/>
-      <c r="N262" s="26"/>
-      <c r="O262" s="26"/>
-      <c r="P262" s="26"/>
-      <c r="Q262" s="26"/>
-      <c r="R262" s="26"/>
-      <c r="S262" s="26"/>
-      <c r="T262" s="26"/>
-      <c r="U262" s="26"/>
-      <c r="V262" s="26"/>
-      <c r="W262" s="26"/>
-      <c r="X262" s="26"/>
-      <c r="Y262" s="26"/>
-      <c r="Z262" s="26"/>
     </row>
     <row r="263">
       <c r="A263" s="8" t="s">
@@ -15725,6 +15728,23 @@
       <c r="I267" s="35" t="s">
         <v>551</v>
       </c>
+      <c r="J267" s="26"/>
+      <c r="K267" s="26"/>
+      <c r="L267" s="26"/>
+      <c r="M267" s="26"/>
+      <c r="N267" s="26"/>
+      <c r="O267" s="26"/>
+      <c r="P267" s="26"/>
+      <c r="Q267" s="26"/>
+      <c r="R267" s="26"/>
+      <c r="S267" s="26"/>
+      <c r="T267" s="26"/>
+      <c r="U267" s="26"/>
+      <c r="V267" s="26"/>
+      <c r="W267" s="26"/>
+      <c r="X267" s="26"/>
+      <c r="Y267" s="26"/>
+      <c r="Z267" s="26"/>
     </row>
     <row r="268">
       <c r="A268" s="4" t="s">
@@ -15743,23 +15763,6 @@
         <v>4.0</v>
       </c>
       <c r="I268" s="44"/>
-      <c r="J268" s="26"/>
-      <c r="K268" s="26"/>
-      <c r="L268" s="26"/>
-      <c r="M268" s="26"/>
-      <c r="N268" s="26"/>
-      <c r="O268" s="26"/>
-      <c r="P268" s="26"/>
-      <c r="Q268" s="26"/>
-      <c r="R268" s="26"/>
-      <c r="S268" s="26"/>
-      <c r="T268" s="26"/>
-      <c r="U268" s="26"/>
-      <c r="V268" s="26"/>
-      <c r="W268" s="26"/>
-      <c r="X268" s="26"/>
-      <c r="Y268" s="26"/>
-      <c r="Z268" s="26"/>
     </row>
     <row r="269">
       <c r="A269" s="8" t="s">
@@ -16198,6 +16201,23 @@
       <c r="I289" s="23" t="s">
         <v>600</v>
       </c>
+      <c r="J289" s="26"/>
+      <c r="K289" s="26"/>
+      <c r="L289" s="26"/>
+      <c r="M289" s="26"/>
+      <c r="N289" s="26"/>
+      <c r="O289" s="26"/>
+      <c r="P289" s="26"/>
+      <c r="Q289" s="26"/>
+      <c r="R289" s="26"/>
+      <c r="S289" s="26"/>
+      <c r="T289" s="26"/>
+      <c r="U289" s="26"/>
+      <c r="V289" s="26"/>
+      <c r="W289" s="26"/>
+      <c r="X289" s="26"/>
+      <c r="Y289" s="26"/>
+      <c r="Z289" s="26"/>
     </row>
     <row r="290">
       <c r="A290" s="19" t="s">
@@ -16221,23 +16241,6 @@
       <c r="I290" s="43" t="s">
         <v>604</v>
       </c>
-      <c r="J290" s="26"/>
-      <c r="K290" s="26"/>
-      <c r="L290" s="26"/>
-      <c r="M290" s="26"/>
-      <c r="N290" s="26"/>
-      <c r="O290" s="26"/>
-      <c r="P290" s="26"/>
-      <c r="Q290" s="26"/>
-      <c r="R290" s="26"/>
-      <c r="S290" s="26"/>
-      <c r="T290" s="26"/>
-      <c r="U290" s="26"/>
-      <c r="V290" s="26"/>
-      <c r="W290" s="26"/>
-      <c r="X290" s="26"/>
-      <c r="Y290" s="26"/>
-      <c r="Z290" s="26"/>
     </row>
     <row r="291">
       <c r="A291" s="8" t="s">
@@ -18282,8 +18285,8 @@
         <v>11</v>
       </c>
       <c r="G390" s="7"/>
-      <c r="H390" s="5">
-        <v>4.0</v>
+      <c r="H390" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="391">
@@ -18788,6 +18791,23 @@
       <c r="H415" s="9">
         <v>4.0</v>
       </c>
+      <c r="J415" s="26"/>
+      <c r="K415" s="26"/>
+      <c r="L415" s="26"/>
+      <c r="M415" s="26"/>
+      <c r="N415" s="26"/>
+      <c r="O415" s="26"/>
+      <c r="P415" s="26"/>
+      <c r="Q415" s="26"/>
+      <c r="R415" s="26"/>
+      <c r="S415" s="26"/>
+      <c r="T415" s="26"/>
+      <c r="U415" s="26"/>
+      <c r="V415" s="26"/>
+      <c r="W415" s="26"/>
+      <c r="X415" s="26"/>
+      <c r="Y415" s="26"/>
+      <c r="Z415" s="26"/>
     </row>
     <row r="416">
       <c r="A416" s="4" t="s">
@@ -18884,23 +18904,6 @@
       <c r="I418" s="43" t="s">
         <v>877</v>
       </c>
-      <c r="J418" s="26"/>
-      <c r="K418" s="26"/>
-      <c r="L418" s="26"/>
-      <c r="M418" s="26"/>
-      <c r="N418" s="26"/>
-      <c r="O418" s="26"/>
-      <c r="P418" s="26"/>
-      <c r="Q418" s="26"/>
-      <c r="R418" s="26"/>
-      <c r="S418" s="26"/>
-      <c r="T418" s="26"/>
-      <c r="U418" s="26"/>
-      <c r="V418" s="26"/>
-      <c r="W418" s="26"/>
-      <c r="X418" s="26"/>
-      <c r="Y418" s="26"/>
-      <c r="Z418" s="26"/>
     </row>
     <row r="419">
       <c r="A419" s="8" t="s">
@@ -19035,6 +19038,23 @@
       <c r="I424" s="24" t="s">
         <v>893</v>
       </c>
+      <c r="J424" s="26"/>
+      <c r="K424" s="26"/>
+      <c r="L424" s="26"/>
+      <c r="M424" s="26"/>
+      <c r="N424" s="26"/>
+      <c r="O424" s="26"/>
+      <c r="P424" s="26"/>
+      <c r="Q424" s="26"/>
+      <c r="R424" s="26"/>
+      <c r="S424" s="26"/>
+      <c r="T424" s="26"/>
+      <c r="U424" s="26"/>
+      <c r="V424" s="26"/>
+      <c r="W424" s="26"/>
+      <c r="X424" s="26"/>
+      <c r="Y424" s="26"/>
+      <c r="Z424" s="26"/>
     </row>
     <row r="425">
       <c r="A425" s="8" t="s">
@@ -19058,23 +19078,6 @@
         <v>32</v>
       </c>
       <c r="I425" s="25"/>
-      <c r="J425" s="26"/>
-      <c r="K425" s="26"/>
-      <c r="L425" s="26"/>
-      <c r="M425" s="26"/>
-      <c r="N425" s="26"/>
-      <c r="O425" s="26"/>
-      <c r="P425" s="26"/>
-      <c r="Q425" s="26"/>
-      <c r="R425" s="26"/>
-      <c r="S425" s="26"/>
-      <c r="T425" s="26"/>
-      <c r="U425" s="26"/>
-      <c r="V425" s="26"/>
-      <c r="W425" s="26"/>
-      <c r="X425" s="26"/>
-      <c r="Y425" s="26"/>
-      <c r="Z425" s="26"/>
     </row>
     <row r="426">
       <c r="A426" s="4" t="s">
@@ -22460,22 +22463,15 @@
       <c r="F809" s="61"/>
       <c r="H809" s="61"/>
     </row>
-    <row r="810">
-      <c r="B810" s="61"/>
-      <c r="D810" s="61"/>
-      <c r="E810" s="61"/>
-      <c r="F810" s="61"/>
-      <c r="H810" s="61"/>
-    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B810">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B809">
       <formula1>"gh,gh,hf,gh,hf,ip,gh,ip,gh,pwc,hf,hf,ip,ip,Host platforms,pwc,ss,ip,ss,gh,ss"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F482">
       <formula1>"Has any submission channel/protocol?,y"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D810">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D809">
       <formula1>"Has many major releases?,y"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H482">
@@ -22487,13 +22483,13 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E482">
       <formula1>"Attaches model provenance?,y"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H810">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H809">
       <formula1>"1,1,4,1,4,5,2,2,4,3,4,4,5,5,Workflow patterns,1,5,1,2,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F810">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F809">
       <formula1>"Has any submission channel/protocol?,y"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E810">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E809">
       <formula1>"Attaches model provenance?,y"</formula1>
     </dataValidation>
   </dataValidations>

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -3692,7 +3692,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="1385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="1387">
   <si>
     <t>Name</t>
   </si>
@@ -4423,7 +4423,26 @@
     <t>https://github.com/rohan598/ConTextual</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/ucla-contextual/contextual_leaderboard/discussions/2</t>
+    <r>
+      <rPr>
+        <color rgb="FF434343"/>
+        <u/>
+      </rPr>
+      <t>https://huggingface.co/spaces/ucla-contextual/contextual_leaderboard/discussions/2</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://huggingface.co/spaces/ucla-contextual/contextual_leaderboard/discussions/3</t>
+    </r>
   </si>
   <si>
     <t>ConvRe</t>
@@ -7376,6 +7395,9 @@
     <t>https://github.com/CLUEbenchmark/SuperCLUE/issues/43</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/ucla-contextual/contextual_leaderboard/discussions/2</t>
+  </si>
+  <si>
     <t>https://github.com/open-compass/MathBench/issues/7</t>
   </si>
   <si>
@@ -8322,6 +8344,9 @@
   </si>
   <si>
     <t>https://huggingface.co/spaces/ThomasSimonini/Deep-Reinforcement-Learning-Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ucla-contextual/contextual_leaderboard/discussions/3</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/umdclip/advcalibration/discussions/1</t>
@@ -8424,7 +8449,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="84">
+  <fonts count="85">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -8792,6 +8817,11 @@
       <name val="Roboto"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <color rgb="FF0000FF"/>
@@ -8886,7 +8916,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border/>
     <border>
       <left style="thin">
@@ -9257,6 +9287,20 @@
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
         <color rgb="FF284E3F"/>
       </right>
       <top style="thin">
@@ -9354,7 +9398,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="148">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -9731,58 +9775,70 @@
     <xf borderId="26" fillId="4" fontId="68" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="69" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="69" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="70" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="28" fillId="2" fontId="70" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="2" fontId="71" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="29" fillId="3" fontId="71" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="3" fontId="72" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="28" fillId="2" fontId="72" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="2" fontId="73" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="28" fillId="2" fontId="73" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="2" fontId="74" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="30" fillId="0" fontId="74" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="0" fontId="75" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="28" fillId="2" fontId="75" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="2" fontId="76" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="30" fillId="0" fontId="76" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="0" fontId="77" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="29" fillId="3" fontId="77" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="3" fontId="78" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="28" fillId="2" fontId="78" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="2" fontId="79" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="29" fillId="3" fontId="79" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="3" fontId="80" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="31" fillId="4" fontId="80" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="32" fillId="4" fontId="81" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="81" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="82" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="0" fontId="82" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="33" fillId="0" fontId="83" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="34" fillId="0" fontId="84" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -10079,7 +10135,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I142" displayName="Table9" name="Table9" id="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I143" displayName="Table9" name="Table9" id="9">
   <tableColumns count="9">
     <tableColumn name="Benchmark Metric" id="1"/>
     <tableColumn name="Benchmark Protocol" id="2"/>
@@ -23513,193 +23569,193 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="129" t="s">
-        <v>1364</v>
+      <c r="A1" s="133" t="s">
+        <v>1366</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="134" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="135" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="132" t="s">
-        <v>1365</v>
+      <c r="A4" s="136" t="s">
+        <v>1367</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="137" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="135" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="130" t="s">
-        <v>1366</v>
+      <c r="A7" s="134" t="s">
+        <v>1368</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="134" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="138" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="134" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="133" t="s">
-        <v>1367</v>
+      <c r="A11" s="137" t="s">
+        <v>1369</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="135" t="s">
-        <v>1368</v>
+      <c r="A12" s="139" t="s">
+        <v>1370</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="136" t="s">
-        <v>1369</v>
+      <c r="A13" s="140" t="s">
+        <v>1371</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="135" t="s">
-        <v>1370</v>
+      <c r="A14" s="139" t="s">
+        <v>1372</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="134" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="141" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="142" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="139" t="s">
-        <v>1371</v>
+      <c r="A18" s="143" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="135" t="s">
-        <v>1372</v>
+      <c r="A19" s="139" t="s">
+        <v>1374</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="140" t="s">
-        <v>1373</v>
+      <c r="A20" s="144" t="s">
+        <v>1375</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="131" t="s">
-        <v>1374</v>
+      <c r="A21" s="135" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="137" t="s">
-        <v>1375</v>
+      <c r="A22" s="141" t="s">
+        <v>1377</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="132" t="s">
-        <v>1376</v>
+      <c r="A23" s="136" t="s">
+        <v>1378</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="141" t="s">
+      <c r="A24" s="145" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="137" t="s">
-        <v>1377</v>
+      <c r="A25" s="141" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="142" t="s">
-        <v>1378</v>
+      <c r="A26" s="146" t="s">
+        <v>1380</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="132" t="s">
-        <v>1379</v>
+      <c r="A27" s="136" t="s">
+        <v>1381</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="130" t="s">
-        <v>1380</v>
+      <c r="A28" s="134" t="s">
+        <v>1382</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="130" t="s">
-        <v>1381</v>
+      <c r="A29" s="134" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="130" t="s">
+      <c r="A30" s="134" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="138" t="s">
+      <c r="A31" s="142" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="138" t="s">
-        <v>1382</v>
+      <c r="A32" s="142" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="136" t="s">
-        <v>1383</v>
+      <c r="A33" s="140" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="135" t="s">
+      <c r="A34" s="139" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="135" t="s">
+      <c r="A35" s="139" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="138" t="s">
+      <c r="A36" s="142" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="134" t="s">
+      <c r="A37" s="138" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="143" t="s">
-        <v>1384</v>
+      <c r="A38" s="147" t="s">
+        <v>1386</v>
       </c>
     </row>
     <row r="59">
@@ -23963,7 +24019,7 @@
     </row>
     <row r="13">
       <c r="C13" s="71" t="s">
-        <v>219</v>
+        <v>1037</v>
       </c>
       <c r="I13" s="67" t="s">
         <v>874</v>
@@ -23985,7 +24041,7 @@
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
       <c r="I16" s="67" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="17">
@@ -24007,13 +24063,13 @@
     <row r="19">
       <c r="C19" s="70"/>
       <c r="I19" s="72" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="41"/>
       <c r="I20" s="73" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="21">
@@ -24140,7 +24196,7 @@
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="71" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -24248,7 +24304,7 @@
       <c r="A2" s="81"/>
       <c r="B2" s="7"/>
       <c r="C2" s="71" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="85"/>
@@ -24267,16 +24323,16 @@
     </row>
     <row r="3">
       <c r="C3" s="64" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="G3" s="77" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H3" s="71" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="I3" s="86" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="4">
@@ -24284,14 +24340,14 @@
         <v>187</v>
       </c>
       <c r="I4" s="72" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="5">
       <c r="E5" s="70"/>
       <c r="F5" s="70"/>
       <c r="H5" s="71" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="I5" s="87" t="s">
         <v>221</v>
@@ -24302,7 +24358,7 @@
         <v>469</v>
       </c>
       <c r="I6" s="72" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="7">
@@ -24310,12 +24366,12 @@
         <v>611</v>
       </c>
       <c r="I7" s="86" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="8">
       <c r="H8" s="16" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I8" s="88" t="s">
         <v>822</v>
@@ -24323,7 +24379,7 @@
     </row>
     <row r="9">
       <c r="H9" s="64" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="10">
@@ -24343,12 +24399,12 @@
     </row>
     <row r="13">
       <c r="H13" s="75" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="14">
       <c r="H14" s="64" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="15">
@@ -24472,16 +24528,16 @@
     </row>
     <row r="2">
       <c r="A2" s="90" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="71" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="71" t="s">
@@ -24490,10 +24546,10 @@
     </row>
     <row r="3">
       <c r="A3" s="90" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E3" s="91"/>
       <c r="F3" s="77" t="s">
@@ -24501,23 +24557,23 @@
       </c>
       <c r="G3" s="70"/>
       <c r="H3" s="64" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="90" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
       <c r="H4" s="66" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="92" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E5" s="70"/>
       <c r="F5" s="70"/>
@@ -24528,7 +24584,7 @@
     </row>
     <row r="6">
       <c r="A6" s="90" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -24540,7 +24596,7 @@
       <c r="E7" s="93"/>
       <c r="F7" s="93"/>
       <c r="H7" s="94" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
   </sheetData>
@@ -24638,23 +24694,23 @@
     </row>
     <row r="2">
       <c r="A2" s="98" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B2" s="99" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D2" s="99" t="s">
         <v>116</v>
       </c>
       <c r="E2" s="101"/>
       <c r="F2" s="99" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="G2" s="100" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H2" s="102" t="s">
         <v>327</v>
@@ -24683,23 +24739,23 @@
     </row>
     <row r="3">
       <c r="A3" s="104" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D3" s="64" t="s">
         <v>459</v>
       </c>
       <c r="E3" s="70"/>
       <c r="F3" s="75" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="G3" s="100" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="I3" s="105"/>
       <c r="J3" s="97"/>
@@ -24729,7 +24785,7 @@
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="16" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G4" s="65" t="s">
         <v>336</v>
@@ -24759,11 +24815,11 @@
     <row r="5">
       <c r="C5" s="106"/>
       <c r="D5" s="100" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E5" s="91"/>
       <c r="F5" s="69" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="G5" s="107" t="s">
         <v>546</v>
@@ -24794,14 +24850,14 @@
     <row r="6">
       <c r="C6" s="109"/>
       <c r="D6" s="110" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E6" s="109"/>
       <c r="F6" s="110" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="G6" s="111" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H6" s="112"/>
       <c r="I6" s="113"/>
@@ -55663,38 +55719,38 @@
       <c r="A2" s="81"/>
       <c r="B2" s="7"/>
       <c r="D2" s="66" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="16" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="G2" s="64" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H2" s="82" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="3">
       <c r="D3" s="66" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="E3" s="91"/>
       <c r="F3" s="69" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="G3" s="71" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="4">
       <c r="D4" s="115"/>
       <c r="H4" s="110" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="5">
@@ -55775,7 +55831,7 @@
         <v>431</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>523</v>
@@ -55786,10 +55842,10 @@
         <v>994</v>
       </c>
       <c r="G2" s="64" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H2" s="102" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="I2" s="67" t="s">
         <v>169</v>
@@ -55797,10 +55853,10 @@
     </row>
     <row r="3">
       <c r="A3" s="116" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C3" s="91"/>
       <c r="D3" s="91"/>
@@ -55809,10 +55865,10 @@
         <v>1018</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="I3" s="86" t="s">
         <v>259</v>
@@ -55820,7 +55876,7 @@
     </row>
     <row r="4">
       <c r="B4" s="71" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -55829,10 +55885,10 @@
         <v>621</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="I4" s="72" t="s">
         <v>551</v>
@@ -55847,13 +55903,13 @@
       <c r="D5" s="91"/>
       <c r="E5" s="70"/>
       <c r="F5" s="64" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="G5" s="75" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H5" s="69" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="I5" s="86" t="s">
         <v>566</v>
@@ -55865,13 +55921,13 @@
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
       <c r="F6" s="64" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H6" s="71" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="I6" s="24" t="s">
         <v>543</v>
@@ -55883,13 +55939,13 @@
       <c r="D7" s="70"/>
       <c r="E7" s="119"/>
       <c r="F7" s="120" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="G7" s="69" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H7" s="75" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I7" s="121" t="s">
         <v>750</v>
@@ -55902,13 +55958,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="34" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="I8" s="87" t="s">
         <v>48</v>
@@ -55920,13 +55976,13 @@
       <c r="E9" s="91"/>
       <c r="F9" s="91"/>
       <c r="G9" s="75" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H9" s="64" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="10">
@@ -55936,13 +55992,13 @@
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
       <c r="G10" s="16" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H10" s="71" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="I10" s="86" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="11">
@@ -55950,10 +56006,10 @@
       <c r="E11" s="70"/>
       <c r="F11" s="70"/>
       <c r="G11" s="69" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="I11" s="78" t="s">
         <v>669</v>
@@ -55966,10 +56022,10 @@
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
       <c r="G12" s="16" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H12" s="64" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="13">
@@ -55979,10 +56035,10 @@
       <c r="E13" s="70"/>
       <c r="F13" s="70"/>
       <c r="G13" s="69" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H13" s="64" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="14">
@@ -55992,10 +56048,10 @@
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
       <c r="G14" s="16" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="15">
@@ -56005,10 +56061,10 @@
       <c r="E15" s="70"/>
       <c r="F15" s="70"/>
       <c r="G15" s="69" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H15" s="64" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="16">
@@ -56018,10 +56074,10 @@
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
       <c r="G16" s="34" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="17">
@@ -56031,10 +56087,10 @@
       <c r="E17" s="70"/>
       <c r="F17" s="70"/>
       <c r="G17" s="75" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="18">
@@ -56044,10 +56100,10 @@
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
       <c r="G18" s="16" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H18" s="64" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="19">
@@ -56057,10 +56113,10 @@
       <c r="E19" s="70"/>
       <c r="F19" s="70"/>
       <c r="G19" s="69" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H19" s="64" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="20">
@@ -56070,10 +56126,10 @@
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
       <c r="G20" s="34" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H20" s="64" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="21">
@@ -56083,10 +56139,10 @@
       <c r="E21" s="70"/>
       <c r="F21" s="70"/>
       <c r="G21" s="69" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H21" s="71" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="22">
@@ -56094,76 +56150,76 @@
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
       <c r="G22" s="34" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H22" s="64" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="23">
       <c r="G23" s="69" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H23" s="64" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="24">
       <c r="G24" s="34" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H24" s="64" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="25">
       <c r="G25" s="69" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="26">
       <c r="G26" s="34" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="27">
       <c r="G27" s="69" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H27" s="64" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="28">
       <c r="G28" s="16" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H28" s="64" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="29">
       <c r="G29" s="69" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H29" s="64" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
       <c r="G30" s="34" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H30" s="64" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="31">
@@ -56171,20 +56227,20 @@
       <c r="C31" s="70"/>
       <c r="D31" s="70"/>
       <c r="G31" s="69" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H31" s="71" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
       <c r="G32" s="16" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H32" s="64" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="33">
@@ -56194,10 +56250,10 @@
       <c r="E33" s="70"/>
       <c r="F33" s="70"/>
       <c r="G33" s="69" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H33" s="71" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="34">
@@ -56207,10 +56263,10 @@
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
       <c r="G34" s="34" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H34" s="71" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="35">
@@ -56218,20 +56274,20 @@
       <c r="C35" s="70"/>
       <c r="D35" s="70"/>
       <c r="G35" s="69" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H35" s="71" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
       <c r="G36" s="16" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H36" s="64" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="37">
@@ -56241,10 +56297,10 @@
       <c r="E37" s="70"/>
       <c r="F37" s="70"/>
       <c r="G37" s="75" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H37" s="64" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="38">
@@ -56252,52 +56308,52 @@
       <c r="C38" s="41"/>
       <c r="D38" s="41"/>
       <c r="G38" s="34" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H38" s="64" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="39">
       <c r="G39" s="75" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H39" s="64" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" s="34" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H40" s="64" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" s="69" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H41" s="75" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" s="34" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="H42" s="64" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" s="70"/>
       <c r="F43" s="70"/>
       <c r="G43" s="69" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H43" s="69" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="44">
@@ -56307,10 +56363,10 @@
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
       <c r="G44" s="34" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H44" s="64" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="45">
@@ -56318,20 +56374,20 @@
       <c r="C45" s="70"/>
       <c r="D45" s="70"/>
       <c r="G45" s="69" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="H45" s="64" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" s="41"/>
       <c r="F46" s="41"/>
       <c r="G46" s="34" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H46" s="71" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="47">
@@ -56339,197 +56395,197 @@
       <c r="C47" s="70"/>
       <c r="D47" s="70"/>
       <c r="G47" s="69" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="H47" s="71" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" s="34" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="H48" s="71" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" s="69" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H49" s="64" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" s="34" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H50" s="71" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" s="69" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H51" s="64" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" s="64" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" s="64" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" s="64" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" s="64" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" s="16" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" s="64" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" s="64" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" s="64" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" s="64" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" s="64" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" s="16" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" s="64" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" s="64" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" s="64" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" s="16" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" s="71" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" s="64" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" s="71" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" s="64" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" s="64" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" s="71" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" s="71" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" s="64" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" s="71" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" s="64" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" s="64" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" s="71" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" s="64" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" s="71" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" s="75" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" s="64" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="83">
@@ -56539,12 +56595,12 @@
     </row>
     <row r="84">
       <c r="H84" s="120" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" s="82" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="86">
@@ -56554,17 +56610,17 @@
     </row>
     <row r="87">
       <c r="H87" s="71" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" s="71" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" s="77" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="90">
@@ -56809,7 +56865,7 @@
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
       <c r="E2" s="16" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
@@ -56817,7 +56873,7 @@
         <v>249</v>
       </c>
       <c r="I2" s="72" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="3">
@@ -56829,10 +56885,10 @@
       <c r="F3" s="70"/>
       <c r="G3" s="70"/>
       <c r="H3" s="64" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="I3" s="67" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="4">
@@ -56844,10 +56900,10 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="34" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="5">
@@ -56859,10 +56915,10 @@
       <c r="F5" s="91"/>
       <c r="G5" s="91"/>
       <c r="H5" s="71" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="I5" s="123" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="6">
@@ -56874,10 +56930,10 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="118" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="7">
@@ -56889,7 +56945,7 @@
       <c r="F7" s="70"/>
       <c r="G7" s="70"/>
       <c r="H7" s="75" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="8">
@@ -56901,7 +56957,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="34" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="9">
@@ -56913,7 +56969,7 @@
       <c r="F9" s="91"/>
       <c r="G9" s="91"/>
       <c r="H9" s="69" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="10">
@@ -56925,7 +56981,7 @@
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
       <c r="H10" s="16" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="11">
@@ -56937,7 +56993,7 @@
       <c r="F11" s="91"/>
       <c r="G11" s="91"/>
       <c r="H11" s="69" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="12">
@@ -56949,7 +57005,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="16" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="13">
@@ -56961,7 +57017,7 @@
       <c r="F13" s="91"/>
       <c r="G13" s="91"/>
       <c r="H13" s="69" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="14">
@@ -56997,7 +57053,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="16" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="17">
@@ -57009,7 +57065,7 @@
       <c r="F17" s="91"/>
       <c r="G17" s="91"/>
       <c r="H17" s="69" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="18">
@@ -57021,7 +57077,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="34" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="19">
@@ -57033,7 +57089,7 @@
       <c r="F19" s="91"/>
       <c r="G19" s="91"/>
       <c r="H19" s="69" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="20">
@@ -57045,7 +57101,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="34" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="21">
@@ -57057,7 +57113,7 @@
       <c r="F21" s="70"/>
       <c r="G21" s="70"/>
       <c r="H21" s="69" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="22">
@@ -57069,7 +57125,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="16" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="23">
@@ -57081,7 +57137,7 @@
       <c r="F23" s="91"/>
       <c r="G23" s="91"/>
       <c r="H23" s="69" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="24">
@@ -57093,7 +57149,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="34" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="25">
@@ -57105,7 +57161,7 @@
       <c r="F25" s="91"/>
       <c r="G25" s="91"/>
       <c r="H25" s="69" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="26">
@@ -57117,7 +57173,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="34" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="27">
@@ -57141,7 +57197,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="71" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="29">
@@ -57153,7 +57209,7 @@
       <c r="F29" s="91"/>
       <c r="G29" s="91"/>
       <c r="H29" s="69" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="30">
@@ -57165,7 +57221,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="34" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="31">
@@ -57177,7 +57233,7 @@
       <c r="F31" s="91"/>
       <c r="G31" s="91"/>
       <c r="H31" s="69" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="32">
@@ -57189,7 +57245,7 @@
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
       <c r="H32" s="71" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="33">
@@ -57201,7 +57257,7 @@
       <c r="F33" s="91"/>
       <c r="G33" s="91"/>
       <c r="H33" s="69" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="34">
@@ -57213,7 +57269,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="64" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="35">
@@ -57225,7 +57281,7 @@
       <c r="F35" s="91"/>
       <c r="G35" s="91"/>
       <c r="H35" s="69" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="36">
@@ -57249,7 +57305,7 @@
       <c r="F37" s="91"/>
       <c r="G37" s="91"/>
       <c r="H37" s="69" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="38">
@@ -57261,7 +57317,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="16" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="39">
@@ -57273,7 +57329,7 @@
       <c r="F39" s="91"/>
       <c r="G39" s="91"/>
       <c r="H39" s="69" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="40">
@@ -57285,7 +57341,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="71" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="41">
@@ -57297,7 +57353,7 @@
       <c r="F41" s="91"/>
       <c r="G41" s="91"/>
       <c r="H41" s="69" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="42">
@@ -57309,7 +57365,7 @@
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
       <c r="H42" s="34" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="43">
@@ -57321,7 +57377,7 @@
       <c r="F43" s="91"/>
       <c r="G43" s="91"/>
       <c r="H43" s="71" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="44">
@@ -57333,7 +57389,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="16" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="45">
@@ -57345,7 +57401,7 @@
       <c r="F45" s="70"/>
       <c r="G45" s="70"/>
       <c r="H45" s="71" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="46">
@@ -57357,7 +57413,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="34" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="47">
@@ -57369,7 +57425,7 @@
       <c r="F47" s="91"/>
       <c r="G47" s="91"/>
       <c r="H47" s="75" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="48">
@@ -57381,7 +57437,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="34" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="49">
@@ -57393,7 +57449,7 @@
       <c r="F49" s="91"/>
       <c r="G49" s="91"/>
       <c r="H49" s="69" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="50">
@@ -57405,7 +57461,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="34" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="51">
@@ -57417,7 +57473,7 @@
       <c r="F51" s="91"/>
       <c r="G51" s="91"/>
       <c r="H51" s="71" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="52">
@@ -57441,7 +57497,7 @@
       <c r="F53" s="91"/>
       <c r="G53" s="91"/>
       <c r="H53" s="69" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="54">
@@ -57465,7 +57521,7 @@
       <c r="F55" s="91"/>
       <c r="G55" s="91"/>
       <c r="H55" s="124" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="56">
@@ -57477,7 +57533,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="34" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="57">
@@ -57489,7 +57545,7 @@
       <c r="F57" s="70"/>
       <c r="G57" s="70"/>
       <c r="H57" s="69" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="58">
@@ -57501,7 +57557,7 @@
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
       <c r="H58" s="71" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="59">
@@ -57513,7 +57569,7 @@
       <c r="F59" s="91"/>
       <c r="G59" s="91"/>
       <c r="H59" s="75" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="60">
@@ -57525,7 +57581,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="125" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="61">
@@ -57537,7 +57593,7 @@
       <c r="F61" s="91"/>
       <c r="G61" s="91"/>
       <c r="H61" s="69" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="62">
@@ -57549,7 +57605,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="34" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="63">
@@ -57561,7 +57617,7 @@
       <c r="F63" s="91"/>
       <c r="G63" s="91"/>
       <c r="H63" s="69" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="64">
@@ -57585,7 +57641,7 @@
       <c r="F65" s="91"/>
       <c r="G65" s="91"/>
       <c r="H65" s="69" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="66">
@@ -57597,7 +57653,7 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="34" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="67">
@@ -57621,7 +57677,7 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="34" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="69">
@@ -57633,7 +57689,7 @@
       <c r="F69" s="91"/>
       <c r="G69" s="91"/>
       <c r="H69" s="69" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="70">
@@ -57645,7 +57701,7 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="34" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="71">
@@ -57657,7 +57713,7 @@
       <c r="F71" s="91"/>
       <c r="G71" s="91"/>
       <c r="H71" s="69" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="72">
@@ -57669,7 +57725,7 @@
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
       <c r="H72" s="34" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="73">
@@ -57693,7 +57749,7 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="64" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="75">
@@ -57705,7 +57761,7 @@
       <c r="F75" s="91"/>
       <c r="G75" s="91"/>
       <c r="H75" s="71" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="76">
@@ -57717,7 +57773,7 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="34" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="77">
@@ -57729,7 +57785,7 @@
       <c r="F77" s="70"/>
       <c r="G77" s="70"/>
       <c r="H77" s="69" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="78">
@@ -57753,7 +57809,7 @@
       <c r="F79" s="91"/>
       <c r="G79" s="91"/>
       <c r="H79" s="69" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="80">
@@ -57777,7 +57833,7 @@
       <c r="F81" s="91"/>
       <c r="G81" s="91"/>
       <c r="H81" s="71" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="82">
@@ -57789,7 +57845,7 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="64" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="83">
@@ -57801,7 +57857,7 @@
       <c r="F83" s="91"/>
       <c r="G83" s="91"/>
       <c r="H83" s="77" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="84">
@@ -57813,7 +57869,7 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="66" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="85">
@@ -57825,7 +57881,7 @@
       <c r="F85" s="70"/>
       <c r="G85" s="70"/>
       <c r="H85" s="69" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="86">
@@ -57837,7 +57893,7 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="34" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="87">
@@ -57849,7 +57905,7 @@
       <c r="F87" s="70"/>
       <c r="G87" s="70"/>
       <c r="H87" s="69" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="88">
@@ -57861,7 +57917,7 @@
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
       <c r="H88" s="34" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="89">
@@ -57873,7 +57929,7 @@
       <c r="F89" s="70"/>
       <c r="G89" s="70"/>
       <c r="H89" s="69" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="90">
@@ -57885,7 +57941,7 @@
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
       <c r="H90" s="34" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="91">
@@ -57921,7 +57977,7 @@
       <c r="F93" s="91"/>
       <c r="G93" s="91"/>
       <c r="H93" s="64" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="94">
@@ -57933,7 +57989,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="64" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="95">
@@ -57945,7 +58001,7 @@
       <c r="F95" s="91"/>
       <c r="G95" s="91"/>
       <c r="H95" s="64" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="96">
@@ -57969,7 +58025,7 @@
       <c r="F97" s="91"/>
       <c r="G97" s="91"/>
       <c r="H97" s="69" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="98">
@@ -57981,7 +58037,7 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="16" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="99">
@@ -57993,7 +58049,7 @@
       <c r="F99" s="91"/>
       <c r="G99" s="91"/>
       <c r="H99" s="69" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="100">
@@ -58005,7 +58061,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="34" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="101">
@@ -58017,7 +58073,7 @@
       <c r="F101" s="91"/>
       <c r="G101" s="91"/>
       <c r="H101" s="69" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="102">
@@ -58029,7 +58085,7 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="34" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="103">
@@ -58041,7 +58097,7 @@
       <c r="F103" s="91"/>
       <c r="G103" s="91"/>
       <c r="H103" s="69" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="104">
@@ -58053,7 +58109,7 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="34" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="105">
@@ -58065,7 +58121,7 @@
       <c r="F105" s="91"/>
       <c r="G105" s="91"/>
       <c r="H105" s="69" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="106">
@@ -58077,7 +58133,7 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="34" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="107">
@@ -58089,7 +58145,7 @@
       <c r="F107" s="91"/>
       <c r="G107" s="91"/>
       <c r="H107" s="69" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="108">
@@ -58113,7 +58169,7 @@
       <c r="F109" s="91"/>
       <c r="G109" s="91"/>
       <c r="H109" s="69" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="110">
@@ -58125,7 +58181,7 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="34" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="111">
@@ -58137,7 +58193,7 @@
       <c r="F111" s="91"/>
       <c r="G111" s="91"/>
       <c r="H111" s="69" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="112">
@@ -58149,7 +58205,7 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="34" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="113">
@@ -58161,7 +58217,7 @@
       <c r="F113" s="91"/>
       <c r="G113" s="91"/>
       <c r="H113" s="69" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="114">
@@ -58173,7 +58229,7 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="34" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="115">
@@ -58185,7 +58241,7 @@
       <c r="F115" s="70"/>
       <c r="G115" s="70"/>
       <c r="H115" s="69" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="116">
@@ -58197,7 +58253,7 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="34" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="117">
@@ -58209,7 +58265,7 @@
       <c r="F117" s="91"/>
       <c r="G117" s="91"/>
       <c r="H117" s="69" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="118">
@@ -58221,7 +58277,7 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="71" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="119">
@@ -58233,7 +58289,7 @@
       <c r="F119" s="91"/>
       <c r="G119" s="91"/>
       <c r="H119" s="69" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="120">
@@ -58245,7 +58301,7 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c r="H120" s="34" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="121">
@@ -58257,7 +58313,7 @@
       <c r="F121" s="91"/>
       <c r="G121" s="91"/>
       <c r="H121" s="71" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="122">
@@ -58269,7 +58325,7 @@
       <c r="F122" s="41"/>
       <c r="G122" s="41"/>
       <c r="H122" s="34" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="123">
@@ -58293,7 +58349,7 @@
       <c r="F124" s="41"/>
       <c r="G124" s="41"/>
       <c r="H124" s="16" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="125">
@@ -58305,7 +58361,7 @@
       <c r="F125" s="91"/>
       <c r="G125" s="91"/>
       <c r="H125" s="71" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="126">
@@ -58317,7 +58373,7 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c r="H126" s="34" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="127">
@@ -58329,7 +58385,7 @@
       <c r="F127" s="91"/>
       <c r="G127" s="91"/>
       <c r="H127" s="71" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="128">
@@ -58341,7 +58397,7 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="34" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="129">
@@ -58353,7 +58409,7 @@
       <c r="F129" s="91"/>
       <c r="G129" s="91"/>
       <c r="H129" s="69" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="130">
@@ -58369,16 +58425,17 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="68"/>
-      <c r="B131" s="91"/>
-      <c r="C131" s="91"/>
-      <c r="D131" s="91"/>
-      <c r="E131" s="91"/>
-      <c r="F131" s="91"/>
-      <c r="G131" s="91"/>
-      <c r="H131" s="64" t="s">
-        <v>1353</v>
-      </c>
+      <c r="A131" s="126"/>
+      <c r="B131" s="127"/>
+      <c r="C131" s="127"/>
+      <c r="D131" s="127"/>
+      <c r="E131" s="127"/>
+      <c r="F131" s="127"/>
+      <c r="G131" s="127"/>
+      <c r="H131" s="128" t="s">
+        <v>1354</v>
+      </c>
+      <c r="I131" s="129"/>
     </row>
     <row r="132">
       <c r="A132" s="81"/>
@@ -58388,8 +58445,8 @@
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="71" t="s">
-        <v>1354</v>
+      <c r="H132" s="64" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="133">
@@ -58400,74 +58457,86 @@
       <c r="E133" s="91"/>
       <c r="F133" s="91"/>
       <c r="G133" s="91"/>
-      <c r="H133" s="64" t="s">
-        <v>1355</v>
+      <c r="H133" s="71" t="s">
+        <v>1356</v>
       </c>
     </row>
     <row r="134">
-      <c r="H134" s="71" t="s">
+      <c r="A134" s="81"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="64" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="H135" s="71" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="74"/>
-      <c r="B135" s="70"/>
-      <c r="C135" s="70"/>
-      <c r="D135" s="70"/>
-      <c r="E135" s="70"/>
-      <c r="F135" s="70"/>
-      <c r="G135" s="70"/>
-      <c r="H135" s="69" t="s">
-        <v>1356</v>
-      </c>
-    </row>
     <row r="136">
+      <c r="A136" s="76"/>
+      <c r="B136" s="41"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="41"/>
+      <c r="E136" s="41"/>
+      <c r="F136" s="41"/>
+      <c r="G136" s="41"/>
       <c r="H136" s="34" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="137">
       <c r="H137" s="69" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="76"/>
-      <c r="B138" s="41"/>
-      <c r="C138" s="41"/>
-      <c r="D138" s="41"/>
-      <c r="E138" s="41"/>
-      <c r="F138" s="41"/>
-      <c r="G138" s="41"/>
       <c r="H138" s="34" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="139">
+      <c r="A139" s="74"/>
+      <c r="B139" s="70"/>
+      <c r="C139" s="70"/>
+      <c r="D139" s="70"/>
+      <c r="E139" s="70"/>
+      <c r="F139" s="70"/>
+      <c r="G139" s="70"/>
       <c r="H139" s="69" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="140">
       <c r="H140" s="34" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="141">
-      <c r="H141" s="118" t="s">
-        <v>1362</v>
+      <c r="H141" s="69" t="s">
+        <v>1363</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="126"/>
-      <c r="B142" s="127"/>
-      <c r="C142" s="127"/>
-      <c r="D142" s="127"/>
-      <c r="E142" s="127"/>
-      <c r="F142" s="127"/>
-      <c r="G142" s="127"/>
-      <c r="H142" s="128" t="s">
-        <v>1363</v>
+      <c r="H142" s="118" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="130"/>
+      <c r="B143" s="131"/>
+      <c r="C143" s="131"/>
+      <c r="D143" s="131"/>
+      <c r="E143" s="131"/>
+      <c r="F143" s="131"/>
+      <c r="G143" s="131"/>
+      <c r="H143" s="132" t="s">
+        <v>1365</v>
       </c>
     </row>
   </sheetData>
@@ -58619,10 +58688,11 @@
     <hyperlink r:id="rId145" ref="H140"/>
     <hyperlink r:id="rId146" ref="H141"/>
     <hyperlink r:id="rId147" ref="H142"/>
+    <hyperlink r:id="rId148" ref="H143"/>
   </hyperlinks>
-  <drawing r:id="rId148"/>
+  <drawing r:id="rId149"/>
   <tableParts count="1">
-    <tablePart r:id="rId150"/>
+    <tablePart r:id="rId151"/>
   </tableParts>
 </worksheet>
 </file>
--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -7440,969 +7440,969 @@
     <t>https://github.com/OpenGVLab/Multi-Modality-Arena/issues/19</t>
   </si>
   <si>
+    <t>https://github.com/thu-coai/Safety-Prompts/issues/23</t>
+  </si>
+  <si>
+    <t>https://github.com/whoops-benchmark/whoops-benchmark.github.io/issues/1</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/25</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2205</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE/issues/41</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/26</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/mlabonne/Yet_Another_LLM_Leaderboard/discussions/8</t>
+  </si>
+  <si>
+    <t>https://github.com/Q-Future/Q-Bench/issues/11</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/27</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/bhaskartripathi/llm_leaderboards360/discussions/2</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/28</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/29</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/onekq-ai/WebApp1K-models-leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2034</t>
+  </si>
+  <si>
+    <t>https://github.com/LudwigStumpp/llm-leaderboard/issues/9</t>
+  </si>
+  <si>
+    <t>https://github.com/embeddings-benchmark/mteb/issues/191</t>
+  </si>
+  <si>
+    <t>https://github.com/LudwigStumpp/llm-leaderboard/issues/10</t>
+  </si>
+  <si>
+    <t>https://github.com/flageval-baai/FlagEval/issues/34</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2060</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenGVLab/Multi-Modality-Arena/issues/25</t>
+  </si>
+  <si>
+    <t>https://github.com/flageval-baai/FlagEval/issues/35</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/32</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/8</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/38</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20221205184917/https://paperswithcode.com/sota/image-classification-on-humaneval</t>
+  </si>
+  <si>
+    <t>https://github.com/Q-Future/Chinese-Q-Bench/issues/2</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20240222011501/https://paperswithcode.com/sota/text-generation-on-humaneval</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/mlabonne/Yet_Another_LLM_Leaderboard/discussions/11</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/speakleash/open_pl_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2062</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/41</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/6</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2351</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2239</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2176</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/7</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/2</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/5</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Code3/issues/2</t>
+  </si>
+  <si>
+    <t>https://github.com/open-compass/LawBench/issues/7</t>
+  </si>
+  <si>
+    <t>https://github.com/msamwelmollel/Swahili_LLM_Leaderboard/issues/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/upstage/open-ko-llm-leaderboard/discussions/28</t>
+  </si>
+  <si>
+    <t>https://github.com/jeinlee1991/chinese-llm-benchmark/issues/19</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/30</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/100</t>
+  </si>
+  <si>
+    <t>https://github.com/open-compass/opencompass/discussions/784</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/31</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/101</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/33</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/102</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/34</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/103</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/5</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/35</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/104</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/TwinDoc/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/36</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/105</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/37</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/106</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/mii-llm/open_ita_llm_leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/40</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/107</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/valory/olas-prediction-leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/42</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/108</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/43</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/109</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/44</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/110</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/45</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/111</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/46</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/112</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/47</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/113</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/48</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/114</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/49</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/115</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/50</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/116</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/52</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/117</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/53</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/118</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/54</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/119</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/55</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/120</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/56</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/121</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/57</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/122</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/58</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/123</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/59</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/124</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/60</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/125</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/61</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/126</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/62</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/127</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/63</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/128</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/64</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/129</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/65</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/130</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/66</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/131</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/67</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/132</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/68</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/133</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/69</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/134</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/70</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/135</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/71</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/136</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/72</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/137</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/73</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/138</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/74</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/139</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/75</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/140</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/76</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/141</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/77</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/142</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/78</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/143</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/79</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/144</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/80</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/149</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/81</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/145</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/82</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/146</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/83</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/147</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/84</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/148</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/150</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/151</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/152</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/153</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/154</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/155</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/156</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/157</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/158</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/159</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/160</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/161</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/162</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/163</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/164</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/85</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/86</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/87</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/88</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/89</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/90</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/91</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/92</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/93</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/94</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/95</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/96</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/97</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/98</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/99</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2008</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2010</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/18</t>
+  </si>
+  <si>
+    <t>https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/27</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/instructkr/ko-chatbot-arena-leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenGVLab/Multi-Modality-Arena/issues/26</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/17</t>
+  </si>
+  <si>
+    <t>https://github.com/flageval-baai/FlagEval/issues/36</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/archit11/Hindi_LLM_arena/discussions/1</t>
+  </si>
+  <si>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/39</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/cambioml/parser-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2039</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/instructkr/ko-chatbot-arena-leaderboard/discussions/5</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/0x1668/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/NexaAIDev/domain_llm_leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/0x9/finetuning_subnet_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/0x9/pretraining-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Aarifkhan/leaderboard-results-to-modelcard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/abidlabs/chatbot-arena-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/abidlabs/mteb-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/AI-Vietnam/prompt-translation-vie-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/aichampions/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Alfasign/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/anglesplato/Deep-Reinforcement-Learning-Leaderboard-V2/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/anirudh937/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/arshy/leaderboard-docker/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/arshy/leaderboard-gradio/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/arshy/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/asir0z/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/autogenCTF/agent_ctf_leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/automerger/Yet_Another_LLM_Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/awacke1/CanAICode-Leaderboard-Customized/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/b1sheng/kg_llm_leaderboard_test/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/BioMed-VITAL/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/bittensor-dataset/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/CathieDaDa/LLM_leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/CDT-BMAI-GP/biomed_probing_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/choco9966/open-ko-llm-leaderboard-old/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Classroom-workshop/assignments-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/crynux-ai/genki-dama-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/CVPR/Leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/DeepBrainz/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/deepcode-ai/deepcode-models-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/demo-crafters/leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/demo-leaderboard-backend/leaderboard/discussions/6</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/deprem-ml/intent-leaderboard-v13/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/deprem-ml/intent-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/dimbyTa/open-llm-leaderboard-viz/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Docfile/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/DontPlanToEnd/UGI-Leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ECCV2022/Leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/esb/leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/EuroPython2022/Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/EuroSciPy2022/Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/felixz/open_llm_leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/freddyaboulton/gradio_leaderboard_demo/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/gblazex/leaderboard/discussions/5</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/gsaivinay/open_llm_leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/gsaivinay/open_llm_leaderboard/discussions/5</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/hjzhou/chatbot-arena-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/homunculus/Deep-Reinforcement-Learning-Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/hubistrauss/princeton_benchmarks_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/HuggingFaceH4/human_eval_llm_leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/hugginglearners/Hearts_Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ICML2022/Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Infin/sn32-testnet-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/JarvisKi/Stable_Tool_Bench_Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/junior-labs/llm-colosseum/discussions/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/k8si/mteb_leaderboard_mtr/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/kbmlcoding/open_llm_leaderboard_free/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/kevinwang676/ocrbench-leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/khhuiyh/AutoEval-Video_LeaderBoard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Koshti10/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ludwigstumpp/llm-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/macrocosm-os/finetuning-leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/macrocosm-os/pretraining-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Manavshah/dippy-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/mesolitica/malaysian-stt-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/MIMIC-CDM/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/MohamedRashad/timm-leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Mollel/swahili-llm-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/NAACL2022/Spaces-Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/nan/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/neelalex/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/nouamanetazi/mteb-leaderboard-old/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Nymbo/leaderboard_main/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/7</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/openskyml/diffusion-models-leaderboard-template/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/osanseviero/llama-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ought/raft-leaderboard/discussions/21</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/patrickvonplaten/parti-prompts-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/platzi/platzi-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/PlixAI/pixel-subnet-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/pngwn/open_llm_leaderboard_two/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/pngwn/open_llm_leaderboard-check/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/pngwn/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/RaoFoundation/pretraining-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/reach-vb/leaderboards/discussions/4</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/rodrigomasini/data_only_enterprise_scenarios_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/rodrigomasini/data_only_hallucination_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/rodrigomasini/data_only_llm_perf_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/rodrigomasini/data_only_open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/rodrigomasini/data-only-mteb-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/rusticluftig/9-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/sanchit-gandhi/leaderboards/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/seikwan/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/SIGGRAPH2022/Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/smothiki/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/smothiki/open_llm_leaderboard2/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/somosnlp/likes_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/sparse-generative-ai/open-moe-llm-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/speakleash/open_pl_llm_leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/speech-recognition-community-v2/Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/stabletoolbench/Stable_Tool_Bench_Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/starmorph/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/stemdataset/stem-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ThomasSimonini/Deep-Reinforcement-Learning-Leaderboard-test/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ThomasSimonini/Deep-Reinforcement-Learning-Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ucla-contextual/contextual_leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/umdclip/advcalibration/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/upstage/open-ko-llm-leaderboard/discussions/93</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/valory/olas-prediction-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/vietgpt/VLLMs-Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/winglian/finetuning_subnet_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/xtreme-s/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/yanirmr/hebrew-ASR-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ybjeong/leaderboard_kr/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/yhavinga/dutch-tokenizer-arena/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/yzeng58/CoBSAT_Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/zhangzw16/ProbTS_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>Uncategorized</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Safety/issues/5</t>
+  </si>
+  <si>
+    <t>https://github.com/Exploration-Lab/BookSQL/issues/4</t>
+  </si>
+  <si>
+    <t>https://github.com/open-compass/MathBench/issues/4</t>
+  </si>
+  <si>
+    <t>https://github.com/open-compass/MathBench/issues/5</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenGVLab/Multi-Modality-Arena/issues/27</t>
+  </si>
+  <si>
     <t>https://github.com/paperswithcode/paperswithcode-client/issues/24</t>
   </si>
   <si>
-    <t>https://github.com/thu-coai/Safety-Prompts/issues/23</t>
-  </si>
-  <si>
-    <t>https://github.com/whoops-benchmark/whoops-benchmark.github.io/issues/1</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/25</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2205</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE/issues/41</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/26</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/mlabonne/Yet_Another_LLM_Leaderboard/discussions/8</t>
-  </si>
-  <si>
-    <t>https://github.com/Q-Future/Q-Bench/issues/11</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/27</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/bhaskartripathi/llm_leaderboards360/discussions/2</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/28</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/29</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/onekq-ai/WebApp1K-models-leaderboard/discussions/2</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2034</t>
-  </si>
-  <si>
-    <t>https://github.com/LudwigStumpp/llm-leaderboard/issues/9</t>
-  </si>
-  <si>
-    <t>https://github.com/embeddings-benchmark/mteb/issues/191</t>
-  </si>
-  <si>
-    <t>https://github.com/LudwigStumpp/llm-leaderboard/issues/10</t>
-  </si>
-  <si>
-    <t>https://github.com/flageval-baai/FlagEval/issues/34</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2060</t>
-  </si>
-  <si>
-    <t>https://github.com/OpenGVLab/Multi-Modality-Arena/issues/25</t>
-  </si>
-  <si>
-    <t>https://github.com/flageval-baai/FlagEval/issues/35</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/32</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/8</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/38</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20221205184917/https://paperswithcode.com/sota/image-classification-on-humaneval</t>
-  </si>
-  <si>
-    <t>https://github.com/Q-Future/Chinese-Q-Bench/issues/2</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20240222011501/https://paperswithcode.com/sota/text-generation-on-humaneval</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/mlabonne/Yet_Another_LLM_Leaderboard/discussions/11</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/speakleash/open_pl_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2062</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/41</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/6</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2351</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2239</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2176</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/7</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/2</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/5</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Code3/issues/2</t>
-  </si>
-  <si>
-    <t>https://github.com/open-compass/LawBench/issues/7</t>
-  </si>
-  <si>
-    <t>https://github.com/msamwelmollel/Swahili_LLM_Leaderboard/issues/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/upstage/open-ko-llm-leaderboard/discussions/28</t>
-  </si>
-  <si>
-    <t>https://github.com/jeinlee1991/chinese-llm-benchmark/issues/19</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/30</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/100</t>
-  </si>
-  <si>
-    <t>https://github.com/open-compass/opencompass/discussions/784</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/31</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/101</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/33</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/102</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/34</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/103</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/5</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/35</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/104</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/TwinDoc/leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/36</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/105</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/37</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/106</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/mii-llm/open_ita_llm_leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/40</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/107</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/valory/olas-prediction-leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/42</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/108</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/43</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/109</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/44</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/110</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/45</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/111</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/46</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/112</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/47</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/113</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/48</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/114</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/49</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/115</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/50</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/116</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/52</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/117</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/53</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/118</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/54</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/119</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/55</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/120</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/56</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/121</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/57</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/122</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/58</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/123</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/59</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/124</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/60</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/125</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/61</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/126</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/62</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/127</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/63</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/128</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/64</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/129</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/65</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/130</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/66</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/131</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/67</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/132</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/68</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/133</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/69</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/134</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/70</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/135</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/71</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/136</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/72</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/137</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/73</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/138</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/74</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/139</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/75</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/140</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/76</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/141</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/77</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/142</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/78</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/143</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/79</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/144</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/81</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/145</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/82</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/146</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/83</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/147</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/84</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/148</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/149</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/150</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/151</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/152</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/153</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/154</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/155</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/156</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/157</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/158</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/159</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/160</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/161</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/162</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/163</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/164</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/85</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/86</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/87</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/88</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/89</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/90</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/91</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/92</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/93</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/94</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/95</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/96</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/97</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/98</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/99</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2008</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2010</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/18</t>
-  </si>
-  <si>
-    <t>https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/27</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/instructkr/ko-chatbot-arena-leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://github.com/OpenGVLab/Multi-Modality-Arena/issues/26</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/17</t>
-  </si>
-  <si>
-    <t>https://github.com/flageval-baai/FlagEval/issues/36</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/archit11/Hindi_LLM_arena/discussions/1</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/39</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/cambioml/parser-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2039</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/instructkr/ko-chatbot-arena-leaderboard/discussions/5</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/0x1668/open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/NexaAIDev/domain_llm_leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/0x9/finetuning_subnet_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/0x9/pretraining-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/Aarifkhan/leaderboard-results-to-modelcard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/abidlabs/chatbot-arena-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/abidlabs/mteb-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/AI-Vietnam/prompt-translation-vie-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/aichampions/open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/Alfasign/open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/anglesplato/Deep-Reinforcement-Learning-Leaderboard-V2/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/anirudh937/open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/arshy/leaderboard-docker/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/arshy/leaderboard-gradio/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/arshy/leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/asir0z/open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/autogenCTF/agent_ctf_leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/automerger/Yet_Another_LLM_Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/awacke1/CanAICode-Leaderboard-Customized/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/b1sheng/kg_llm_leaderboard_test/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/BioMed-VITAL/leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/bittensor-dataset/leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/CathieDaDa/LLM_leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/CDT-BMAI-GP/biomed_probing_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/choco9966/open-ko-llm-leaderboard-old/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/Classroom-workshop/assignments-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/crynux-ai/genki-dama-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/CVPR/Leaderboard/discussions/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/DeepBrainz/open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/deepcode-ai/deepcode-models-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/demo-crafters/leaderboard/discussions/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/demo-leaderboard-backend/leaderboard/discussions/6</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/deprem-ml/intent-leaderboard-v13/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/deprem-ml/intent-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/dimbyTa/open-llm-leaderboard-viz/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/Docfile/open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/DontPlanToEnd/UGI-Leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/ECCV2022/Leaderboard/discussions/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/esb/leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/EuroPython2022/Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/EuroSciPy2022/Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/felixz/open_llm_leaderboard/discussions/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/freddyaboulton/gradio_leaderboard_demo/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/gblazex/leaderboard/discussions/5</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/gsaivinay/open_llm_leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/gsaivinay/open_llm_leaderboard/discussions/5</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/hjzhou/chatbot-arena-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/homunculus/Deep-Reinforcement-Learning-Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/hubistrauss/princeton_benchmarks_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/HuggingFaceH4/human_eval_llm_leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/hugginglearners/Hearts_Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/ICML2022/Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/Infin/sn32-testnet-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/JarvisKi/Stable_Tool_Bench_Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/junior-labs/llm-colosseum/discussions/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/k8si/mteb_leaderboard_mtr/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/kbmlcoding/open_llm_leaderboard_free/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/kevinwang676/ocrbench-leaderboard/discussions/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/khhuiyh/AutoEval-Video_LeaderBoard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/Koshti10/leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/ludwigstumpp/llm-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/macrocosm-os/finetuning-leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/macrocosm-os/pretraining-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/Manavshah/dippy-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/mesolitica/malaysian-stt-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/MIMIC-CDM/leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard/discussions/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/MohamedRashad/timm-leaderboard/discussions/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/Mollel/swahili-llm-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/NAACL2022/Spaces-Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/nan/leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/neelalex/leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/nouamanetazi/mteb-leaderboard-old/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/Nymbo/leaderboard_main/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/7</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/openskyml/diffusion-models-leaderboard-template/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/osanseviero/llama-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/ought/raft-leaderboard/discussions/21</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/patrickvonplaten/parti-prompts-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/platzi/platzi-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/PlixAI/pixel-subnet-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/pngwn/open_llm_leaderboard_two/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/pngwn/open_llm_leaderboard-check/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/pngwn/open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/RaoFoundation/pretraining-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/reach-vb/leaderboards/discussions/4</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/rodrigomasini/data_only_enterprise_scenarios_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/rodrigomasini/data_only_hallucination_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/rodrigomasini/data_only_llm_perf_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/rodrigomasini/data_only_open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/rodrigomasini/data-only-mteb-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/rusticluftig/9-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/sanchit-gandhi/leaderboards/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/seikwan/open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/SIGGRAPH2022/Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/smothiki/open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/smothiki/open_llm_leaderboard2/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/somosnlp/likes_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/sparse-generative-ai/open-moe-llm-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/speakleash/open_pl_llm_leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/speech-recognition-community-v2/Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/stabletoolbench/Stable_Tool_Bench_Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/starmorph/open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/stemdataset/stem-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/ThomasSimonini/Deep-Reinforcement-Learning-Leaderboard-test/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/ThomasSimonini/Deep-Reinforcement-Learning-Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/ucla-contextual/contextual_leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/umdclip/advcalibration/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/upstage/open-ko-llm-leaderboard/discussions/93</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/valory/olas-prediction-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/vietgpt/VLLMs-Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/winglian/finetuning_subnet_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/xtreme-s/leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/yanirmr/hebrew-ASR-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/ybjeong/leaderboard_kr/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/yhavinga/dutch-tokenizer-arena/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/yzeng58/CoBSAT_Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/zhangzw16/ProbTS_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>Uncategorized</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Safety/issues/5</t>
-  </si>
-  <si>
-    <t>https://github.com/Exploration-Lab/BookSQL/issues/4</t>
-  </si>
-  <si>
-    <t>https://github.com/open-compass/MathBench/issues/4</t>
-  </si>
-  <si>
-    <t>https://github.com/open-compass/MathBench/issues/5</t>
-  </si>
-  <si>
-    <t>https://github.com/OpenGVLab/Multi-Modality-Arena/issues/27</t>
-  </si>
-  <si>
-    <t>https://github.com/paperswithcode/sota-extractor/issues/80</t>
-  </si>
-  <si>
     <t>https://github.com/TabbyML/tabby/discussions/1368</t>
   </si>
   <si>
@@ -8418,6 +8418,9 @@
     <t>https://huggingface.co/spaces/abhijeethp/embedding_arena/discussions/2</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/abhijeethp/embedding_arena/discussions/5</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/CathieDaDa/LLM_leaderboard/discussions/2</t>
   </si>
   <si>
@@ -8440,16 +8443,13 @@
   </si>
   <si>
     <t>https://huggingface.co/spaces/TwinDoc/leaderboard/discussions/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/abhijeethp/embedding_arena/discussions/5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="85">
+  <fonts count="84">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -8853,7 +8853,6 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <b/>
       <u/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
@@ -8865,11 +8864,7 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
+      <b/>
       <u/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
@@ -9398,7 +9393,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="147">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -9823,10 +9818,10 @@
     <xf borderId="30" fillId="3" fontId="78" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="29" fillId="2" fontId="79" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="3" fontId="79" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="30" fillId="3" fontId="80" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="2" fontId="80" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="32" fillId="4" fontId="81" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -9835,10 +9830,7 @@
     <xf borderId="33" fillId="0" fontId="82" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="33" fillId="0" fontId="83" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="34" fillId="0" fontId="84" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="0" fontId="83" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -10050,7 +10042,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I19" displayName="Table4" name="Table4" id="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I18" displayName="Table4" name="Table4" id="4">
   <tableColumns count="9">
     <tableColumn name="Benchmark Metric" id="1"/>
     <tableColumn name="Benchmark Protocol" id="2"/>
@@ -23634,7 +23626,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="141" t="s">
         <v>1372</v>
       </c>
     </row>
@@ -23644,17 +23636,17 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="141" t="s">
+      <c r="A16" s="142" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="142" t="s">
+      <c r="A17" s="143" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="143" t="s">
+      <c r="A18" s="141" t="s">
         <v>1373</v>
       </c>
     </row>
@@ -23674,37 +23666,37 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="141" t="s">
+      <c r="A22" s="142" t="s">
         <v>1377</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="136" t="s">
+      <c r="A23" s="138" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="145" t="s">
+      <c r="A24" s="136" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="140" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="141" t="s">
-        <v>1379</v>
-      </c>
-    </row>
     <row r="26">
-      <c r="A26" s="146" t="s">
+      <c r="A26" s="142" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="136" t="s">
+      <c r="A27" s="138" t="s">
         <v>1381</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="136" t="s">
         <v>1382</v>
       </c>
     </row>
@@ -23715,60 +23707,60 @@
     </row>
     <row r="30">
       <c r="A30" s="134" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="134" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="142" t="s">
+    <row r="32">
+      <c r="A32" s="143" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="142" t="s">
-        <v>1384</v>
-      </c>
-    </row>
     <row r="33">
-      <c r="A33" s="140" t="s">
+      <c r="A33" s="143" t="s">
         <v>1385</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="139" t="s">
-        <v>215</v>
+      <c r="A34" s="145" t="s">
+        <v>1386</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="139" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="139" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="142" t="s">
+    <row r="37">
+      <c r="A37" s="143" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="138" t="s">
+    <row r="38">
+      <c r="A38" s="146" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="147" t="s">
-        <v>1386</v>
-      </c>
+    <row r="58">
+      <c r="A58" s="80"/>
     </row>
     <row r="59">
       <c r="A59" s="80"/>
     </row>
-    <row r="60">
-      <c r="A60" s="80"/>
+    <row r="61">
+      <c r="A61" s="80"/>
     </row>
     <row r="62">
       <c r="A62" s="80"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="80"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -24379,61 +24371,56 @@
     </row>
     <row r="9">
       <c r="H9" s="64" t="s">
-        <v>1052</v>
+        <v>882</v>
       </c>
     </row>
     <row r="10">
       <c r="H10" s="64" t="s">
-        <v>882</v>
+        <v>660</v>
       </c>
     </row>
     <row r="11">
       <c r="H11" s="64" t="s">
-        <v>660</v>
+        <v>775</v>
       </c>
     </row>
     <row r="12">
-      <c r="H12" s="64" t="s">
-        <v>775</v>
+      <c r="H12" s="16" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="13">
-      <c r="H13" s="75" t="s">
+      <c r="H13" s="64" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="14">
       <c r="H14" s="64" t="s">
-        <v>1054</v>
+        <v>639</v>
       </c>
     </row>
     <row r="15">
-      <c r="H15" s="64" t="s">
-        <v>639</v>
+      <c r="H15" s="71" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="H16" s="71" t="s">
-        <v>130</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17">
-      <c r="H17" s="71" t="s">
-        <v>604</v>
+      <c r="H17" s="64" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="18">
-      <c r="H18" s="64" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="H19" s="89" t="s">
+      <c r="H18" s="89" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="37">
-      <c r="C37" s="80"/>
+    <row r="36">
+      <c r="C36" s="80"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -24466,11 +24453,10 @@
     <hyperlink r:id="rId27" ref="H16"/>
     <hyperlink r:id="rId28" ref="H17"/>
     <hyperlink r:id="rId29" ref="H18"/>
-    <hyperlink r:id="rId30" ref="H19"/>
   </hyperlinks>
-  <drawing r:id="rId31"/>
+  <drawing r:id="rId30"/>
   <tableParts count="1">
-    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
 </worksheet>
 </file>
@@ -24528,16 +24514,16 @@
     </row>
     <row r="2">
       <c r="A2" s="90" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B2" s="66" t="s">
         <v>1055</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>1056</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="71" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="71" t="s">
@@ -24546,10 +24532,10 @@
     </row>
     <row r="3">
       <c r="A3" s="90" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B3" s="64" t="s">
         <v>1058</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>1059</v>
       </c>
       <c r="E3" s="91"/>
       <c r="F3" s="77" t="s">
@@ -24557,23 +24543,23 @@
       </c>
       <c r="G3" s="70"/>
       <c r="H3" s="64" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="90" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
       <c r="H4" s="66" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="92" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E5" s="70"/>
       <c r="F5" s="70"/>
@@ -24584,7 +24570,7 @@
     </row>
     <row r="6">
       <c r="A6" s="90" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -24596,7 +24582,7 @@
       <c r="E7" s="93"/>
       <c r="F7" s="93"/>
       <c r="H7" s="94" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
   </sheetData>
@@ -24694,23 +24680,23 @@
     </row>
     <row r="2">
       <c r="A2" s="98" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B2" s="99" t="s">
         <v>1066</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="C2" s="100" t="s">
         <v>1067</v>
-      </c>
-      <c r="C2" s="100" t="s">
-        <v>1068</v>
       </c>
       <c r="D2" s="99" t="s">
         <v>116</v>
       </c>
       <c r="E2" s="101"/>
       <c r="F2" s="99" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G2" s="100" t="s">
         <v>1069</v>
-      </c>
-      <c r="G2" s="100" t="s">
-        <v>1070</v>
       </c>
       <c r="H2" s="102" t="s">
         <v>327</v>
@@ -24739,23 +24725,23 @@
     </row>
     <row r="3">
       <c r="A3" s="104" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B3" s="69" t="s">
         <v>1071</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="C3" s="64" t="s">
         <v>1072</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>1073</v>
       </c>
       <c r="D3" s="64" t="s">
         <v>459</v>
       </c>
       <c r="E3" s="70"/>
       <c r="F3" s="75" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G3" s="100" t="s">
         <v>1074</v>
-      </c>
-      <c r="G3" s="100" t="s">
-        <v>1075</v>
       </c>
       <c r="I3" s="105"/>
       <c r="J3" s="97"/>
@@ -24785,7 +24771,7 @@
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="16" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G4" s="65" t="s">
         <v>336</v>
@@ -24815,11 +24801,11 @@
     <row r="5">
       <c r="C5" s="106"/>
       <c r="D5" s="100" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E5" s="91"/>
       <c r="F5" s="69" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G5" s="107" t="s">
         <v>546</v>
@@ -24850,14 +24836,14 @@
     <row r="6">
       <c r="C6" s="109"/>
       <c r="D6" s="110" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E6" s="109"/>
       <c r="F6" s="110" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G6" s="111" t="s">
         <v>1080</v>
-      </c>
-      <c r="G6" s="111" t="s">
-        <v>1081</v>
       </c>
       <c r="H6" s="112"/>
       <c r="I6" s="113"/>
@@ -55719,38 +55705,38 @@
       <c r="A2" s="81"/>
       <c r="B2" s="7"/>
       <c r="D2" s="66" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="16" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G2" s="64" t="s">
         <v>1083</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="H2" s="82" t="s">
         <v>1084</v>
-      </c>
-      <c r="H2" s="82" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="3">
       <c r="D3" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E3" s="91"/>
       <c r="F3" s="69" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G3" s="71" t="s">
         <v>1087</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="H3" s="64" t="s">
         <v>1088</v>
-      </c>
-      <c r="H3" s="64" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="4">
       <c r="D4" s="115"/>
       <c r="H4" s="110" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="5">
@@ -55831,7 +55817,7 @@
         <v>431</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>523</v>
@@ -55842,10 +55828,10 @@
         <v>994</v>
       </c>
       <c r="G2" s="64" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H2" s="102" t="s">
         <v>1092</v>
-      </c>
-      <c r="H2" s="102" t="s">
-        <v>1093</v>
       </c>
       <c r="I2" s="67" t="s">
         <v>169</v>
@@ -55853,10 +55839,10 @@
     </row>
     <row r="3">
       <c r="A3" s="116" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B3" s="69" t="s">
         <v>1094</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>1095</v>
       </c>
       <c r="C3" s="91"/>
       <c r="D3" s="91"/>
@@ -55865,10 +55851,10 @@
         <v>1018</v>
       </c>
       <c r="G3" s="75" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H3" s="64" t="s">
         <v>1096</v>
-      </c>
-      <c r="H3" s="64" t="s">
-        <v>1097</v>
       </c>
       <c r="I3" s="86" t="s">
         <v>259</v>
@@ -55876,7 +55862,7 @@
     </row>
     <row r="4">
       <c r="B4" s="71" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -55885,10 +55871,10 @@
         <v>621</v>
       </c>
       <c r="G4" s="16" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>1099</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>1100</v>
       </c>
       <c r="I4" s="72" t="s">
         <v>551</v>
@@ -55903,13 +55889,13 @@
       <c r="D5" s="91"/>
       <c r="E5" s="70"/>
       <c r="F5" s="64" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G5" s="75" t="s">
         <v>1101</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="H5" s="69" t="s">
         <v>1102</v>
-      </c>
-      <c r="H5" s="69" t="s">
-        <v>1103</v>
       </c>
       <c r="I5" s="86" t="s">
         <v>566</v>
@@ -55921,13 +55907,13 @@
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
       <c r="F6" s="64" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>1104</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="71" t="s">
         <v>1105</v>
-      </c>
-      <c r="H6" s="71" t="s">
-        <v>1106</v>
       </c>
       <c r="I6" s="24" t="s">
         <v>543</v>
@@ -55939,13 +55925,13 @@
       <c r="D7" s="70"/>
       <c r="E7" s="119"/>
       <c r="F7" s="120" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G7" s="69" t="s">
         <v>1107</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="H7" s="75" t="s">
         <v>1108</v>
-      </c>
-      <c r="H7" s="75" t="s">
-        <v>1109</v>
       </c>
       <c r="I7" s="121" t="s">
         <v>750</v>
@@ -55958,13 +55944,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="34" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>1110</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="16" t="s">
         <v>1111</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>1112</v>
       </c>
       <c r="I8" s="87" t="s">
         <v>48</v>
@@ -55976,13 +55962,13 @@
       <c r="E9" s="91"/>
       <c r="F9" s="91"/>
       <c r="G9" s="75" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H9" s="64" t="s">
         <v>1113</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="I9" s="86" t="s">
         <v>1114</v>
-      </c>
-      <c r="I9" s="86" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="10">
@@ -55992,13 +55978,13 @@
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
       <c r="G10" s="16" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H10" s="71" t="s">
         <v>1116</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="I10" s="86" t="s">
         <v>1117</v>
-      </c>
-      <c r="I10" s="86" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="11">
@@ -56006,10 +55992,10 @@
       <c r="E11" s="70"/>
       <c r="F11" s="70"/>
       <c r="G11" s="69" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H11" s="64" t="s">
         <v>1119</v>
-      </c>
-      <c r="H11" s="64" t="s">
-        <v>1120</v>
       </c>
       <c r="I11" s="78" t="s">
         <v>669</v>
@@ -56022,10 +56008,10 @@
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
       <c r="G12" s="16" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H12" s="64" t="s">
         <v>1121</v>
-      </c>
-      <c r="H12" s="64" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="13">
@@ -56035,10 +56021,10 @@
       <c r="E13" s="70"/>
       <c r="F13" s="70"/>
       <c r="G13" s="69" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H13" s="64" t="s">
         <v>1123</v>
-      </c>
-      <c r="H13" s="64" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="14">
@@ -56048,10 +56034,10 @@
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
       <c r="G14" s="16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>1125</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="15">
@@ -56061,10 +56047,10 @@
       <c r="E15" s="70"/>
       <c r="F15" s="70"/>
       <c r="G15" s="69" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H15" s="64" t="s">
         <v>1127</v>
-      </c>
-      <c r="H15" s="64" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="16">
@@ -56074,10 +56060,10 @@
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
       <c r="G16" s="34" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H16" s="64" t="s">
         <v>1129</v>
-      </c>
-      <c r="H16" s="64" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="17">
@@ -56087,10 +56073,10 @@
       <c r="E17" s="70"/>
       <c r="F17" s="70"/>
       <c r="G17" s="75" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H17" s="64" t="s">
         <v>1131</v>
-      </c>
-      <c r="H17" s="64" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="18">
@@ -56100,10 +56086,10 @@
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
       <c r="G18" s="16" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H18" s="64" t="s">
         <v>1133</v>
-      </c>
-      <c r="H18" s="64" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="19">
@@ -56113,10 +56099,10 @@
       <c r="E19" s="70"/>
       <c r="F19" s="70"/>
       <c r="G19" s="69" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H19" s="64" t="s">
         <v>1135</v>
-      </c>
-      <c r="H19" s="64" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="20">
@@ -56126,10 +56112,10 @@
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
       <c r="G20" s="34" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H20" s="64" t="s">
         <v>1137</v>
-      </c>
-      <c r="H20" s="64" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="21">
@@ -56139,10 +56125,10 @@
       <c r="E21" s="70"/>
       <c r="F21" s="70"/>
       <c r="G21" s="69" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H21" s="71" t="s">
         <v>1139</v>
-      </c>
-      <c r="H21" s="71" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="22">
@@ -56150,76 +56136,76 @@
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
       <c r="G22" s="34" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H22" s="64" t="s">
         <v>1141</v>
-      </c>
-      <c r="H22" s="64" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="23">
       <c r="G23" s="69" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H23" s="64" t="s">
         <v>1143</v>
-      </c>
-      <c r="H23" s="64" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="24">
       <c r="G24" s="34" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H24" s="64" t="s">
         <v>1145</v>
-      </c>
-      <c r="H24" s="64" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="25">
       <c r="G25" s="69" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H25" s="69" t="s">
         <v>1147</v>
-      </c>
-      <c r="H25" s="69" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="26">
       <c r="G26" s="34" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H26" s="16" t="s">
         <v>1149</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="27">
       <c r="G27" s="69" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H27" s="64" t="s">
         <v>1151</v>
-      </c>
-      <c r="H27" s="64" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="28">
       <c r="G28" s="16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H28" s="64" t="s">
         <v>1153</v>
-      </c>
-      <c r="H28" s="64" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="29">
       <c r="G29" s="69" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H29" s="64" t="s">
         <v>1155</v>
-      </c>
-      <c r="H29" s="64" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
       <c r="G30" s="34" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H30" s="64" t="s">
         <v>1157</v>
-      </c>
-      <c r="H30" s="64" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="31">
@@ -56227,20 +56213,20 @@
       <c r="C31" s="70"/>
       <c r="D31" s="70"/>
       <c r="G31" s="69" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H31" s="71" t="s">
         <v>1159</v>
-      </c>
-      <c r="H31" s="71" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
       <c r="G32" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H32" s="64" t="s">
         <v>1161</v>
-      </c>
-      <c r="H32" s="64" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="33">
@@ -56250,10 +56236,10 @@
       <c r="E33" s="70"/>
       <c r="F33" s="70"/>
       <c r="G33" s="69" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H33" s="71" t="s">
         <v>1163</v>
-      </c>
-      <c r="H33" s="71" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="34">
@@ -56263,10 +56249,10 @@
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
       <c r="G34" s="34" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H34" s="71" t="s">
         <v>1165</v>
-      </c>
-      <c r="H34" s="71" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="35">
@@ -56274,20 +56260,20 @@
       <c r="C35" s="70"/>
       <c r="D35" s="70"/>
       <c r="G35" s="69" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H35" s="71" t="s">
         <v>1167</v>
-      </c>
-      <c r="H35" s="71" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
       <c r="G36" s="16" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H36" s="64" t="s">
         <v>1169</v>
-      </c>
-      <c r="H36" s="64" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="37">
@@ -56297,10 +56283,10 @@
       <c r="E37" s="70"/>
       <c r="F37" s="70"/>
       <c r="G37" s="75" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H37" s="64" t="s">
         <v>1171</v>
-      </c>
-      <c r="H37" s="64" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="38">
@@ -56308,52 +56294,52 @@
       <c r="C38" s="41"/>
       <c r="D38" s="41"/>
       <c r="G38" s="34" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H38" s="64" t="s">
         <v>1173</v>
-      </c>
-      <c r="H38" s="64" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="39">
       <c r="G39" s="75" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H39" s="64" t="s">
         <v>1175</v>
-      </c>
-      <c r="H39" s="64" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" s="34" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H40" s="64" t="s">
         <v>1177</v>
-      </c>
-      <c r="H40" s="64" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" s="69" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H41" s="75" t="s">
         <v>1179</v>
-      </c>
-      <c r="H41" s="75" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" s="34" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H42" s="64" t="s">
         <v>1181</v>
-      </c>
-      <c r="H42" s="64" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" s="70"/>
       <c r="F43" s="70"/>
       <c r="G43" s="69" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H43" s="69" t="s">
         <v>1183</v>
-      </c>
-      <c r="H43" s="69" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="44">
@@ -56363,10 +56349,10 @@
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
       <c r="G44" s="34" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H44" s="64" t="s">
         <v>1185</v>
-      </c>
-      <c r="H44" s="64" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="45">
@@ -56374,20 +56360,20 @@
       <c r="C45" s="70"/>
       <c r="D45" s="70"/>
       <c r="G45" s="69" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H45" s="64" t="s">
         <v>1187</v>
-      </c>
-      <c r="H45" s="64" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" s="41"/>
       <c r="F46" s="41"/>
       <c r="G46" s="34" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H46" s="71" t="s">
         <v>1189</v>
-      </c>
-      <c r="H46" s="71" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="47">
@@ -56395,45 +56381,48 @@
       <c r="C47" s="70"/>
       <c r="D47" s="70"/>
       <c r="G47" s="69" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H47" s="71" t="s">
         <v>1191</v>
       </c>
-      <c r="H47" s="71" t="s">
+    </row>
+    <row r="48">
+      <c r="G48" s="64" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="G48" s="34" t="s">
+      <c r="H48" s="64" t="s">
         <v>1193</v>
-      </c>
-      <c r="H48" s="71" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" s="69" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H49" s="71" t="s">
         <v>1195</v>
-      </c>
-      <c r="H49" s="64" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" s="34" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H50" s="64" t="s">
         <v>1197</v>
-      </c>
-      <c r="H50" s="71" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" s="69" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H51" s="71" t="s">
         <v>1199</v>
       </c>
-      <c r="H51" s="64" t="s">
+    </row>
+    <row r="52">
+      <c r="G52" s="34" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="52">
       <c r="H52" s="64" t="s">
         <v>1201</v>
       </c>
@@ -56759,50 +56748,51 @@
     <hyperlink r:id="rId122" ref="H50"/>
     <hyperlink r:id="rId123" ref="G51"/>
     <hyperlink r:id="rId124" ref="H51"/>
-    <hyperlink r:id="rId125" ref="H52"/>
-    <hyperlink r:id="rId126" ref="H53"/>
-    <hyperlink r:id="rId127" ref="H54"/>
-    <hyperlink r:id="rId128" ref="H55"/>
-    <hyperlink r:id="rId129" ref="H56"/>
-    <hyperlink r:id="rId130" ref="H57"/>
-    <hyperlink r:id="rId131" ref="H58"/>
-    <hyperlink r:id="rId132" ref="H59"/>
-    <hyperlink r:id="rId133" ref="H60"/>
-    <hyperlink r:id="rId134" ref="H61"/>
-    <hyperlink r:id="rId135" ref="H62"/>
-    <hyperlink r:id="rId136" ref="H63"/>
-    <hyperlink r:id="rId137" ref="H64"/>
-    <hyperlink r:id="rId138" ref="H65"/>
-    <hyperlink r:id="rId139" ref="H66"/>
-    <hyperlink r:id="rId140" ref="H67"/>
-    <hyperlink r:id="rId141" ref="H68"/>
-    <hyperlink r:id="rId142" ref="H69"/>
-    <hyperlink r:id="rId143" ref="H70"/>
-    <hyperlink r:id="rId144" ref="H71"/>
-    <hyperlink r:id="rId145" ref="H72"/>
-    <hyperlink r:id="rId146" ref="H73"/>
-    <hyperlink r:id="rId147" ref="H74"/>
-    <hyperlink r:id="rId148" ref="H75"/>
-    <hyperlink r:id="rId149" ref="H76"/>
-    <hyperlink r:id="rId150" ref="H77"/>
-    <hyperlink r:id="rId151" ref="H78"/>
-    <hyperlink r:id="rId152" ref="H79"/>
-    <hyperlink r:id="rId153" ref="H80"/>
-    <hyperlink r:id="rId154" ref="H81"/>
-    <hyperlink r:id="rId155" ref="H82"/>
-    <hyperlink r:id="rId156" ref="H83"/>
-    <hyperlink r:id="rId157" ref="H84"/>
-    <hyperlink r:id="rId158" ref="H85"/>
-    <hyperlink r:id="rId159" ref="H86"/>
-    <hyperlink r:id="rId160" ref="H87"/>
-    <hyperlink r:id="rId161" ref="H88"/>
-    <hyperlink r:id="rId162" ref="H89"/>
-    <hyperlink r:id="rId163" ref="H90"/>
-    <hyperlink r:id="rId164" ref="H91"/>
+    <hyperlink r:id="rId125" ref="G52"/>
+    <hyperlink r:id="rId126" ref="H52"/>
+    <hyperlink r:id="rId127" ref="H53"/>
+    <hyperlink r:id="rId128" ref="H54"/>
+    <hyperlink r:id="rId129" ref="H55"/>
+    <hyperlink r:id="rId130" ref="H56"/>
+    <hyperlink r:id="rId131" ref="H57"/>
+    <hyperlink r:id="rId132" ref="H58"/>
+    <hyperlink r:id="rId133" ref="H59"/>
+    <hyperlink r:id="rId134" ref="H60"/>
+    <hyperlink r:id="rId135" ref="H61"/>
+    <hyperlink r:id="rId136" ref="H62"/>
+    <hyperlink r:id="rId137" ref="H63"/>
+    <hyperlink r:id="rId138" ref="H64"/>
+    <hyperlink r:id="rId139" ref="H65"/>
+    <hyperlink r:id="rId140" ref="H66"/>
+    <hyperlink r:id="rId141" ref="H67"/>
+    <hyperlink r:id="rId142" ref="H68"/>
+    <hyperlink r:id="rId143" ref="H69"/>
+    <hyperlink r:id="rId144" ref="H70"/>
+    <hyperlink r:id="rId145" ref="H71"/>
+    <hyperlink r:id="rId146" ref="H72"/>
+    <hyperlink r:id="rId147" ref="H73"/>
+    <hyperlink r:id="rId148" ref="H74"/>
+    <hyperlink r:id="rId149" ref="H75"/>
+    <hyperlink r:id="rId150" ref="H76"/>
+    <hyperlink r:id="rId151" ref="H77"/>
+    <hyperlink r:id="rId152" ref="H78"/>
+    <hyperlink r:id="rId153" ref="H79"/>
+    <hyperlink r:id="rId154" ref="H80"/>
+    <hyperlink r:id="rId155" ref="H81"/>
+    <hyperlink r:id="rId156" ref="H82"/>
+    <hyperlink r:id="rId157" ref="H83"/>
+    <hyperlink r:id="rId158" ref="H84"/>
+    <hyperlink r:id="rId159" ref="H85"/>
+    <hyperlink r:id="rId160" ref="H86"/>
+    <hyperlink r:id="rId161" ref="H87"/>
+    <hyperlink r:id="rId162" ref="H88"/>
+    <hyperlink r:id="rId163" ref="H89"/>
+    <hyperlink r:id="rId164" ref="H90"/>
+    <hyperlink r:id="rId165" ref="H91"/>
   </hyperlinks>
-  <drawing r:id="rId165"/>
+  <drawing r:id="rId166"/>
   <tableParts count="1">
-    <tablePart r:id="rId167"/>
+    <tablePart r:id="rId168"/>
   </tableParts>
 </worksheet>
 </file>

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -56493,7 +56493,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="H66" s="16" t="s">
+      <c r="H66" s="64" t="s">
         <v>1215</v>
       </c>
     </row>

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -7512,13 +7512,13 @@
     <t>https://github.com/paperswithcode/sota-extractor/issues/38</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/20221205184917/https://paperswithcode.com/sota/image-classification-on-humaneval</t>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/165</t>
   </si>
   <si>
     <t>https://github.com/Q-Future/Chinese-Q-Bench/issues/2</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/20240222011501/https://paperswithcode.com/sota/text-generation-on-humaneval</t>
+    <t>https://github.com/paperswithcode/sota-extractor/issues/166</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/mlabonne/Yet_Another_LLM_Leaderboard/discussions/11</t>
@@ -8449,7 +8449,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="84">
+  <fonts count="86">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -8747,10 +8747,20 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -9393,7 +9403,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="149">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -9714,6 +9724,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="2" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="59" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="52" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -9722,10 +9735,13 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="21" fillId="2" fontId="59" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="2" fontId="60" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="20" fillId="3" fontId="60" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="2" fontId="61" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="62" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="52" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -9740,34 +9756,34 @@
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="61" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="63" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="44" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="62" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="3" fontId="64" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="44" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="63" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="2" fontId="65" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="3" fontId="64" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="3" fontId="66" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="21" fillId="2" fontId="65" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="2" fontId="67" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="66" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="68" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="26" fillId="4" fontId="67" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="26" fillId="4" fontId="69" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="26" fillId="4" fontId="68" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="4" fontId="70" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -9776,7 +9792,7 @@
     <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="69" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="71" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -9788,49 +9804,49 @@
     <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="70" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="0" fontId="72" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="29" fillId="2" fontId="71" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="2" fontId="73" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="30" fillId="3" fontId="72" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="3" fontId="74" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="29" fillId="2" fontId="73" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="2" fontId="75" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="29" fillId="2" fontId="74" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="2" fontId="76" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="75" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="29" fillId="2" fontId="76" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="31" fillId="0" fontId="77" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="30" fillId="3" fontId="78" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="2" fontId="78" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="30" fillId="3" fontId="79" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="0" fontId="79" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="29" fillId="2" fontId="80" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="3" fontId="80" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="32" fillId="4" fontId="81" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="3" fontId="81" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="33" fillId="0" fontId="82" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="2" fontId="82" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="83" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="32" fillId="4" fontId="83" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="33" fillId="0" fontId="84" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="34" fillId="0" fontId="85" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -23561,192 +23577,192 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="135" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="136" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="137" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="138" t="s">
         <v>1367</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="139" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="137" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="136" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="136" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="140" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="136" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="137" t="s">
+      <c r="A11" s="139" t="s">
         <v>1369</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="141" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="142" t="s">
         <v>1371</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="143" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="136" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="143" t="s">
+      <c r="A17" s="145" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="141" t="s">
+      <c r="A18" s="143" t="s">
         <v>1373</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="141" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="144" t="s">
+      <c r="A20" s="146" t="s">
         <v>1375</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="135" t="s">
+      <c r="A21" s="137" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="142" t="s">
+      <c r="A22" s="144" t="s">
         <v>1377</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="138" t="s">
+      <c r="A23" s="140" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="136" t="s">
+      <c r="A24" s="138" t="s">
         <v>1379</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="140" t="s">
+      <c r="A25" s="142" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="142" t="s">
+      <c r="A26" s="144" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="138" t="s">
+      <c r="A27" s="140" t="s">
         <v>1381</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="136" t="s">
+      <c r="A28" s="138" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="136" t="s">
         <v>1383</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="134" t="s">
+      <c r="A30" s="136" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="134" t="s">
+      <c r="A31" s="136" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="143" t="s">
+      <c r="A32" s="145" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="143" t="s">
+      <c r="A33" s="145" t="s">
         <v>1385</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="145" t="s">
+      <c r="A34" s="147" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="139" t="s">
+      <c r="A35" s="141" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="139" t="s">
+      <c r="A36" s="141" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="145" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="146" t="s">
+      <c r="A38" s="148" t="s">
         <v>246</v>
       </c>
     </row>
@@ -24800,17 +24816,17 @@
     </row>
     <row r="5">
       <c r="C5" s="106"/>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="107" t="s">
         <v>1076</v>
       </c>
       <c r="E5" s="91"/>
       <c r="F5" s="69" t="s">
         <v>1077</v>
       </c>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="108" t="s">
         <v>546</v>
       </c>
-      <c r="H5" s="108"/>
+      <c r="H5" s="109"/>
       <c r="I5" s="105"/>
       <c r="J5" s="97"/>
       <c r="K5" s="97"/>
@@ -24834,19 +24850,19 @@
       <c r="AC5" s="97"/>
     </row>
     <row r="6">
-      <c r="C6" s="109"/>
-      <c r="D6" s="110" t="s">
+      <c r="C6" s="110"/>
+      <c r="D6" s="111" t="s">
         <v>1078</v>
       </c>
-      <c r="E6" s="109"/>
-      <c r="F6" s="110" t="s">
+      <c r="E6" s="110"/>
+      <c r="F6" s="112" t="s">
         <v>1079</v>
       </c>
-      <c r="G6" s="111" t="s">
+      <c r="G6" s="113" t="s">
         <v>1080</v>
       </c>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="115"/>
       <c r="J6" s="97"/>
       <c r="K6" s="97"/>
       <c r="L6" s="97"/>
@@ -24895,8 +24911,8 @@
     <row r="8">
       <c r="C8" s="97"/>
       <c r="D8" s="97"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
       <c r="G8" s="97"/>
       <c r="H8" s="97"/>
       <c r="I8" s="97"/>
@@ -25010,7 +25026,7 @@
       <c r="AC11" s="97"/>
     </row>
     <row r="12">
-      <c r="A12" s="114"/>
+      <c r="A12" s="116"/>
       <c r="C12" s="97"/>
       <c r="D12" s="97"/>
       <c r="E12" s="97"/>
@@ -25040,7 +25056,7 @@
       <c r="AC12" s="97"/>
     </row>
     <row r="13">
-      <c r="A13" s="114"/>
+      <c r="A13" s="116"/>
       <c r="C13" s="97"/>
       <c r="D13" s="97"/>
       <c r="E13" s="97"/>
@@ -25070,7 +25086,7 @@
       <c r="AC13" s="97"/>
     </row>
     <row r="14">
-      <c r="A14" s="114"/>
+      <c r="A14" s="116"/>
       <c r="C14" s="97"/>
       <c r="D14" s="97"/>
       <c r="E14" s="97"/>
@@ -25130,7 +25146,7 @@
       <c r="AC15" s="97"/>
     </row>
     <row r="16">
-      <c r="A16" s="114"/>
+      <c r="A16" s="116"/>
       <c r="C16" s="97"/>
       <c r="D16" s="97"/>
       <c r="E16" s="97"/>
@@ -25160,7 +25176,7 @@
       <c r="AC16" s="97"/>
     </row>
     <row r="17">
-      <c r="A17" s="114"/>
+      <c r="A17" s="116"/>
       <c r="C17" s="97"/>
       <c r="D17" s="97"/>
       <c r="E17" s="97"/>
@@ -25190,7 +25206,7 @@
       <c r="AC17" s="97"/>
     </row>
     <row r="18">
-      <c r="A18" s="114"/>
+      <c r="A18" s="116"/>
       <c r="C18" s="97"/>
       <c r="D18" s="97"/>
       <c r="E18" s="97"/>
@@ -25220,7 +25236,7 @@
       <c r="AC18" s="97"/>
     </row>
     <row r="19">
-      <c r="A19" s="114"/>
+      <c r="A19" s="116"/>
       <c r="C19" s="97"/>
       <c r="D19" s="97"/>
       <c r="E19" s="97"/>
@@ -25250,7 +25266,7 @@
       <c r="AC19" s="97"/>
     </row>
     <row r="20">
-      <c r="A20" s="114"/>
+      <c r="A20" s="116"/>
       <c r="C20" s="97"/>
       <c r="D20" s="97"/>
       <c r="E20" s="97"/>
@@ -25280,7 +25296,7 @@
       <c r="AC20" s="97"/>
     </row>
     <row r="21">
-      <c r="A21" s="114"/>
+      <c r="A21" s="116"/>
       <c r="C21" s="97"/>
       <c r="D21" s="97"/>
       <c r="E21" s="97"/>
@@ -25340,7 +25356,7 @@
       <c r="AC22" s="97"/>
     </row>
     <row r="23">
-      <c r="A23" s="114"/>
+      <c r="A23" s="116"/>
       <c r="C23" s="97"/>
       <c r="D23" s="97"/>
       <c r="E23" s="97"/>
@@ -25400,7 +25416,7 @@
       <c r="AC24" s="97"/>
     </row>
     <row r="25">
-      <c r="A25" s="114"/>
+      <c r="A25" s="116"/>
       <c r="C25" s="97"/>
       <c r="D25" s="97"/>
       <c r="E25" s="97"/>
@@ -25430,7 +25446,7 @@
       <c r="AC25" s="97"/>
     </row>
     <row r="26">
-      <c r="A26" s="114"/>
+      <c r="A26" s="116"/>
       <c r="C26" s="97"/>
       <c r="D26" s="97"/>
       <c r="E26" s="97"/>
@@ -25460,7 +25476,7 @@
       <c r="AC26" s="97"/>
     </row>
     <row r="27">
-      <c r="A27" s="114"/>
+      <c r="A27" s="116"/>
       <c r="C27" s="97"/>
       <c r="D27" s="97"/>
       <c r="E27" s="97"/>
@@ -25490,7 +25506,7 @@
       <c r="AC27" s="97"/>
     </row>
     <row r="28">
-      <c r="A28" s="114"/>
+      <c r="A28" s="116"/>
       <c r="C28" s="97"/>
       <c r="D28" s="97"/>
       <c r="E28" s="97"/>
@@ -25520,7 +25536,7 @@
       <c r="AC28" s="97"/>
     </row>
     <row r="29">
-      <c r="A29" s="114"/>
+      <c r="A29" s="116"/>
       <c r="C29" s="97"/>
       <c r="D29" s="97"/>
       <c r="E29" s="97"/>
@@ -25550,7 +25566,7 @@
       <c r="AC29" s="97"/>
     </row>
     <row r="30">
-      <c r="A30" s="114"/>
+      <c r="A30" s="116"/>
       <c r="C30" s="97"/>
       <c r="D30" s="97"/>
       <c r="E30" s="97"/>
@@ -55734,8 +55750,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="D4" s="115"/>
-      <c r="H4" s="110" t="s">
+      <c r="D4" s="117"/>
+      <c r="H4" s="112" t="s">
         <v>1089</v>
       </c>
     </row>
@@ -55838,7 +55854,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="118" t="s">
         <v>1093</v>
       </c>
       <c r="B3" s="69" t="s">
@@ -55866,8 +55882,8 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118" t="s">
+      <c r="E4" s="119"/>
+      <c r="F4" s="120" t="s">
         <v>621</v>
       </c>
       <c r="G4" s="16" t="s">
@@ -55923,8 +55939,8 @@
       <c r="A7" s="68"/>
       <c r="C7" s="91"/>
       <c r="D7" s="70"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="120" t="s">
+      <c r="E7" s="121"/>
+      <c r="F7" s="122" t="s">
         <v>1106</v>
       </c>
       <c r="G7" s="69" t="s">
@@ -55933,7 +55949,7 @@
       <c r="H7" s="75" t="s">
         <v>1108</v>
       </c>
-      <c r="I7" s="121" t="s">
+      <c r="I7" s="123" t="s">
         <v>750</v>
       </c>
     </row>
@@ -56583,7 +56599,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="H84" s="120" t="s">
+      <c r="H84" s="122" t="s">
         <v>1232</v>
       </c>
     </row>
@@ -56618,7 +56634,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="H91" s="122" t="s">
+      <c r="H91" s="124" t="s">
         <v>685</v>
       </c>
     </row>
@@ -56907,7 +56923,7 @@
       <c r="H5" s="71" t="s">
         <v>1243</v>
       </c>
-      <c r="I5" s="123" t="s">
+      <c r="I5" s="125" t="s">
         <v>1244</v>
       </c>
     </row>
@@ -56919,7 +56935,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="118" t="s">
+      <c r="H6" s="120" t="s">
         <v>1245</v>
       </c>
       <c r="I6" s="24" t="s">
@@ -57510,7 +57526,7 @@
       <c r="E55" s="91"/>
       <c r="F55" s="91"/>
       <c r="G55" s="91"/>
-      <c r="H55" s="124" t="s">
+      <c r="H55" s="126" t="s">
         <v>1289</v>
       </c>
     </row>
@@ -57570,7 +57586,7 @@
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
-      <c r="H60" s="125" t="s">
+      <c r="H60" s="127" t="s">
         <v>1294</v>
       </c>
     </row>
@@ -58415,17 +58431,17 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="126"/>
-      <c r="B131" s="127"/>
-      <c r="C131" s="127"/>
-      <c r="D131" s="127"/>
-      <c r="E131" s="127"/>
-      <c r="F131" s="127"/>
-      <c r="G131" s="127"/>
-      <c r="H131" s="128" t="s">
+      <c r="A131" s="128"/>
+      <c r="B131" s="129"/>
+      <c r="C131" s="129"/>
+      <c r="D131" s="129"/>
+      <c r="E131" s="129"/>
+      <c r="F131" s="129"/>
+      <c r="G131" s="129"/>
+      <c r="H131" s="130" t="s">
         <v>1354</v>
       </c>
-      <c r="I131" s="129"/>
+      <c r="I131" s="131"/>
     </row>
     <row r="132">
       <c r="A132" s="81"/>
@@ -58513,19 +58529,19 @@
       </c>
     </row>
     <row r="142">
-      <c r="H142" s="118" t="s">
+      <c r="H142" s="120" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="130"/>
-      <c r="B143" s="131"/>
-      <c r="C143" s="131"/>
-      <c r="D143" s="131"/>
-      <c r="E143" s="131"/>
-      <c r="F143" s="131"/>
-      <c r="G143" s="131"/>
-      <c r="H143" s="132" t="s">
+      <c r="A143" s="132"/>
+      <c r="B143" s="133"/>
+      <c r="C143" s="133"/>
+      <c r="D143" s="133"/>
+      <c r="E143" s="133"/>
+      <c r="F143" s="133"/>
+      <c r="G143" s="133"/>
+      <c r="H143" s="134" t="s">
         <v>1365</v>
       </c>
     </row>

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -3664,11 +3664,11 @@
     </comment>
     <comment authorId="0" ref="B1">
       <text>
-        <t xml:space="preserve">ep: Excel platform
-gh: GitHub
+        <t xml:space="preserve">gh: GitHub
 hf: HuggingFace
 ip: independent platform
 pwc: PapersWithCode
+sp: spreadsheet platform
 	-Jimmy Zhao</t>
       </text>
     </comment>
@@ -3861,7 +3861,7 @@
     <t>ai-benchmarks</t>
   </si>
   <si>
-    <t>ep,gh</t>
+    <t>gh,sp</t>
   </si>
   <si>
     <t>https://github.com/fixie-ai/ai-benchmarks</t>
@@ -7131,7 +7131,7 @@
     <t>VisualWebArena</t>
   </si>
   <si>
-    <t>ep,ip</t>
+    <t>ip,sp</t>
   </si>
   <si>
     <t>https://github.com/web-arena-x/visualwebarena</t>
@@ -7189,7 +7189,7 @@
     <t>WebArena</t>
   </si>
   <si>
-    <t>ep</t>
+    <t>sp</t>
   </si>
   <si>
     <t>https://github.com/web-arena-x/webarena</t>
@@ -22550,11 +22550,11 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H809">
       <formula1>"1,1,4,1,4,5,2,2,4,3,4,4,5,5,Workflow patterns,1,5,1,2,4"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="B2:B482">
+      <formula1>"gh,gh,hf,gh,hf,ip,gh,ip,gh,pwc,hf,hf,ip,ip,Host platforms,pwc,gh,sp,sp,ip,sp"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F809">
       <formula1>"Has any submission channel/protocol?,y"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B2:B482">
-      <formula1>"gh,gh,hf,gh,hf,ip,gh,ip,gh,pwc,hf,hf,ip,ip,Host platforms,pwc,ep,gh,ep,ep,ip"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E809">
       <formula1>"Attaches model provenance?,y"</formula1>

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -3668,7 +3668,7 @@
 hf: HuggingFace
 ip: independent platform
 pwc: PapersWithCode
-sp: spreadsheet platform
+sp: spreadsheet platform
 	-Jimmy Zhao</t>
       </text>
     </comment>
@@ -3692,12 +3692,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2730" uniqueCount="1388">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Host platforms</t>
+    <t>Sources</t>
   </si>
   <si>
     <t>Has any GitHub repository?</t>
@@ -6330,6 +6330,9 @@
     <t>Psycholex Leaderboard</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/aminabbasi/psycholex_leaderboard/discussions/1</t>
+  </si>
+  <si>
     <t>PubMedQA</t>
   </si>
   <si>
@@ -8449,7 +8452,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="86">
+  <fonts count="88">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -8875,6 +8878,16 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
@@ -9393,7 +9406,7 @@
         <color rgb="FF284E3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF6F8F9"/>
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
@@ -9403,7 +9416,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="152">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -9846,10 +9859,16 @@
     <xf borderId="32" fillId="4" fontId="83" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="33" fillId="0" fontId="84" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="3" fontId="84" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="85" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="0" fontId="85" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="33" fillId="0" fontId="86" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="34" fillId="0" fontId="87" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -10004,7 +10023,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I482" displayName="Table1" name="Table1" id="1">
   <tableColumns count="9">
     <tableColumn name="Name" id="1"/>
-    <tableColumn name="Host platforms" id="2"/>
+    <tableColumn name="Sources" id="2"/>
     <tableColumn name="Has any GitHub repository?" id="3"/>
     <tableColumn name="Has many major releases?" id="4"/>
     <tableColumn name="Attaches model provenance?" id="5"/>
@@ -10018,7 +10037,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A38" displayName="Table10" name="Table10" id="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A39" displayName="Table10" name="Table10" id="10">
   <tableColumns count="1">
     <tableColumn name="Uncategorized" id="1"/>
   </tableColumns>
@@ -17610,16 +17629,19 @@
       <c r="H352" s="5">
         <v>4.0</v>
       </c>
+      <c r="I352" s="24" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="8" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B353" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C353" s="22" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D353" s="9"/>
       <c r="E353" s="9" t="s">
@@ -17635,13 +17657,13 @@
     </row>
     <row r="354">
       <c r="A354" s="4" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B354" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D354" s="17"/>
       <c r="E354" s="5" t="s">
@@ -17654,13 +17676,13 @@
     </row>
     <row r="355">
       <c r="A355" s="8" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B355" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C355" s="10" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D355" s="11"/>
       <c r="E355" s="12"/>
@@ -17671,13 +17693,13 @@
     </row>
     <row r="356">
       <c r="A356" s="4" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B356" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D356" s="17"/>
       <c r="E356" s="13"/>
@@ -17686,18 +17708,18 @@
         <v>4.0</v>
       </c>
       <c r="I356" s="14" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="8" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B357" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C357" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D357" s="11"/>
       <c r="E357" s="12"/>
@@ -17708,18 +17730,18 @@
         <v>32</v>
       </c>
       <c r="I357" s="35" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B358" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D358" s="17"/>
       <c r="E358" s="5" t="s">
@@ -17735,13 +17757,13 @@
     </row>
     <row r="359">
       <c r="A359" s="8" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B359" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C359" s="22" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D359" s="9"/>
       <c r="E359" s="12"/>
@@ -17754,13 +17776,13 @@
     </row>
     <row r="360">
       <c r="A360" s="4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B360" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D360" s="6"/>
       <c r="E360" s="13"/>
@@ -17769,12 +17791,12 @@
         <v>4.0</v>
       </c>
       <c r="I360" s="24" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B361" s="9" t="s">
         <v>10</v>
@@ -17788,13 +17810,13 @@
     </row>
     <row r="362">
       <c r="A362" s="4" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B362" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C362" s="34" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D362" s="5"/>
       <c r="E362" s="5" t="s">
@@ -17809,7 +17831,7 @@
     </row>
     <row r="363">
       <c r="A363" s="8" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B363" s="9" t="s">
         <v>10</v>
@@ -17828,7 +17850,7 @@
     </row>
     <row r="364">
       <c r="A364" s="4" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B364" s="5" t="s">
         <v>23</v>
@@ -17843,13 +17865,13 @@
     </row>
     <row r="365">
       <c r="A365" s="52" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B365" s="53" t="s">
         <v>18</v>
       </c>
       <c r="C365" s="10" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D365" s="11"/>
       <c r="E365" s="9" t="s">
@@ -17862,13 +17884,13 @@
     </row>
     <row r="366">
       <c r="A366" s="4" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B366" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D366" s="17"/>
       <c r="E366" s="13"/>
@@ -17879,7 +17901,7 @@
     </row>
     <row r="367">
       <c r="A367" s="8" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B367" s="9" t="s">
         <v>10</v>
@@ -17893,13 +17915,13 @@
     </row>
     <row r="368">
       <c r="A368" s="4" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B368" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D368" s="17"/>
       <c r="E368" s="5" t="s">
@@ -17915,13 +17937,13 @@
     </row>
     <row r="369">
       <c r="A369" s="8" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B369" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C369" s="10" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D369" s="11"/>
       <c r="E369" s="12"/>
@@ -17934,13 +17956,13 @@
     </row>
     <row r="370">
       <c r="A370" s="4" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B370" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C370" s="34" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D370" s="5"/>
       <c r="E370" s="5" t="s">
@@ -17955,7 +17977,7 @@
     </row>
     <row r="371">
       <c r="A371" s="8" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B371" s="9" t="s">
         <v>10</v>
@@ -17971,13 +17993,13 @@
     </row>
     <row r="372">
       <c r="A372" s="4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B372" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C372" s="16" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D372" s="17"/>
       <c r="E372" s="5" t="s">
@@ -17992,13 +18014,13 @@
     </row>
     <row r="373">
       <c r="A373" s="8" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B373" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D373" s="11"/>
       <c r="E373" s="9" t="s">
@@ -18009,18 +18031,18 @@
         <v>4.0</v>
       </c>
       <c r="I373" s="35" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B374" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D374" s="17"/>
       <c r="E374" s="5" t="s">
@@ -18032,18 +18054,18 @@
         <v>4.0</v>
       </c>
       <c r="I374" s="24" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="8" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B375" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C375" s="22" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D375" s="9"/>
       <c r="E375" s="9" t="s">
@@ -18059,13 +18081,13 @@
     </row>
     <row r="376">
       <c r="A376" s="4" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B376" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D376" s="17"/>
       <c r="E376" s="5" t="s">
@@ -18079,13 +18101,13 @@
     </row>
     <row r="377">
       <c r="A377" s="8" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B377" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C377" s="22" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D377" s="9"/>
       <c r="E377" s="9" t="s">
@@ -18100,13 +18122,13 @@
     </row>
     <row r="378">
       <c r="A378" s="4" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B378" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D378" s="17"/>
       <c r="E378" s="13"/>
@@ -18117,13 +18139,13 @@
     </row>
     <row r="379">
       <c r="A379" s="8" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B379" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C379" s="10" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D379" s="11"/>
       <c r="E379" s="9"/>
@@ -18137,13 +18159,13 @@
     </row>
     <row r="380">
       <c r="A380" s="4" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B380" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D380" s="17"/>
       <c r="E380" s="13"/>
@@ -18154,13 +18176,13 @@
     </row>
     <row r="381">
       <c r="A381" s="29" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B381" s="54" t="s">
         <v>10</v>
       </c>
       <c r="C381" s="40" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D381" s="32"/>
       <c r="E381" s="9" t="s">
@@ -18174,18 +18196,18 @@
         <v>32</v>
       </c>
       <c r="I381" s="23" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="4" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B382" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D382" s="17"/>
       <c r="E382" s="5" t="s">
@@ -18201,13 +18223,13 @@
     </row>
     <row r="383">
       <c r="A383" s="8" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B383" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C383" s="10" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D383" s="11"/>
       <c r="E383" s="11"/>
@@ -18218,13 +18240,13 @@
     </row>
     <row r="384">
       <c r="A384" s="4" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B384" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C384" s="16" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D384" s="17"/>
       <c r="E384" s="13"/>
@@ -18235,13 +18257,13 @@
     </row>
     <row r="385">
       <c r="A385" s="8" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B385" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C385" s="10" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D385" s="18"/>
       <c r="E385" s="9" t="s">
@@ -18256,13 +18278,13 @@
     </row>
     <row r="386">
       <c r="A386" s="4" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B386" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C386" s="34" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="13"/>
@@ -18275,13 +18297,13 @@
     </row>
     <row r="387">
       <c r="A387" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B387" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C387" s="22" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D387" s="9"/>
       <c r="E387" s="12"/>
@@ -18292,13 +18314,13 @@
     </row>
     <row r="388">
       <c r="A388" s="4" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B388" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C388" s="16" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D388" s="17"/>
       <c r="E388" s="5" t="s">
@@ -18312,18 +18334,18 @@
         <v>81</v>
       </c>
       <c r="I388" s="24" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="8" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B389" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C389" s="10" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D389" s="11"/>
       <c r="E389" s="9" t="s">
@@ -18339,7 +18361,7 @@
     </row>
     <row r="390">
       <c r="A390" s="4" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B390" s="5" t="s">
         <v>23</v>
@@ -18358,13 +18380,13 @@
     </row>
     <row r="391">
       <c r="A391" s="8" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B391" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C391" s="10" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D391" s="11"/>
       <c r="E391" s="12"/>
@@ -18375,13 +18397,13 @@
     </row>
     <row r="392">
       <c r="A392" s="4" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B392" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C392" s="16" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D392" s="17"/>
       <c r="E392" s="5" t="s">
@@ -18395,12 +18417,12 @@
         <v>32</v>
       </c>
       <c r="I392" s="24" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="8" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B393" s="9" t="s">
         <v>10</v>
@@ -18417,12 +18439,12 @@
         <v>4.0</v>
       </c>
       <c r="I393" s="23" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B394" s="5" t="s">
         <v>10</v>
@@ -18438,18 +18460,18 @@
         <v>4.0</v>
       </c>
       <c r="I394" s="24" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="8" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B395" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C395" s="10" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D395" s="11"/>
       <c r="E395" s="9" t="s">
@@ -18464,13 +18486,13 @@
     </row>
     <row r="396">
       <c r="A396" s="4" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B396" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C396" s="34" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D396" s="5"/>
       <c r="E396" s="5" t="s">
@@ -18484,18 +18506,18 @@
         <v>81</v>
       </c>
       <c r="I396" s="24" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="8" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B397" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C397" s="10" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D397" s="11"/>
       <c r="E397" s="12"/>
@@ -18506,18 +18528,18 @@
         <v>81</v>
       </c>
       <c r="I397" s="23" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B398" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C398" s="34" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
@@ -18529,7 +18551,7 @@
     </row>
     <row r="399">
       <c r="A399" s="8" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B399" s="9" t="s">
         <v>10</v>
@@ -18543,12 +18565,12 @@
         <v>4.0</v>
       </c>
       <c r="I399" s="23" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="4" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B400" s="5" t="s">
         <v>23</v>
@@ -18564,13 +18586,13 @@
     </row>
     <row r="401">
       <c r="A401" s="8" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B401" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C401" s="10" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D401" s="11"/>
       <c r="E401" s="12"/>
@@ -18581,12 +18603,12 @@
         <v>4.0</v>
       </c>
       <c r="I401" s="23" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B402" s="5" t="s">
         <v>23</v>
@@ -18600,13 +18622,13 @@
     </row>
     <row r="403">
       <c r="A403" s="8" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B403" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C403" s="10" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D403" s="11"/>
       <c r="E403" s="12"/>
@@ -18617,18 +18639,18 @@
         <v>4.0</v>
       </c>
       <c r="I403" s="23" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="4" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B404" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C404" s="16" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D404" s="17"/>
       <c r="E404" s="13"/>
@@ -18637,18 +18659,18 @@
         <v>4.0</v>
       </c>
       <c r="I404" s="24" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="8" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B405" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C405" s="10" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D405" s="11"/>
       <c r="E405" s="12"/>
@@ -18659,18 +18681,18 @@
         <v>4.0</v>
       </c>
       <c r="I405" s="23" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="4" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B406" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C406" s="16" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D406" s="17"/>
       <c r="E406" s="13"/>
@@ -18681,13 +18703,13 @@
     </row>
     <row r="407">
       <c r="A407" s="8" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B407" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C407" s="10" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D407" s="11"/>
       <c r="E407" s="12"/>
@@ -18698,13 +18720,13 @@
     </row>
     <row r="408">
       <c r="A408" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B408" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C408" s="16" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D408" s="17"/>
       <c r="E408" s="13"/>
@@ -18715,18 +18737,18 @@
         <v>4.0</v>
       </c>
       <c r="I408" s="24" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="8" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B409" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C409" s="10" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D409" s="11"/>
       <c r="E409" s="12"/>
@@ -18735,18 +18757,18 @@
         <v>4.0</v>
       </c>
       <c r="I409" s="35" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="4" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B410" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C410" s="16" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D410" s="17"/>
       <c r="E410" s="13"/>
@@ -18755,18 +18777,18 @@
         <v>4.0</v>
       </c>
       <c r="I410" s="24" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="29" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B411" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C411" s="40" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D411" s="38"/>
       <c r="E411" s="30"/>
@@ -18780,13 +18802,13 @@
     </row>
     <row r="412">
       <c r="A412" s="4" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B412" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C412" s="16" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D412" s="17"/>
       <c r="E412" s="13"/>
@@ -18797,18 +18819,18 @@
         <v>4.0</v>
       </c>
       <c r="I412" s="14" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="8" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B413" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C413" s="10" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D413" s="11"/>
       <c r="E413" s="12"/>
@@ -18819,18 +18841,18 @@
         <v>4.0</v>
       </c>
       <c r="I413" s="23" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B414" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C414" s="16" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D414" s="17"/>
       <c r="E414" s="13"/>
@@ -18839,18 +18861,18 @@
         <v>4.0</v>
       </c>
       <c r="I414" s="24" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="8" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B415" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C415" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D415" s="11"/>
       <c r="E415" s="12"/>
@@ -18878,13 +18900,13 @@
     </row>
     <row r="416">
       <c r="A416" s="4" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B416" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C416" s="16" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D416" s="17"/>
       <c r="E416" s="13"/>
@@ -18915,13 +18937,13 @@
     </row>
     <row r="417">
       <c r="A417" s="8" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B417" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C417" s="10" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D417" s="11"/>
       <c r="E417" s="12"/>
@@ -18930,7 +18952,7 @@
         <v>4.0</v>
       </c>
       <c r="I417" s="56" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="J417" s="26"/>
       <c r="K417" s="26"/>
@@ -18952,13 +18974,13 @@
     </row>
     <row r="418">
       <c r="A418" s="4" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B418" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C418" s="16" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D418" s="17"/>
       <c r="E418" s="5" t="s">
@@ -18969,18 +18991,18 @@
         <v>5.0</v>
       </c>
       <c r="I418" s="43" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="8" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B419" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C419" s="22" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D419" s="9"/>
       <c r="E419" s="9" t="s">
@@ -18996,13 +19018,13 @@
     </row>
     <row r="420">
       <c r="A420" s="4" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B420" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C420" s="16" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D420" s="17"/>
       <c r="E420" s="13"/>
@@ -19013,18 +19035,18 @@
         <v>32</v>
       </c>
       <c r="I420" s="24" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="8" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B421" s="9" t="s">
         <v>452</v>
       </c>
       <c r="C421" s="10" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D421" s="11"/>
       <c r="E421" s="9" t="s">
@@ -19036,18 +19058,18 @@
         <v>1.0</v>
       </c>
       <c r="I421" s="23" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="4" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B422" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C422" s="16" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D422" s="17"/>
       <c r="E422" s="5" t="s">
@@ -19061,18 +19083,18 @@
         <v>32</v>
       </c>
       <c r="I422" s="24" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="8" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B423" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C423" s="10" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D423" s="11"/>
       <c r="E423" s="9" t="s">
@@ -19088,13 +19110,13 @@
     </row>
     <row r="424">
       <c r="A424" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B424" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C424" s="16" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D424" s="17"/>
       <c r="E424" s="13"/>
@@ -19103,7 +19125,7 @@
         <v>4.0</v>
       </c>
       <c r="I424" s="24" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J424" s="26"/>
       <c r="K424" s="26"/>
@@ -19125,13 +19147,13 @@
     </row>
     <row r="425">
       <c r="A425" s="8" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B425" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C425" s="10" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D425" s="11"/>
       <c r="E425" s="9" t="s">
@@ -19148,13 +19170,13 @@
     </row>
     <row r="426">
       <c r="A426" s="4" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B426" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C426" s="34" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D426" s="5"/>
       <c r="E426" s="5" t="s">
@@ -19169,13 +19191,13 @@
     </row>
     <row r="427">
       <c r="A427" s="8" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B427" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C427" s="10" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D427" s="11"/>
       <c r="E427" s="9" t="s">
@@ -19190,13 +19212,13 @@
     </row>
     <row r="428">
       <c r="A428" s="4" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B428" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C428" s="16" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D428" s="17"/>
       <c r="E428" s="5" t="s">
@@ -19211,13 +19233,13 @@
     </row>
     <row r="429">
       <c r="A429" s="8" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B429" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C429" s="10" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D429" s="11"/>
       <c r="E429" s="9" t="s">
@@ -19235,13 +19257,13 @@
     </row>
     <row r="430">
       <c r="A430" s="4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B430" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C430" s="16" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D430" s="17"/>
       <c r="E430" s="13"/>
@@ -19250,18 +19272,18 @@
         <v>4.0</v>
       </c>
       <c r="I430" s="24" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="8" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B431" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C431" s="22" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D431" s="9"/>
       <c r="E431" s="9"/>
@@ -19275,7 +19297,7 @@
     </row>
     <row r="432">
       <c r="A432" s="4" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B432" s="5" t="s">
         <v>124</v>
@@ -19291,13 +19313,13 @@
     </row>
     <row r="433">
       <c r="A433" s="8" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B433" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C433" s="10" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D433" s="11"/>
       <c r="E433" s="9" t="s">
@@ -19311,7 +19333,7 @@
     </row>
     <row r="434">
       <c r="A434" s="4" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B434" s="5" t="s">
         <v>10</v>
@@ -19333,13 +19355,13 @@
     </row>
     <row r="435">
       <c r="A435" s="8" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B435" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C435" s="10" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D435" s="11"/>
       <c r="E435" s="12"/>
@@ -19352,7 +19374,7 @@
     </row>
     <row r="436">
       <c r="A436" s="4" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B436" s="5" t="s">
         <v>23</v>
@@ -19366,13 +19388,13 @@
     </row>
     <row r="437">
       <c r="A437" s="8" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B437" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C437" s="10" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D437" s="11"/>
       <c r="E437" s="12"/>
@@ -19383,12 +19405,12 @@
         <v>32</v>
       </c>
       <c r="I437" s="35" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="4" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B438" s="5" t="s">
         <v>10</v>
@@ -19404,13 +19426,13 @@
     </row>
     <row r="439">
       <c r="A439" s="8" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B439" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C439" s="10" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D439" s="11"/>
       <c r="E439" s="9" t="s">
@@ -19425,13 +19447,13 @@
     </row>
     <row r="440">
       <c r="A440" s="4" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B440" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C440" s="16" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D440" s="17"/>
       <c r="E440" s="13"/>
@@ -19442,7 +19464,7 @@
     </row>
     <row r="441">
       <c r="A441" s="8" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B441" s="9" t="s">
         <v>10</v>
@@ -19457,18 +19479,18 @@
         <v>4.0</v>
       </c>
       <c r="I441" s="23" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="4" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B442" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C442" s="16" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D442" s="17"/>
       <c r="E442" s="5" t="s">
@@ -19481,13 +19503,13 @@
     </row>
     <row r="443">
       <c r="A443" s="8" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B443" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C443" s="10" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D443" s="11"/>
       <c r="E443" s="9" t="s">
@@ -19503,13 +19525,13 @@
     </row>
     <row r="444">
       <c r="A444" s="4" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B444" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C444" s="16" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D444" s="17"/>
       <c r="E444" s="5" t="s">
@@ -19523,13 +19545,13 @@
     </row>
     <row r="445">
       <c r="A445" s="8" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B445" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C445" s="10" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D445" s="11"/>
       <c r="E445" s="12"/>
@@ -19540,7 +19562,7 @@
     </row>
     <row r="446">
       <c r="A446" s="4" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B446" s="5" t="s">
         <v>23</v>
@@ -19554,7 +19576,7 @@
     </row>
     <row r="447">
       <c r="A447" s="8" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B447" s="9" t="s">
         <v>23</v>
@@ -19568,7 +19590,7 @@
     </row>
     <row r="448">
       <c r="A448" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B448" s="5" t="s">
         <v>23</v>
@@ -19582,7 +19604,7 @@
     </row>
     <row r="449">
       <c r="A449" s="8" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B449" s="9" t="s">
         <v>23</v>
@@ -19596,7 +19618,7 @@
     </row>
     <row r="450">
       <c r="A450" s="4" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B450" s="5" t="s">
         <v>23</v>
@@ -19610,13 +19632,13 @@
     </row>
     <row r="451">
       <c r="A451" s="8" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B451" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C451" s="22" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D451" s="9"/>
       <c r="E451" s="9" t="s">
@@ -19630,18 +19652,18 @@
         <v>518</v>
       </c>
       <c r="I451" s="35" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="4" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B452" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C452" s="16" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D452" s="17"/>
       <c r="E452" s="5" t="s">
@@ -19656,7 +19678,7 @@
     </row>
     <row r="453">
       <c r="A453" s="8" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B453" s="9" t="s">
         <v>23</v>
@@ -19670,13 +19692,13 @@
     </row>
     <row r="454">
       <c r="A454" s="4" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B454" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C454" s="16" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D454" s="17"/>
       <c r="E454" s="13"/>
@@ -19687,13 +19709,13 @@
     </row>
     <row r="455">
       <c r="A455" s="8" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B455" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C455" s="10" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D455" s="11"/>
       <c r="E455" s="12"/>
@@ -19704,18 +19726,18 @@
         <v>81</v>
       </c>
       <c r="I455" s="23" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B456" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C456" s="16" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D456" s="17"/>
       <c r="E456" s="5" t="s">
@@ -19731,13 +19753,13 @@
     </row>
     <row r="457">
       <c r="A457" s="8" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B457" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C457" s="10" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D457" s="11"/>
       <c r="E457" s="9" t="s">
@@ -19751,13 +19773,13 @@
     </row>
     <row r="458">
       <c r="A458" s="4" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B458" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C458" s="16" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D458" s="17"/>
       <c r="E458" s="5" t="s">
@@ -19771,13 +19793,13 @@
     </row>
     <row r="459">
       <c r="A459" s="8" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B459" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C459" s="10" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D459" s="11"/>
       <c r="E459" s="9" t="s">
@@ -19790,13 +19812,13 @@
     </row>
     <row r="460">
       <c r="A460" s="4" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B460" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C460" s="16" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D460" s="17"/>
       <c r="E460" s="5" t="s">
@@ -19809,13 +19831,13 @@
     </row>
     <row r="461">
       <c r="A461" s="8" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B461" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C461" s="10" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D461" s="11"/>
       <c r="E461" s="9" t="s">
@@ -19828,13 +19850,13 @@
     </row>
     <row r="462">
       <c r="A462" s="4" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B462" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C462" s="16" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D462" s="17"/>
       <c r="E462" s="5" t="s">
@@ -19850,13 +19872,13 @@
     </row>
     <row r="463">
       <c r="A463" s="8" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B463" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C463" s="10" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D463" s="11"/>
       <c r="E463" s="12"/>
@@ -19867,18 +19889,18 @@
         <v>603</v>
       </c>
       <c r="I463" s="23" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="4" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C464" s="16" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D464" s="17"/>
       <c r="E464" s="5" t="s">
@@ -19892,13 +19914,13 @@
     </row>
     <row r="465">
       <c r="A465" s="8" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B465" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C465" s="10" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D465" s="11"/>
       <c r="E465" s="12"/>
@@ -19909,13 +19931,13 @@
     </row>
     <row r="466">
       <c r="A466" s="4" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B466" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C466" s="16" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D466" s="17"/>
       <c r="E466" s="5" t="s">
@@ -19930,13 +19952,13 @@
     </row>
     <row r="467">
       <c r="A467" s="8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B467" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C467" s="10" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D467" s="11"/>
       <c r="E467" s="9" t="s">
@@ -19952,7 +19974,7 @@
     </row>
     <row r="468">
       <c r="A468" s="4" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B468" s="5" t="s">
         <v>10</v>
@@ -19966,13 +19988,13 @@
     </row>
     <row r="469">
       <c r="A469" s="8" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B469" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C469" s="10" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D469" s="11"/>
       <c r="E469" s="9"/>
@@ -19982,18 +20004,18 @@
         <v>4.0</v>
       </c>
       <c r="I469" s="23" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C470" s="16" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D470" s="17"/>
       <c r="E470" s="5" t="s">
@@ -20006,7 +20028,7 @@
     </row>
     <row r="471">
       <c r="A471" s="8" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B471" s="9" t="s">
         <v>10</v>
@@ -20022,13 +20044,13 @@
     </row>
     <row r="472">
       <c r="A472" s="4" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B472" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C472" s="34" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D472" s="6"/>
       <c r="E472" s="13"/>
@@ -20039,18 +20061,18 @@
         <v>32</v>
       </c>
       <c r="I472" s="24" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="8" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B473" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C473" s="10" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D473" s="11"/>
       <c r="E473" s="9" t="s">
@@ -20066,13 +20088,13 @@
     </row>
     <row r="474">
       <c r="A474" s="4" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B474" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C474" s="16" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D474" s="17"/>
       <c r="E474" s="5" t="s">
@@ -20087,7 +20109,7 @@
     </row>
     <row r="475">
       <c r="A475" s="8" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B475" s="9" t="s">
         <v>10</v>
@@ -20104,13 +20126,13 @@
     </row>
     <row r="476">
       <c r="A476" s="4" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B476" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C476" s="16" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D476" s="17"/>
       <c r="E476" s="13"/>
@@ -20119,18 +20141,18 @@
         <v>4.0</v>
       </c>
       <c r="I476" s="14" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="8" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B477" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C477" s="10" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D477" s="11"/>
       <c r="E477" s="12"/>
@@ -20139,18 +20161,18 @@
         <v>5.0</v>
       </c>
       <c r="I477" s="35" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="4" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B478" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C478" s="16" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D478" s="17"/>
       <c r="E478" s="5" t="s">
@@ -20162,18 +20184,18 @@
         <v>4.0</v>
       </c>
       <c r="I478" s="24" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="8" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B479" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C479" s="10" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D479" s="11"/>
       <c r="E479" s="9" t="s">
@@ -20188,13 +20210,13 @@
     </row>
     <row r="480">
       <c r="A480" s="4" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B480" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C480" s="34" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D480" s="6"/>
       <c r="E480" s="5" t="s">
@@ -20207,13 +20229,13 @@
     </row>
     <row r="481">
       <c r="A481" s="8" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B481" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C481" s="10" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D481" s="11"/>
       <c r="E481" s="12"/>
@@ -20224,13 +20246,13 @@
     </row>
     <row r="482">
       <c r="A482" s="57" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B482" s="58" t="s">
         <v>18</v>
       </c>
       <c r="C482" s="59" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D482" s="60"/>
       <c r="E482" s="58" t="s">
@@ -23278,287 +23300,288 @@
     <hyperlink r:id="rId716" ref="I350"/>
     <hyperlink r:id="rId717" ref="A351"/>
     <hyperlink r:id="rId718" ref="A352"/>
-    <hyperlink r:id="rId719" ref="A353"/>
-    <hyperlink r:id="rId720" ref="C353"/>
-    <hyperlink r:id="rId721" ref="A354"/>
-    <hyperlink r:id="rId722" ref="C354"/>
-    <hyperlink r:id="rId723" location="-leaderboard" ref="A355"/>
-    <hyperlink r:id="rId724" ref="C355"/>
-    <hyperlink r:id="rId725" ref="A356"/>
-    <hyperlink r:id="rId726" ref="C356"/>
-    <hyperlink r:id="rId727" ref="I356"/>
-    <hyperlink r:id="rId728" location="leaderboard" ref="A357"/>
-    <hyperlink r:id="rId729" ref="C357"/>
-    <hyperlink r:id="rId730" ref="I357"/>
-    <hyperlink r:id="rId731" ref="A358"/>
-    <hyperlink r:id="rId732" ref="C358"/>
-    <hyperlink r:id="rId733" ref="A359"/>
-    <hyperlink r:id="rId734" ref="C359"/>
-    <hyperlink r:id="rId735" ref="A360"/>
-    <hyperlink r:id="rId736" ref="C360"/>
-    <hyperlink r:id="rId737" ref="I360"/>
-    <hyperlink r:id="rId738" ref="A361"/>
-    <hyperlink r:id="rId739" ref="A362"/>
-    <hyperlink r:id="rId740" ref="C362"/>
-    <hyperlink r:id="rId741" ref="A363"/>
-    <hyperlink r:id="rId742" ref="A364"/>
-    <hyperlink r:id="rId743" ref="A365"/>
-    <hyperlink r:id="rId744" ref="C365"/>
-    <hyperlink r:id="rId745" location="leaderboard" ref="A366"/>
-    <hyperlink r:id="rId746" ref="C366"/>
-    <hyperlink r:id="rId747" ref="A367"/>
-    <hyperlink r:id="rId748" ref="A368"/>
-    <hyperlink r:id="rId749" ref="C368"/>
-    <hyperlink r:id="rId750" location="leaderboard-5-shot" ref="A369"/>
-    <hyperlink r:id="rId751" ref="C369"/>
-    <hyperlink r:id="rId752" ref="A370"/>
-    <hyperlink r:id="rId753" ref="C370"/>
-    <hyperlink r:id="rId754" ref="A371"/>
-    <hyperlink r:id="rId755" ref="A372"/>
-    <hyperlink r:id="rId756" ref="C372"/>
-    <hyperlink r:id="rId757" ref="A373"/>
-    <hyperlink r:id="rId758" ref="C373"/>
-    <hyperlink r:id="rId759" ref="I373"/>
-    <hyperlink r:id="rId760" ref="A374"/>
-    <hyperlink r:id="rId761" ref="C374"/>
-    <hyperlink r:id="rId762" ref="I374"/>
-    <hyperlink r:id="rId763" ref="A375"/>
-    <hyperlink r:id="rId764" ref="C375"/>
-    <hyperlink r:id="rId765" ref="A376"/>
-    <hyperlink r:id="rId766" ref="C376"/>
-    <hyperlink r:id="rId767" ref="A377"/>
-    <hyperlink r:id="rId768" ref="C377"/>
-    <hyperlink r:id="rId769" ref="A378"/>
-    <hyperlink r:id="rId770" ref="C378"/>
-    <hyperlink r:id="rId771" location="leaderboard" ref="A379"/>
-    <hyperlink r:id="rId772" ref="C379"/>
-    <hyperlink r:id="rId773" location="-leaderboard" ref="A380"/>
-    <hyperlink r:id="rId774" ref="C380"/>
-    <hyperlink r:id="rId775" ref="A381"/>
-    <hyperlink r:id="rId776" ref="C381"/>
-    <hyperlink r:id="rId777" ref="I381"/>
-    <hyperlink r:id="rId778" location="fire-leaderboard-fire" ref="A382"/>
-    <hyperlink r:id="rId779" ref="C382"/>
-    <hyperlink r:id="rId780" location="leaderboard" ref="A383"/>
-    <hyperlink r:id="rId781" ref="C383"/>
-    <hyperlink r:id="rId782" location="leaderboard" ref="A384"/>
-    <hyperlink r:id="rId783" ref="C384"/>
-    <hyperlink r:id="rId784" location="overall" ref="A385"/>
-    <hyperlink r:id="rId785" ref="C385"/>
-    <hyperlink r:id="rId786" ref="A386"/>
-    <hyperlink r:id="rId787" ref="C386"/>
-    <hyperlink r:id="rId788" ref="A387"/>
-    <hyperlink r:id="rId789" ref="C387"/>
-    <hyperlink r:id="rId790" ref="A388"/>
-    <hyperlink r:id="rId791" ref="C388"/>
-    <hyperlink r:id="rId792" ref="I388"/>
-    <hyperlink r:id="rId793" ref="A389"/>
-    <hyperlink r:id="rId794" ref="C389"/>
-    <hyperlink r:id="rId795" ref="A390"/>
-    <hyperlink r:id="rId796" location="leaderboard" ref="A391"/>
-    <hyperlink r:id="rId797" ref="C391"/>
-    <hyperlink r:id="rId798" ref="A392"/>
-    <hyperlink r:id="rId799" ref="C392"/>
-    <hyperlink r:id="rId800" ref="I392"/>
-    <hyperlink r:id="rId801" ref="A393"/>
-    <hyperlink r:id="rId802" ref="I393"/>
-    <hyperlink r:id="rId803" ref="A394"/>
-    <hyperlink r:id="rId804" ref="I394"/>
-    <hyperlink r:id="rId805" ref="A395"/>
-    <hyperlink r:id="rId806" ref="C395"/>
-    <hyperlink r:id="rId807" ref="A396"/>
-    <hyperlink r:id="rId808" ref="C396"/>
-    <hyperlink r:id="rId809" ref="I396"/>
-    <hyperlink r:id="rId810" ref="A397"/>
-    <hyperlink r:id="rId811" ref="C397"/>
-    <hyperlink r:id="rId812" ref="I397"/>
-    <hyperlink r:id="rId813" ref="A398"/>
-    <hyperlink r:id="rId814" ref="C398"/>
-    <hyperlink r:id="rId815" ref="A399"/>
-    <hyperlink r:id="rId816" ref="I399"/>
-    <hyperlink r:id="rId817" location="/leaderboard" ref="A400"/>
-    <hyperlink r:id="rId818" ref="A401"/>
-    <hyperlink r:id="rId819" ref="C401"/>
-    <hyperlink r:id="rId820" ref="I401"/>
-    <hyperlink r:id="rId821" ref="A402"/>
-    <hyperlink r:id="rId822" ref="A403"/>
-    <hyperlink r:id="rId823" ref="C403"/>
-    <hyperlink r:id="rId824" ref="I403"/>
-    <hyperlink r:id="rId825" ref="A404"/>
-    <hyperlink r:id="rId826" ref="C404"/>
-    <hyperlink r:id="rId827" ref="I404"/>
-    <hyperlink r:id="rId828" ref="A405"/>
-    <hyperlink r:id="rId829" ref="C405"/>
-    <hyperlink r:id="rId830" ref="I405"/>
-    <hyperlink r:id="rId831" ref="A406"/>
-    <hyperlink r:id="rId832" ref="C406"/>
-    <hyperlink r:id="rId833" ref="A407"/>
-    <hyperlink r:id="rId834" ref="C407"/>
-    <hyperlink r:id="rId835" ref="A408"/>
-    <hyperlink r:id="rId836" ref="C408"/>
-    <hyperlink r:id="rId837" ref="I408"/>
-    <hyperlink r:id="rId838" ref="A409"/>
-    <hyperlink r:id="rId839" ref="C409"/>
-    <hyperlink r:id="rId840" ref="I409"/>
-    <hyperlink r:id="rId841" ref="A410"/>
-    <hyperlink r:id="rId842" ref="C410"/>
-    <hyperlink r:id="rId843" ref="I410"/>
-    <hyperlink r:id="rId844" ref="A411"/>
-    <hyperlink r:id="rId845" ref="C411"/>
-    <hyperlink r:id="rId846" ref="A412"/>
-    <hyperlink r:id="rId847" ref="C412"/>
-    <hyperlink r:id="rId848" ref="I412"/>
-    <hyperlink r:id="rId849" ref="A413"/>
-    <hyperlink r:id="rId850" ref="C413"/>
-    <hyperlink r:id="rId851" ref="I413"/>
-    <hyperlink r:id="rId852" ref="A414"/>
-    <hyperlink r:id="rId853" ref="C414"/>
-    <hyperlink r:id="rId854" ref="I414"/>
-    <hyperlink r:id="rId855" ref="A415"/>
-    <hyperlink r:id="rId856" ref="C415"/>
-    <hyperlink r:id="rId857" ref="A416"/>
-    <hyperlink r:id="rId858" ref="C416"/>
-    <hyperlink r:id="rId859" ref="A417"/>
-    <hyperlink r:id="rId860" ref="C417"/>
-    <hyperlink r:id="rId861" ref="I417"/>
-    <hyperlink r:id="rId862" ref="A418"/>
-    <hyperlink r:id="rId863" ref="C418"/>
-    <hyperlink r:id="rId864" ref="I418"/>
-    <hyperlink r:id="rId865" ref="A419"/>
-    <hyperlink r:id="rId866" ref="C419"/>
-    <hyperlink r:id="rId867" ref="A420"/>
-    <hyperlink r:id="rId868" ref="C420"/>
-    <hyperlink r:id="rId869" ref="I420"/>
-    <hyperlink r:id="rId870" location="leaderboard" ref="A421"/>
-    <hyperlink r:id="rId871" ref="C421"/>
-    <hyperlink r:id="rId872" ref="I421"/>
-    <hyperlink r:id="rId873" ref="A422"/>
-    <hyperlink r:id="rId874" ref="C422"/>
-    <hyperlink r:id="rId875" ref="I422"/>
-    <hyperlink r:id="rId876" ref="A423"/>
-    <hyperlink r:id="rId877" ref="C423"/>
-    <hyperlink r:id="rId878" location="leaderboard" ref="A424"/>
-    <hyperlink r:id="rId879" ref="C424"/>
-    <hyperlink r:id="rId880" ref="I424"/>
-    <hyperlink r:id="rId881" ref="A425"/>
-    <hyperlink r:id="rId882" ref="C425"/>
-    <hyperlink r:id="rId883" ref="A426"/>
-    <hyperlink r:id="rId884" ref="C426"/>
-    <hyperlink r:id="rId885" ref="A427"/>
-    <hyperlink r:id="rId886" ref="C427"/>
-    <hyperlink r:id="rId887" ref="A428"/>
-    <hyperlink r:id="rId888" ref="C428"/>
-    <hyperlink r:id="rId889" ref="A429"/>
-    <hyperlink r:id="rId890" ref="C429"/>
-    <hyperlink r:id="rId891" ref="A430"/>
-    <hyperlink r:id="rId892" ref="C430"/>
-    <hyperlink r:id="rId893" ref="I430"/>
-    <hyperlink r:id="rId894" ref="A431"/>
-    <hyperlink r:id="rId895" ref="C431"/>
-    <hyperlink r:id="rId896" ref="A432"/>
-    <hyperlink r:id="rId897" ref="A433"/>
-    <hyperlink r:id="rId898" ref="C433"/>
-    <hyperlink r:id="rId899" ref="A434"/>
-    <hyperlink r:id="rId900" ref="C434"/>
-    <hyperlink r:id="rId901" ref="A435"/>
-    <hyperlink r:id="rId902" ref="C435"/>
-    <hyperlink r:id="rId903" ref="A436"/>
-    <hyperlink r:id="rId904" ref="A437"/>
-    <hyperlink r:id="rId905" ref="C437"/>
-    <hyperlink r:id="rId906" ref="I437"/>
-    <hyperlink r:id="rId907" ref="A438"/>
-    <hyperlink r:id="rId908" location="leaderboard" ref="A439"/>
-    <hyperlink r:id="rId909" ref="C439"/>
-    <hyperlink r:id="rId910" location="-leaderboard" ref="A440"/>
-    <hyperlink r:id="rId911" ref="C440"/>
-    <hyperlink r:id="rId912" ref="A441"/>
-    <hyperlink r:id="rId913" ref="I441"/>
-    <hyperlink r:id="rId914" ref="A442"/>
-    <hyperlink r:id="rId915" ref="C442"/>
-    <hyperlink r:id="rId916" ref="A443"/>
-    <hyperlink r:id="rId917" ref="C443"/>
-    <hyperlink r:id="rId918" ref="A444"/>
-    <hyperlink r:id="rId919" ref="C444"/>
-    <hyperlink r:id="rId920" location="leaderboard" ref="A445"/>
-    <hyperlink r:id="rId921" ref="C445"/>
-    <hyperlink r:id="rId922" ref="A446"/>
-    <hyperlink r:id="rId923" ref="A447"/>
-    <hyperlink r:id="rId924" ref="A448"/>
-    <hyperlink r:id="rId925" ref="A449"/>
-    <hyperlink r:id="rId926" ref="A450"/>
-    <hyperlink r:id="rId927" ref="A451"/>
-    <hyperlink r:id="rId928" ref="C451"/>
-    <hyperlink r:id="rId929" ref="I451"/>
-    <hyperlink r:id="rId930" ref="A452"/>
-    <hyperlink r:id="rId931" ref="C452"/>
-    <hyperlink r:id="rId932" ref="A453"/>
-    <hyperlink r:id="rId933" location="leaderboard-" ref="A454"/>
-    <hyperlink r:id="rId934" ref="C454"/>
-    <hyperlink r:id="rId935" ref="A455"/>
-    <hyperlink r:id="rId936" ref="C455"/>
-    <hyperlink r:id="rId937" ref="I455"/>
-    <hyperlink r:id="rId938" location="leaderboard" ref="A456"/>
-    <hyperlink r:id="rId939" ref="C456"/>
-    <hyperlink r:id="rId940" ref="A457"/>
-    <hyperlink r:id="rId941" ref="C457"/>
-    <hyperlink r:id="rId942" location="leaderboard" ref="A458"/>
-    <hyperlink r:id="rId943" ref="C458"/>
-    <hyperlink r:id="rId944" ref="A459"/>
-    <hyperlink r:id="rId945" ref="C459"/>
-    <hyperlink r:id="rId946" ref="A460"/>
-    <hyperlink r:id="rId947" ref="C460"/>
-    <hyperlink r:id="rId948" location="leaderboard" ref="A461"/>
-    <hyperlink r:id="rId949" ref="C461"/>
-    <hyperlink r:id="rId950" ref="A462"/>
-    <hyperlink r:id="rId951" ref="C462"/>
-    <hyperlink r:id="rId952" ref="A463"/>
-    <hyperlink r:id="rId953" ref="C463"/>
-    <hyperlink r:id="rId954" ref="I463"/>
-    <hyperlink r:id="rId955" ref="A464"/>
-    <hyperlink r:id="rId956" ref="C464"/>
-    <hyperlink r:id="rId957" ref="A465"/>
-    <hyperlink r:id="rId958" ref="C465"/>
-    <hyperlink r:id="rId959" ref="A466"/>
-    <hyperlink r:id="rId960" ref="C466"/>
-    <hyperlink r:id="rId961" location="leaderboard" ref="A467"/>
-    <hyperlink r:id="rId962" ref="C467"/>
-    <hyperlink r:id="rId963" ref="A468"/>
-    <hyperlink r:id="rId964" ref="A469"/>
-    <hyperlink r:id="rId965" ref="C469"/>
-    <hyperlink r:id="rId966" ref="I469"/>
-    <hyperlink r:id="rId967" ref="A470"/>
-    <hyperlink r:id="rId968" ref="C470"/>
-    <hyperlink r:id="rId969" ref="A471"/>
-    <hyperlink r:id="rId970" ref="A472"/>
-    <hyperlink r:id="rId971" ref="C472"/>
-    <hyperlink r:id="rId972" ref="I472"/>
-    <hyperlink r:id="rId973" ref="A473"/>
-    <hyperlink r:id="rId974" ref="C473"/>
-    <hyperlink r:id="rId975" ref="A474"/>
-    <hyperlink r:id="rId976" ref="C474"/>
-    <hyperlink r:id="rId977" ref="A475"/>
-    <hyperlink r:id="rId978" location="leaderboard" ref="A476"/>
-    <hyperlink r:id="rId979" ref="C476"/>
-    <hyperlink r:id="rId980" ref="I476"/>
-    <hyperlink r:id="rId981" ref="A477"/>
-    <hyperlink r:id="rId982" ref="C477"/>
-    <hyperlink r:id="rId983" ref="I477"/>
-    <hyperlink r:id="rId984" ref="A478"/>
-    <hyperlink r:id="rId985" ref="C478"/>
-    <hyperlink r:id="rId986" ref="I478"/>
-    <hyperlink r:id="rId987" ref="A479"/>
-    <hyperlink r:id="rId988" ref="C479"/>
-    <hyperlink r:id="rId989" ref="A480"/>
-    <hyperlink r:id="rId990" ref="C480"/>
-    <hyperlink r:id="rId991" location="leaderboard" ref="A481"/>
-    <hyperlink r:id="rId992" ref="C481"/>
-    <hyperlink r:id="rId993" location="leaderboard" ref="A482"/>
-    <hyperlink r:id="rId994" ref="C482"/>
+    <hyperlink r:id="rId719" ref="I352"/>
+    <hyperlink r:id="rId720" ref="A353"/>
+    <hyperlink r:id="rId721" ref="C353"/>
+    <hyperlink r:id="rId722" ref="A354"/>
+    <hyperlink r:id="rId723" ref="C354"/>
+    <hyperlink r:id="rId724" location="-leaderboard" ref="A355"/>
+    <hyperlink r:id="rId725" ref="C355"/>
+    <hyperlink r:id="rId726" ref="A356"/>
+    <hyperlink r:id="rId727" ref="C356"/>
+    <hyperlink r:id="rId728" ref="I356"/>
+    <hyperlink r:id="rId729" location="leaderboard" ref="A357"/>
+    <hyperlink r:id="rId730" ref="C357"/>
+    <hyperlink r:id="rId731" ref="I357"/>
+    <hyperlink r:id="rId732" ref="A358"/>
+    <hyperlink r:id="rId733" ref="C358"/>
+    <hyperlink r:id="rId734" ref="A359"/>
+    <hyperlink r:id="rId735" ref="C359"/>
+    <hyperlink r:id="rId736" ref="A360"/>
+    <hyperlink r:id="rId737" ref="C360"/>
+    <hyperlink r:id="rId738" ref="I360"/>
+    <hyperlink r:id="rId739" ref="A361"/>
+    <hyperlink r:id="rId740" ref="A362"/>
+    <hyperlink r:id="rId741" ref="C362"/>
+    <hyperlink r:id="rId742" ref="A363"/>
+    <hyperlink r:id="rId743" ref="A364"/>
+    <hyperlink r:id="rId744" ref="A365"/>
+    <hyperlink r:id="rId745" ref="C365"/>
+    <hyperlink r:id="rId746" location="leaderboard" ref="A366"/>
+    <hyperlink r:id="rId747" ref="C366"/>
+    <hyperlink r:id="rId748" ref="A367"/>
+    <hyperlink r:id="rId749" ref="A368"/>
+    <hyperlink r:id="rId750" ref="C368"/>
+    <hyperlink r:id="rId751" location="leaderboard-5-shot" ref="A369"/>
+    <hyperlink r:id="rId752" ref="C369"/>
+    <hyperlink r:id="rId753" ref="A370"/>
+    <hyperlink r:id="rId754" ref="C370"/>
+    <hyperlink r:id="rId755" ref="A371"/>
+    <hyperlink r:id="rId756" ref="A372"/>
+    <hyperlink r:id="rId757" ref="C372"/>
+    <hyperlink r:id="rId758" ref="A373"/>
+    <hyperlink r:id="rId759" ref="C373"/>
+    <hyperlink r:id="rId760" ref="I373"/>
+    <hyperlink r:id="rId761" ref="A374"/>
+    <hyperlink r:id="rId762" ref="C374"/>
+    <hyperlink r:id="rId763" ref="I374"/>
+    <hyperlink r:id="rId764" ref="A375"/>
+    <hyperlink r:id="rId765" ref="C375"/>
+    <hyperlink r:id="rId766" ref="A376"/>
+    <hyperlink r:id="rId767" ref="C376"/>
+    <hyperlink r:id="rId768" ref="A377"/>
+    <hyperlink r:id="rId769" ref="C377"/>
+    <hyperlink r:id="rId770" ref="A378"/>
+    <hyperlink r:id="rId771" ref="C378"/>
+    <hyperlink r:id="rId772" location="leaderboard" ref="A379"/>
+    <hyperlink r:id="rId773" ref="C379"/>
+    <hyperlink r:id="rId774" location="-leaderboard" ref="A380"/>
+    <hyperlink r:id="rId775" ref="C380"/>
+    <hyperlink r:id="rId776" ref="A381"/>
+    <hyperlink r:id="rId777" ref="C381"/>
+    <hyperlink r:id="rId778" ref="I381"/>
+    <hyperlink r:id="rId779" location="fire-leaderboard-fire" ref="A382"/>
+    <hyperlink r:id="rId780" ref="C382"/>
+    <hyperlink r:id="rId781" location="leaderboard" ref="A383"/>
+    <hyperlink r:id="rId782" ref="C383"/>
+    <hyperlink r:id="rId783" location="leaderboard" ref="A384"/>
+    <hyperlink r:id="rId784" ref="C384"/>
+    <hyperlink r:id="rId785" location="overall" ref="A385"/>
+    <hyperlink r:id="rId786" ref="C385"/>
+    <hyperlink r:id="rId787" ref="A386"/>
+    <hyperlink r:id="rId788" ref="C386"/>
+    <hyperlink r:id="rId789" ref="A387"/>
+    <hyperlink r:id="rId790" ref="C387"/>
+    <hyperlink r:id="rId791" ref="A388"/>
+    <hyperlink r:id="rId792" ref="C388"/>
+    <hyperlink r:id="rId793" ref="I388"/>
+    <hyperlink r:id="rId794" ref="A389"/>
+    <hyperlink r:id="rId795" ref="C389"/>
+    <hyperlink r:id="rId796" ref="A390"/>
+    <hyperlink r:id="rId797" location="leaderboard" ref="A391"/>
+    <hyperlink r:id="rId798" ref="C391"/>
+    <hyperlink r:id="rId799" ref="A392"/>
+    <hyperlink r:id="rId800" ref="C392"/>
+    <hyperlink r:id="rId801" ref="I392"/>
+    <hyperlink r:id="rId802" ref="A393"/>
+    <hyperlink r:id="rId803" ref="I393"/>
+    <hyperlink r:id="rId804" ref="A394"/>
+    <hyperlink r:id="rId805" ref="I394"/>
+    <hyperlink r:id="rId806" ref="A395"/>
+    <hyperlink r:id="rId807" ref="C395"/>
+    <hyperlink r:id="rId808" ref="A396"/>
+    <hyperlink r:id="rId809" ref="C396"/>
+    <hyperlink r:id="rId810" ref="I396"/>
+    <hyperlink r:id="rId811" ref="A397"/>
+    <hyperlink r:id="rId812" ref="C397"/>
+    <hyperlink r:id="rId813" ref="I397"/>
+    <hyperlink r:id="rId814" ref="A398"/>
+    <hyperlink r:id="rId815" ref="C398"/>
+    <hyperlink r:id="rId816" ref="A399"/>
+    <hyperlink r:id="rId817" ref="I399"/>
+    <hyperlink r:id="rId818" location="/leaderboard" ref="A400"/>
+    <hyperlink r:id="rId819" ref="A401"/>
+    <hyperlink r:id="rId820" ref="C401"/>
+    <hyperlink r:id="rId821" ref="I401"/>
+    <hyperlink r:id="rId822" ref="A402"/>
+    <hyperlink r:id="rId823" ref="A403"/>
+    <hyperlink r:id="rId824" ref="C403"/>
+    <hyperlink r:id="rId825" ref="I403"/>
+    <hyperlink r:id="rId826" ref="A404"/>
+    <hyperlink r:id="rId827" ref="C404"/>
+    <hyperlink r:id="rId828" ref="I404"/>
+    <hyperlink r:id="rId829" ref="A405"/>
+    <hyperlink r:id="rId830" ref="C405"/>
+    <hyperlink r:id="rId831" ref="I405"/>
+    <hyperlink r:id="rId832" ref="A406"/>
+    <hyperlink r:id="rId833" ref="C406"/>
+    <hyperlink r:id="rId834" ref="A407"/>
+    <hyperlink r:id="rId835" ref="C407"/>
+    <hyperlink r:id="rId836" ref="A408"/>
+    <hyperlink r:id="rId837" ref="C408"/>
+    <hyperlink r:id="rId838" ref="I408"/>
+    <hyperlink r:id="rId839" ref="A409"/>
+    <hyperlink r:id="rId840" ref="C409"/>
+    <hyperlink r:id="rId841" ref="I409"/>
+    <hyperlink r:id="rId842" ref="A410"/>
+    <hyperlink r:id="rId843" ref="C410"/>
+    <hyperlink r:id="rId844" ref="I410"/>
+    <hyperlink r:id="rId845" ref="A411"/>
+    <hyperlink r:id="rId846" ref="C411"/>
+    <hyperlink r:id="rId847" ref="A412"/>
+    <hyperlink r:id="rId848" ref="C412"/>
+    <hyperlink r:id="rId849" ref="I412"/>
+    <hyperlink r:id="rId850" ref="A413"/>
+    <hyperlink r:id="rId851" ref="C413"/>
+    <hyperlink r:id="rId852" ref="I413"/>
+    <hyperlink r:id="rId853" ref="A414"/>
+    <hyperlink r:id="rId854" ref="C414"/>
+    <hyperlink r:id="rId855" ref="I414"/>
+    <hyperlink r:id="rId856" ref="A415"/>
+    <hyperlink r:id="rId857" ref="C415"/>
+    <hyperlink r:id="rId858" ref="A416"/>
+    <hyperlink r:id="rId859" ref="C416"/>
+    <hyperlink r:id="rId860" ref="A417"/>
+    <hyperlink r:id="rId861" ref="C417"/>
+    <hyperlink r:id="rId862" ref="I417"/>
+    <hyperlink r:id="rId863" ref="A418"/>
+    <hyperlink r:id="rId864" ref="C418"/>
+    <hyperlink r:id="rId865" ref="I418"/>
+    <hyperlink r:id="rId866" ref="A419"/>
+    <hyperlink r:id="rId867" ref="C419"/>
+    <hyperlink r:id="rId868" ref="A420"/>
+    <hyperlink r:id="rId869" ref="C420"/>
+    <hyperlink r:id="rId870" ref="I420"/>
+    <hyperlink r:id="rId871" location="leaderboard" ref="A421"/>
+    <hyperlink r:id="rId872" ref="C421"/>
+    <hyperlink r:id="rId873" ref="I421"/>
+    <hyperlink r:id="rId874" ref="A422"/>
+    <hyperlink r:id="rId875" ref="C422"/>
+    <hyperlink r:id="rId876" ref="I422"/>
+    <hyperlink r:id="rId877" ref="A423"/>
+    <hyperlink r:id="rId878" ref="C423"/>
+    <hyperlink r:id="rId879" location="leaderboard" ref="A424"/>
+    <hyperlink r:id="rId880" ref="C424"/>
+    <hyperlink r:id="rId881" ref="I424"/>
+    <hyperlink r:id="rId882" ref="A425"/>
+    <hyperlink r:id="rId883" ref="C425"/>
+    <hyperlink r:id="rId884" ref="A426"/>
+    <hyperlink r:id="rId885" ref="C426"/>
+    <hyperlink r:id="rId886" ref="A427"/>
+    <hyperlink r:id="rId887" ref="C427"/>
+    <hyperlink r:id="rId888" ref="A428"/>
+    <hyperlink r:id="rId889" ref="C428"/>
+    <hyperlink r:id="rId890" ref="A429"/>
+    <hyperlink r:id="rId891" ref="C429"/>
+    <hyperlink r:id="rId892" ref="A430"/>
+    <hyperlink r:id="rId893" ref="C430"/>
+    <hyperlink r:id="rId894" ref="I430"/>
+    <hyperlink r:id="rId895" ref="A431"/>
+    <hyperlink r:id="rId896" ref="C431"/>
+    <hyperlink r:id="rId897" ref="A432"/>
+    <hyperlink r:id="rId898" ref="A433"/>
+    <hyperlink r:id="rId899" ref="C433"/>
+    <hyperlink r:id="rId900" ref="A434"/>
+    <hyperlink r:id="rId901" ref="C434"/>
+    <hyperlink r:id="rId902" ref="A435"/>
+    <hyperlink r:id="rId903" ref="C435"/>
+    <hyperlink r:id="rId904" ref="A436"/>
+    <hyperlink r:id="rId905" ref="A437"/>
+    <hyperlink r:id="rId906" ref="C437"/>
+    <hyperlink r:id="rId907" ref="I437"/>
+    <hyperlink r:id="rId908" ref="A438"/>
+    <hyperlink r:id="rId909" location="leaderboard" ref="A439"/>
+    <hyperlink r:id="rId910" ref="C439"/>
+    <hyperlink r:id="rId911" location="-leaderboard" ref="A440"/>
+    <hyperlink r:id="rId912" ref="C440"/>
+    <hyperlink r:id="rId913" ref="A441"/>
+    <hyperlink r:id="rId914" ref="I441"/>
+    <hyperlink r:id="rId915" ref="A442"/>
+    <hyperlink r:id="rId916" ref="C442"/>
+    <hyperlink r:id="rId917" ref="A443"/>
+    <hyperlink r:id="rId918" ref="C443"/>
+    <hyperlink r:id="rId919" ref="A444"/>
+    <hyperlink r:id="rId920" ref="C444"/>
+    <hyperlink r:id="rId921" location="leaderboard" ref="A445"/>
+    <hyperlink r:id="rId922" ref="C445"/>
+    <hyperlink r:id="rId923" ref="A446"/>
+    <hyperlink r:id="rId924" ref="A447"/>
+    <hyperlink r:id="rId925" ref="A448"/>
+    <hyperlink r:id="rId926" ref="A449"/>
+    <hyperlink r:id="rId927" ref="A450"/>
+    <hyperlink r:id="rId928" ref="A451"/>
+    <hyperlink r:id="rId929" ref="C451"/>
+    <hyperlink r:id="rId930" ref="I451"/>
+    <hyperlink r:id="rId931" ref="A452"/>
+    <hyperlink r:id="rId932" ref="C452"/>
+    <hyperlink r:id="rId933" ref="A453"/>
+    <hyperlink r:id="rId934" location="leaderboard-" ref="A454"/>
+    <hyperlink r:id="rId935" ref="C454"/>
+    <hyperlink r:id="rId936" ref="A455"/>
+    <hyperlink r:id="rId937" ref="C455"/>
+    <hyperlink r:id="rId938" ref="I455"/>
+    <hyperlink r:id="rId939" location="leaderboard" ref="A456"/>
+    <hyperlink r:id="rId940" ref="C456"/>
+    <hyperlink r:id="rId941" ref="A457"/>
+    <hyperlink r:id="rId942" ref="C457"/>
+    <hyperlink r:id="rId943" location="leaderboard" ref="A458"/>
+    <hyperlink r:id="rId944" ref="C458"/>
+    <hyperlink r:id="rId945" ref="A459"/>
+    <hyperlink r:id="rId946" ref="C459"/>
+    <hyperlink r:id="rId947" ref="A460"/>
+    <hyperlink r:id="rId948" ref="C460"/>
+    <hyperlink r:id="rId949" location="leaderboard" ref="A461"/>
+    <hyperlink r:id="rId950" ref="C461"/>
+    <hyperlink r:id="rId951" ref="A462"/>
+    <hyperlink r:id="rId952" ref="C462"/>
+    <hyperlink r:id="rId953" ref="A463"/>
+    <hyperlink r:id="rId954" ref="C463"/>
+    <hyperlink r:id="rId955" ref="I463"/>
+    <hyperlink r:id="rId956" ref="A464"/>
+    <hyperlink r:id="rId957" ref="C464"/>
+    <hyperlink r:id="rId958" ref="A465"/>
+    <hyperlink r:id="rId959" ref="C465"/>
+    <hyperlink r:id="rId960" ref="A466"/>
+    <hyperlink r:id="rId961" ref="C466"/>
+    <hyperlink r:id="rId962" location="leaderboard" ref="A467"/>
+    <hyperlink r:id="rId963" ref="C467"/>
+    <hyperlink r:id="rId964" ref="A468"/>
+    <hyperlink r:id="rId965" ref="A469"/>
+    <hyperlink r:id="rId966" ref="C469"/>
+    <hyperlink r:id="rId967" ref="I469"/>
+    <hyperlink r:id="rId968" ref="A470"/>
+    <hyperlink r:id="rId969" ref="C470"/>
+    <hyperlink r:id="rId970" ref="A471"/>
+    <hyperlink r:id="rId971" ref="A472"/>
+    <hyperlink r:id="rId972" ref="C472"/>
+    <hyperlink r:id="rId973" ref="I472"/>
+    <hyperlink r:id="rId974" ref="A473"/>
+    <hyperlink r:id="rId975" ref="C473"/>
+    <hyperlink r:id="rId976" ref="A474"/>
+    <hyperlink r:id="rId977" ref="C474"/>
+    <hyperlink r:id="rId978" ref="A475"/>
+    <hyperlink r:id="rId979" location="leaderboard" ref="A476"/>
+    <hyperlink r:id="rId980" ref="C476"/>
+    <hyperlink r:id="rId981" ref="I476"/>
+    <hyperlink r:id="rId982" ref="A477"/>
+    <hyperlink r:id="rId983" ref="C477"/>
+    <hyperlink r:id="rId984" ref="I477"/>
+    <hyperlink r:id="rId985" ref="A478"/>
+    <hyperlink r:id="rId986" ref="C478"/>
+    <hyperlink r:id="rId987" ref="I478"/>
+    <hyperlink r:id="rId988" ref="A479"/>
+    <hyperlink r:id="rId989" ref="C479"/>
+    <hyperlink r:id="rId990" ref="A480"/>
+    <hyperlink r:id="rId991" ref="C480"/>
+    <hyperlink r:id="rId992" location="leaderboard" ref="A481"/>
+    <hyperlink r:id="rId993" ref="C481"/>
+    <hyperlink r:id="rId994" location="leaderboard" ref="A482"/>
+    <hyperlink r:id="rId995" ref="C482"/>
   </hyperlinks>
-  <drawing r:id="rId995"/>
-  <legacyDrawing r:id="rId996"/>
+  <drawing r:id="rId996"/>
+  <legacyDrawing r:id="rId997"/>
   <tableParts count="1">
-    <tablePart r:id="rId998"/>
+    <tablePart r:id="rId999"/>
   </tableParts>
 </worksheet>
 </file>
@@ -23581,7 +23604,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="136" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="2">
@@ -23591,12 +23614,12 @@
     </row>
     <row r="3">
       <c r="A3" s="138" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="139" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="5">
@@ -23611,17 +23634,17 @@
     </row>
     <row r="7">
       <c r="A7" s="137" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="137" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="141" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10">
@@ -23631,27 +23654,27 @@
     </row>
     <row r="11">
       <c r="A11" s="140" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="142" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="143" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="144" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="137" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="16">
@@ -23666,61 +23689,61 @@
     </row>
     <row r="18">
       <c r="A18" s="144" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="142" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="147" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="138" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="145" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="141" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="139" t="s">
-        <v>1379</v>
+      <c r="A24" s="148" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="143" t="s">
+      <c r="A25" s="139" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="149" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="145" t="s">
-        <v>1380</v>
-      </c>
-    </row>
     <row r="27">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="145" t="s">
         <v>1381</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="139" t="s">
+      <c r="A28" s="150" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="137" t="s">
+      <c r="A29" s="139" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -23731,41 +23754,46 @@
     </row>
     <row r="31">
       <c r="A31" s="137" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="137" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="146" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="146" t="s">
-        <v>1385</v>
+        <v>613</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="146" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="142" t="s">
-        <v>215</v>
+      <c r="A35" s="143" t="s">
+        <v>1387</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="142" t="s">
-        <v>997</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="146" t="s">
+      <c r="A37" s="142" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="146" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="149" t="s">
+    <row r="39">
+      <c r="A39" s="151" t="s">
         <v>246</v>
       </c>
     </row>
@@ -23820,10 +23848,11 @@
     <hyperlink r:id="rId35" ref="A36"/>
     <hyperlink r:id="rId36" ref="A37"/>
     <hyperlink r:id="rId37" ref="A38"/>
+    <hyperlink r:id="rId38" ref="A39"/>
   </hyperlinks>
-  <drawing r:id="rId38"/>
+  <drawing r:id="rId39"/>
   <tableParts count="1">
-    <tablePart r:id="rId40"/>
+    <tablePart r:id="rId41"/>
   </tableParts>
 </worksheet>
 </file>
@@ -23848,55 +23877,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="63" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="64" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="16" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="G2" s="67" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H2" s="65" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="I2" s="68" t="s">
         <v>561</v>
@@ -23905,7 +23934,7 @@
     <row r="3">
       <c r="A3" s="69"/>
       <c r="B3" s="70" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C3" s="65" t="s">
         <v>472</v>
@@ -23913,13 +23942,13 @@
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
       <c r="F3" s="67" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="G3" s="72" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H3" s="65" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="I3" s="73" t="s">
         <v>582</v>
@@ -23927,21 +23956,21 @@
     </row>
     <row r="4">
       <c r="B4" s="67" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="72" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H4" s="72" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="I4" s="74" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="5">
@@ -23954,19 +23983,19 @@
       </c>
       <c r="H5" s="71"/>
       <c r="I5" s="74" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="77"/>
       <c r="B6" s="41"/>
       <c r="C6" s="78" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
       <c r="I6" s="74" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="7">
@@ -23976,17 +24005,17 @@
         <v>692</v>
       </c>
       <c r="I7" s="74" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="77"/>
       <c r="B8" s="41"/>
       <c r="C8" s="72" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="I8" s="74" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="9">
@@ -23996,16 +24025,16 @@
         <v>127</v>
       </c>
       <c r="I9" s="74" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="77"/>
       <c r="C10" s="78" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="11">
@@ -24014,7 +24043,7 @@
         <v>271</v>
       </c>
       <c r="I11" s="74" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="12">
@@ -24025,21 +24054,21 @@
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
       <c r="I12" s="74" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="72" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="I13" s="68" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="7"/>
       <c r="I14" s="74" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="15">
@@ -24052,7 +24081,7 @@
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
       <c r="I16" s="68" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="17">
@@ -24060,7 +24089,7 @@
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="I17" s="73" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="18">
@@ -24074,13 +24103,13 @@
     <row r="19">
       <c r="C19" s="71"/>
       <c r="I19" s="73" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="41"/>
       <c r="I20" s="74" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="21">
@@ -24175,31 +24204,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="63" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2">
@@ -24207,7 +24236,7 @@
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="72" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -24226,7 +24255,7 @@
     </row>
     <row r="4">
       <c r="H4" s="84" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="5">
@@ -24284,38 +24313,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="63" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="82"/>
       <c r="B2" s="7"/>
       <c r="C2" s="72" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="86"/>
@@ -24334,16 +24363,16 @@
     </row>
     <row r="3">
       <c r="C3" s="65" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="G3" s="78" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H3" s="72" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="I3" s="87" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="4">
@@ -24351,14 +24380,14 @@
         <v>187</v>
       </c>
       <c r="I4" s="73" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="5">
       <c r="E5" s="71"/>
       <c r="F5" s="71"/>
       <c r="H5" s="72" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="I5" s="88" t="s">
         <v>221</v>
@@ -24369,7 +24398,7 @@
         <v>469</v>
       </c>
       <c r="I6" s="73" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="7">
@@ -24377,20 +24406,20 @@
         <v>611</v>
       </c>
       <c r="I7" s="87" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="8">
       <c r="H8" s="16" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="I8" s="89" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="9">
       <c r="H9" s="65" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="10">
@@ -24400,17 +24429,17 @@
     </row>
     <row r="11">
       <c r="H11" s="65" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12">
       <c r="H12" s="16" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="13">
       <c r="H13" s="65" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="14">
@@ -24430,12 +24459,12 @@
     </row>
     <row r="17">
       <c r="H17" s="65" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="18">
       <c r="H18" s="90" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="36">
@@ -24504,45 +24533,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="63" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="91" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="72" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="72" t="s">
@@ -24551,10 +24580,10 @@
     </row>
     <row r="3">
       <c r="A3" s="91" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E3" s="92"/>
       <c r="F3" s="78" t="s">
@@ -24562,23 +24591,23 @@
       </c>
       <c r="G3" s="71"/>
       <c r="H3" s="65" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="91" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
       <c r="H4" s="67" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="93" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E5" s="71"/>
       <c r="F5" s="71"/>
@@ -24589,7 +24618,7 @@
     </row>
     <row r="6">
       <c r="A6" s="91" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -24601,7 +24630,7 @@
       <c r="E7" s="94"/>
       <c r="F7" s="94"/>
       <c r="H7" s="95" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
   </sheetData>
@@ -24650,31 +24679,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B1" s="96" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C1" s="96" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D1" s="96" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F1" s="96" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="G1" s="96" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1" s="96" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="I1" s="97" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="J1" s="98"/>
       <c r="K1" s="98"/>
@@ -24699,23 +24728,23 @@
     </row>
     <row r="2">
       <c r="A2" s="99" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B2" s="100" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C2" s="101" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D2" s="100" t="s">
         <v>116</v>
       </c>
       <c r="E2" s="102"/>
       <c r="F2" s="100" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="G2" s="101" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H2" s="103" t="s">
         <v>327</v>
@@ -24744,23 +24773,23 @@
     </row>
     <row r="3">
       <c r="A3" s="105" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D3" s="65" t="s">
         <v>459</v>
       </c>
       <c r="E3" s="71"/>
       <c r="F3" s="76" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="G3" s="101" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="I3" s="106"/>
       <c r="J3" s="98"/>
@@ -24790,7 +24819,7 @@
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="16" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G4" s="66" t="s">
         <v>336</v>
@@ -24820,11 +24849,11 @@
     <row r="5">
       <c r="C5" s="107"/>
       <c r="D5" s="108" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E5" s="92"/>
       <c r="F5" s="70" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="G5" s="109" t="s">
         <v>546</v>
@@ -24855,14 +24884,14 @@
     <row r="6">
       <c r="C6" s="111"/>
       <c r="D6" s="112" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E6" s="111"/>
       <c r="F6" s="113" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="G6" s="114" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H6" s="115"/>
       <c r="I6" s="116"/>
@@ -55693,69 +55722,69 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="63" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="82"/>
       <c r="B2" s="7"/>
       <c r="D2" s="67" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="16" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="G2" s="65" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H2" s="83" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="3">
       <c r="D3" s="67" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="E3" s="92"/>
       <c r="F3" s="70" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="G3" s="72" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H3" s="65" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="4">
       <c r="D4" s="118"/>
       <c r="H4" s="113" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="5">
@@ -55804,31 +55833,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="63" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2">
@@ -55836,7 +55865,7 @@
         <v>431</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>523</v>
@@ -55844,13 +55873,13 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="78" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="G2" s="65" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H2" s="103" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="I2" s="68" t="s">
         <v>169</v>
@@ -55858,22 +55887,22 @@
     </row>
     <row r="3">
       <c r="A3" s="119" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C3" s="92"/>
       <c r="D3" s="92"/>
       <c r="E3" s="92"/>
       <c r="F3" s="70" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="G3" s="76" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H3" s="65" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="I3" s="87" t="s">
         <v>259</v>
@@ -55881,7 +55910,7 @@
     </row>
     <row r="4">
       <c r="B4" s="72" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -55890,10 +55919,10 @@
         <v>621</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="I4" s="73" t="s">
         <v>551</v>
@@ -55902,19 +55931,19 @@
     <row r="5">
       <c r="A5" s="75"/>
       <c r="B5" s="65" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C5" s="71"/>
       <c r="D5" s="92"/>
       <c r="E5" s="71"/>
       <c r="F5" s="65" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H5" s="70" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="I5" s="87" t="s">
         <v>566</v>
@@ -55926,13 +55955,13 @@
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
       <c r="F6" s="65" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H6" s="72" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="I6" s="24" t="s">
         <v>543</v>
@@ -55944,16 +55973,16 @@
       <c r="D7" s="71"/>
       <c r="E7" s="122"/>
       <c r="F7" s="123" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="G7" s="70" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H7" s="76" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I7" s="124" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="8">
@@ -55963,13 +55992,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="34" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="I8" s="88" t="s">
         <v>48</v>
@@ -55981,13 +56010,13 @@
       <c r="E9" s="92"/>
       <c r="F9" s="92"/>
       <c r="G9" s="76" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H9" s="65" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="I9" s="87" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="10">
@@ -55997,13 +56026,13 @@
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
       <c r="G10" s="16" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H10" s="72" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="I10" s="87" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="11">
@@ -56011,10 +56040,10 @@
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
       <c r="G11" s="70" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H11" s="65" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="I11" s="79" t="s">
         <v>669</v>
@@ -56027,10 +56056,10 @@
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
       <c r="G12" s="16" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H12" s="65" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="13">
@@ -56040,10 +56069,10 @@
       <c r="E13" s="71"/>
       <c r="F13" s="71"/>
       <c r="G13" s="70" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H13" s="65" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="14">
@@ -56053,10 +56082,10 @@
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
       <c r="G14" s="16" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="15">
@@ -56066,10 +56095,10 @@
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="70" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H15" s="65" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="16">
@@ -56079,10 +56108,10 @@
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
       <c r="G16" s="34" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H16" s="65" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="17">
@@ -56092,10 +56121,10 @@
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="76" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H17" s="65" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="18">
@@ -56105,10 +56134,10 @@
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
       <c r="G18" s="16" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H18" s="65" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="19">
@@ -56118,10 +56147,10 @@
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="70" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H19" s="65" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="20">
@@ -56131,10 +56160,10 @@
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
       <c r="G20" s="34" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H20" s="65" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="21">
@@ -56144,10 +56173,10 @@
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="70" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H21" s="72" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="22">
@@ -56155,76 +56184,76 @@
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
       <c r="G22" s="34" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H22" s="65" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="23">
       <c r="G23" s="70" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H23" s="65" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="24">
       <c r="G24" s="34" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H24" s="65" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="25">
       <c r="G25" s="70" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H25" s="70" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="26">
       <c r="G26" s="34" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="27">
       <c r="G27" s="70" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H27" s="65" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="28">
       <c r="G28" s="16" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H28" s="65" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="29">
       <c r="G29" s="70" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H29" s="65" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
       <c r="G30" s="34" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H30" s="65" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="31">
@@ -56232,20 +56261,20 @@
       <c r="C31" s="71"/>
       <c r="D31" s="71"/>
       <c r="G31" s="70" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H31" s="72" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
       <c r="G32" s="16" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H32" s="65" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="33">
@@ -56255,10 +56284,10 @@
       <c r="E33" s="71"/>
       <c r="F33" s="71"/>
       <c r="G33" s="70" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H33" s="72" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="34">
@@ -56268,10 +56297,10 @@
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
       <c r="G34" s="34" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H34" s="72" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="35">
@@ -56279,20 +56308,20 @@
       <c r="C35" s="71"/>
       <c r="D35" s="71"/>
       <c r="G35" s="70" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H35" s="72" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
       <c r="G36" s="16" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H36" s="65" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="37">
@@ -56302,10 +56331,10 @@
       <c r="E37" s="71"/>
       <c r="F37" s="71"/>
       <c r="G37" s="76" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H37" s="65" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="38">
@@ -56313,52 +56342,52 @@
       <c r="C38" s="41"/>
       <c r="D38" s="41"/>
       <c r="G38" s="34" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H38" s="65" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="39">
       <c r="G39" s="76" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H39" s="65" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" s="34" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H40" s="65" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" s="70" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H41" s="76" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" s="34" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="H42" s="65" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" s="71"/>
       <c r="F43" s="71"/>
       <c r="G43" s="70" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H43" s="70" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="44">
@@ -56368,10 +56397,10 @@
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
       <c r="G44" s="34" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H44" s="65" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="45">
@@ -56379,20 +56408,20 @@
       <c r="C45" s="71"/>
       <c r="D45" s="71"/>
       <c r="G45" s="70" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="H45" s="65" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" s="41"/>
       <c r="F46" s="41"/>
       <c r="G46" s="34" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H46" s="72" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="47">
@@ -56400,200 +56429,200 @@
       <c r="C47" s="71"/>
       <c r="D47" s="71"/>
       <c r="G47" s="70" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="H47" s="72" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" s="65" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="H48" s="65" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" s="70" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H49" s="72" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" s="34" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H50" s="65" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" s="70" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H51" s="72" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" s="34" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H52" s="65" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" s="65" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" s="65" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" s="65" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" s="16" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" s="65" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" s="65" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" s="65" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" s="65" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" s="65" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" s="16" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" s="65" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" s="65" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" s="65" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" s="65" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" s="72" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" s="65" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" s="72" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" s="65" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" s="65" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" s="72" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" s="72" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" s="65" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" s="72" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" s="65" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" s="65" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" s="72" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" s="65" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" s="72" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" s="76" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" s="65" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="83">
@@ -56603,12 +56632,12 @@
     </row>
     <row r="84">
       <c r="H84" s="123" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" s="83" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="86">
@@ -56618,17 +56647,17 @@
     </row>
     <row r="87">
       <c r="H87" s="72" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" s="72" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" s="78" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="90">
@@ -56841,31 +56870,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="63" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2">
@@ -56874,7 +56903,7 @@
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
       <c r="E2" s="16" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
@@ -56882,7 +56911,7 @@
         <v>249</v>
       </c>
       <c r="I2" s="73" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="3">
@@ -56894,10 +56923,10 @@
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
       <c r="H3" s="65" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="I3" s="68" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="4">
@@ -56909,10 +56938,10 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="34" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="5">
@@ -56924,10 +56953,10 @@
       <c r="F5" s="92"/>
       <c r="G5" s="92"/>
       <c r="H5" s="72" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="I5" s="126" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="6">
@@ -56939,10 +56968,10 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="121" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="7">
@@ -56954,7 +56983,7 @@
       <c r="F7" s="71"/>
       <c r="G7" s="71"/>
       <c r="H7" s="76" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="8">
@@ -56966,7 +56995,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="34" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="9">
@@ -56978,7 +57007,7 @@
       <c r="F9" s="92"/>
       <c r="G9" s="92"/>
       <c r="H9" s="70" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="10">
@@ -56990,7 +57019,7 @@
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
       <c r="H10" s="16" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="11">
@@ -57002,7 +57031,7 @@
       <c r="F11" s="92"/>
       <c r="G11" s="92"/>
       <c r="H11" s="70" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="12">
@@ -57014,7 +57043,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="16" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="13">
@@ -57026,7 +57055,7 @@
       <c r="F13" s="92"/>
       <c r="G13" s="92"/>
       <c r="H13" s="70" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="14">
@@ -57050,7 +57079,7 @@
       <c r="F15" s="71"/>
       <c r="G15" s="71"/>
       <c r="H15" s="72" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="16">
@@ -57062,7 +57091,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="16" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="17">
@@ -57074,7 +57103,7 @@
       <c r="F17" s="92"/>
       <c r="G17" s="92"/>
       <c r="H17" s="70" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="18">
@@ -57086,7 +57115,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="34" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="19">
@@ -57098,7 +57127,7 @@
       <c r="F19" s="92"/>
       <c r="G19" s="92"/>
       <c r="H19" s="70" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="20">
@@ -57110,7 +57139,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="34" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="21">
@@ -57122,7 +57151,7 @@
       <c r="F21" s="71"/>
       <c r="G21" s="71"/>
       <c r="H21" s="70" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="22">
@@ -57134,7 +57163,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="16" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="23">
@@ -57146,7 +57175,7 @@
       <c r="F23" s="92"/>
       <c r="G23" s="92"/>
       <c r="H23" s="70" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="24">
@@ -57158,7 +57187,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="34" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="25">
@@ -57170,7 +57199,7 @@
       <c r="F25" s="92"/>
       <c r="G25" s="92"/>
       <c r="H25" s="70" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="26">
@@ -57182,7 +57211,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="34" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="27">
@@ -57206,7 +57235,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="72" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="29">
@@ -57218,7 +57247,7 @@
       <c r="F29" s="92"/>
       <c r="G29" s="92"/>
       <c r="H29" s="70" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="30">
@@ -57230,7 +57259,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="34" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="31">
@@ -57242,7 +57271,7 @@
       <c r="F31" s="92"/>
       <c r="G31" s="92"/>
       <c r="H31" s="70" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="32">
@@ -57254,7 +57283,7 @@
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
       <c r="H32" s="72" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="33">
@@ -57266,7 +57295,7 @@
       <c r="F33" s="92"/>
       <c r="G33" s="92"/>
       <c r="H33" s="70" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="34">
@@ -57278,7 +57307,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="65" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="35">
@@ -57290,7 +57319,7 @@
       <c r="F35" s="92"/>
       <c r="G35" s="92"/>
       <c r="H35" s="70" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="36">
@@ -57314,7 +57343,7 @@
       <c r="F37" s="92"/>
       <c r="G37" s="92"/>
       <c r="H37" s="70" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="38">
@@ -57326,7 +57355,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="16" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="39">
@@ -57338,7 +57367,7 @@
       <c r="F39" s="92"/>
       <c r="G39" s="92"/>
       <c r="H39" s="70" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="40">
@@ -57350,7 +57379,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="72" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="41">
@@ -57362,7 +57391,7 @@
       <c r="F41" s="92"/>
       <c r="G41" s="92"/>
       <c r="H41" s="70" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="42">
@@ -57374,7 +57403,7 @@
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
       <c r="H42" s="34" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="43">
@@ -57386,7 +57415,7 @@
       <c r="F43" s="92"/>
       <c r="G43" s="92"/>
       <c r="H43" s="72" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="44">
@@ -57398,7 +57427,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="16" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="45">
@@ -57410,7 +57439,7 @@
       <c r="F45" s="71"/>
       <c r="G45" s="71"/>
       <c r="H45" s="72" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="46">
@@ -57422,7 +57451,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="34" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="47">
@@ -57434,7 +57463,7 @@
       <c r="F47" s="92"/>
       <c r="G47" s="92"/>
       <c r="H47" s="76" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="48">
@@ -57446,7 +57475,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="34" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="49">
@@ -57458,7 +57487,7 @@
       <c r="F49" s="92"/>
       <c r="G49" s="92"/>
       <c r="H49" s="70" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="50">
@@ -57470,7 +57499,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="34" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="51">
@@ -57482,7 +57511,7 @@
       <c r="F51" s="92"/>
       <c r="G51" s="92"/>
       <c r="H51" s="72" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="52">
@@ -57506,7 +57535,7 @@
       <c r="F53" s="92"/>
       <c r="G53" s="92"/>
       <c r="H53" s="70" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="54">
@@ -57530,7 +57559,7 @@
       <c r="F55" s="92"/>
       <c r="G55" s="92"/>
       <c r="H55" s="127" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="56">
@@ -57542,7 +57571,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="34" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="57">
@@ -57554,7 +57583,7 @@
       <c r="F57" s="71"/>
       <c r="G57" s="71"/>
       <c r="H57" s="70" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="58">
@@ -57566,7 +57595,7 @@
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
       <c r="H58" s="72" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="59">
@@ -57578,7 +57607,7 @@
       <c r="F59" s="92"/>
       <c r="G59" s="92"/>
       <c r="H59" s="76" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="60">
@@ -57590,7 +57619,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="128" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="61">
@@ -57602,7 +57631,7 @@
       <c r="F61" s="92"/>
       <c r="G61" s="92"/>
       <c r="H61" s="70" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="62">
@@ -57614,7 +57643,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="34" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="63">
@@ -57626,7 +57655,7 @@
       <c r="F63" s="92"/>
       <c r="G63" s="92"/>
       <c r="H63" s="70" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="64">
@@ -57638,7 +57667,7 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="78" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="65">
@@ -57650,7 +57679,7 @@
       <c r="F65" s="92"/>
       <c r="G65" s="92"/>
       <c r="H65" s="70" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="66">
@@ -57662,7 +57691,7 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="34" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="67">
@@ -57674,7 +57703,7 @@
       <c r="F67" s="92"/>
       <c r="G67" s="92"/>
       <c r="H67" s="72" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="68">
@@ -57686,7 +57715,7 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="34" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="69">
@@ -57698,7 +57727,7 @@
       <c r="F69" s="92"/>
       <c r="G69" s="92"/>
       <c r="H69" s="70" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="70">
@@ -57710,7 +57739,7 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="34" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="71">
@@ -57722,7 +57751,7 @@
       <c r="F71" s="92"/>
       <c r="G71" s="92"/>
       <c r="H71" s="70" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="72">
@@ -57734,7 +57763,7 @@
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
       <c r="H72" s="34" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="73">
@@ -57758,7 +57787,7 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="65" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="75">
@@ -57770,7 +57799,7 @@
       <c r="F75" s="92"/>
       <c r="G75" s="92"/>
       <c r="H75" s="72" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="76">
@@ -57782,7 +57811,7 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="34" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="77">
@@ -57794,7 +57823,7 @@
       <c r="F77" s="71"/>
       <c r="G77" s="71"/>
       <c r="H77" s="70" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="78">
@@ -57818,7 +57847,7 @@
       <c r="F79" s="92"/>
       <c r="G79" s="92"/>
       <c r="H79" s="70" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="80">
@@ -57842,7 +57871,7 @@
       <c r="F81" s="92"/>
       <c r="G81" s="92"/>
       <c r="H81" s="72" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="82">
@@ -57854,7 +57883,7 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="65" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="83">
@@ -57866,7 +57895,7 @@
       <c r="F83" s="92"/>
       <c r="G83" s="92"/>
       <c r="H83" s="78" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="84">
@@ -57878,7 +57907,7 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="67" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="85">
@@ -57890,7 +57919,7 @@
       <c r="F85" s="71"/>
       <c r="G85" s="71"/>
       <c r="H85" s="70" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="86">
@@ -57902,7 +57931,7 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="34" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="87">
@@ -57914,7 +57943,7 @@
       <c r="F87" s="71"/>
       <c r="G87" s="71"/>
       <c r="H87" s="70" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="88">
@@ -57926,7 +57955,7 @@
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
       <c r="H88" s="34" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="89">
@@ -57938,7 +57967,7 @@
       <c r="F89" s="71"/>
       <c r="G89" s="71"/>
       <c r="H89" s="70" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="90">
@@ -57950,7 +57979,7 @@
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
       <c r="H90" s="34" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="91">
@@ -57986,7 +58015,7 @@
       <c r="F93" s="92"/>
       <c r="G93" s="92"/>
       <c r="H93" s="65" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="94">
@@ -57998,7 +58027,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="65" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="95">
@@ -58010,7 +58039,7 @@
       <c r="F95" s="92"/>
       <c r="G95" s="92"/>
       <c r="H95" s="65" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="96">
@@ -58034,7 +58063,7 @@
       <c r="F97" s="92"/>
       <c r="G97" s="92"/>
       <c r="H97" s="70" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="98">
@@ -58046,7 +58075,7 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="16" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="99">
@@ -58058,7 +58087,7 @@
       <c r="F99" s="92"/>
       <c r="G99" s="92"/>
       <c r="H99" s="70" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="100">
@@ -58070,7 +58099,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="34" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="101">
@@ -58082,7 +58111,7 @@
       <c r="F101" s="92"/>
       <c r="G101" s="92"/>
       <c r="H101" s="70" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="102">
@@ -58094,7 +58123,7 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="34" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="103">
@@ -58106,7 +58135,7 @@
       <c r="F103" s="92"/>
       <c r="G103" s="92"/>
       <c r="H103" s="70" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="104">
@@ -58118,7 +58147,7 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="34" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="105">
@@ -58130,7 +58159,7 @@
       <c r="F105" s="92"/>
       <c r="G105" s="92"/>
       <c r="H105" s="70" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="106">
@@ -58142,7 +58171,7 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="34" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="107">
@@ -58154,7 +58183,7 @@
       <c r="F107" s="92"/>
       <c r="G107" s="92"/>
       <c r="H107" s="70" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="108">
@@ -58178,7 +58207,7 @@
       <c r="F109" s="92"/>
       <c r="G109" s="92"/>
       <c r="H109" s="70" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="110">
@@ -58190,7 +58219,7 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="34" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="111">
@@ -58202,7 +58231,7 @@
       <c r="F111" s="92"/>
       <c r="G111" s="92"/>
       <c r="H111" s="70" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="112">
@@ -58214,7 +58243,7 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="34" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="113">
@@ -58226,7 +58255,7 @@
       <c r="F113" s="92"/>
       <c r="G113" s="92"/>
       <c r="H113" s="70" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="114">
@@ -58238,7 +58267,7 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="34" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="115">
@@ -58250,7 +58279,7 @@
       <c r="F115" s="71"/>
       <c r="G115" s="71"/>
       <c r="H115" s="70" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="116">
@@ -58262,7 +58291,7 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="34" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="117">
@@ -58274,7 +58303,7 @@
       <c r="F117" s="92"/>
       <c r="G117" s="92"/>
       <c r="H117" s="70" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="118">
@@ -58286,7 +58315,7 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="72" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="119">
@@ -58298,7 +58327,7 @@
       <c r="F119" s="92"/>
       <c r="G119" s="92"/>
       <c r="H119" s="70" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="120">
@@ -58310,7 +58339,7 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c r="H120" s="34" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="121">
@@ -58322,7 +58351,7 @@
       <c r="F121" s="92"/>
       <c r="G121" s="92"/>
       <c r="H121" s="72" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="122">
@@ -58334,7 +58363,7 @@
       <c r="F122" s="41"/>
       <c r="G122" s="41"/>
       <c r="H122" s="34" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="123">
@@ -58358,7 +58387,7 @@
       <c r="F124" s="41"/>
       <c r="G124" s="41"/>
       <c r="H124" s="16" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="125">
@@ -58370,7 +58399,7 @@
       <c r="F125" s="92"/>
       <c r="G125" s="92"/>
       <c r="H125" s="72" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="126">
@@ -58382,7 +58411,7 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c r="H126" s="34" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="127">
@@ -58394,7 +58423,7 @@
       <c r="F127" s="92"/>
       <c r="G127" s="92"/>
       <c r="H127" s="72" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="128">
@@ -58406,7 +58435,7 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="34" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="129">
@@ -58418,7 +58447,7 @@
       <c r="F129" s="92"/>
       <c r="G129" s="92"/>
       <c r="H129" s="70" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="130">
@@ -58442,7 +58471,7 @@
       <c r="F131" s="130"/>
       <c r="G131" s="130"/>
       <c r="H131" s="131" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="I131" s="132"/>
     </row>
@@ -58455,7 +58484,7 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c r="H132" s="65" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="133">
@@ -58467,7 +58496,7 @@
       <c r="F133" s="92"/>
       <c r="G133" s="92"/>
       <c r="H133" s="72" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="134">
@@ -58479,12 +58508,12 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c r="H134" s="65" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="135">
       <c r="H135" s="72" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="136">
@@ -58496,17 +58525,17 @@
       <c r="F136" s="41"/>
       <c r="G136" s="41"/>
       <c r="H136" s="34" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="137">
       <c r="H137" s="70" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="138">
       <c r="H138" s="34" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="139">
@@ -58518,22 +58547,22 @@
       <c r="F139" s="71"/>
       <c r="G139" s="71"/>
       <c r="H139" s="70" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="140">
       <c r="H140" s="34" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="141">
       <c r="H141" s="70" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="142">
       <c r="H142" s="121" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="143">
@@ -58545,7 +58574,7 @@
       <c r="F143" s="134"/>
       <c r="G143" s="134"/>
       <c r="H143" s="135" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
   </sheetData>

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -14,7 +14,9 @@
     <sheet state="visible" name="Unresponsive Entity" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="Others" sheetId="10" r:id="rId13"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Leaderboard!$A$1:$I$482</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
@@ -3665,9 +3667,9 @@
     <comment authorId="0" ref="B1">
       <text>
         <t xml:space="preserve">gh: GitHub
-hf: HuggingFace
+hf: Hugging Face Spaces
 ip: independent platform
-pwc: PapersWithCode
+pwc: Papers With Code
 sp: spreadsheet platform
 	-Jimmy Zhao</t>
       </text>
@@ -10021,6 +10023,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I482" displayName="Table1" name="Table1" id="1">
+  <autoFilter ref="$A$1:$I$482">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="2,4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
     <tableColumn name="Name" id="1"/>
     <tableColumn name="Sources" id="2"/>
@@ -10428,7 +10437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="1">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -10447,7 +10456,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -10466,7 +10475,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="1">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -10483,7 +10492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="1">
       <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
@@ -10503,7 +10512,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="1">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -10520,7 +10529,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="1">
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
@@ -10537,7 +10546,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="19" t="s">
         <v>24</v>
       </c>
@@ -10555,7 +10564,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="1">
       <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
@@ -10572,7 +10581,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="1">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -10589,7 +10598,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="1">
       <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
@@ -10606,7 +10615,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="1">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -10628,7 +10637,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="8" t="s">
         <v>30</v>
       </c>
@@ -10647,7 +10656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="1">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -10666,7 +10675,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="1">
       <c r="A15" s="8" t="s">
         <v>35</v>
       </c>
@@ -10686,7 +10695,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="1">
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
@@ -10703,7 +10712,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="A17" s="8" t="s">
         <v>41</v>
       </c>
@@ -10722,7 +10731,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="1">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
@@ -10742,7 +10751,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="1">
       <c r="A19" s="8" t="s">
         <v>45</v>
       </c>
@@ -10765,7 +10774,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
@@ -10785,7 +10794,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="1">
       <c r="A21" s="8" t="s">
         <v>49</v>
       </c>
@@ -10802,7 +10811,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="1">
       <c r="A22" s="4" t="s">
         <v>52</v>
       </c>
@@ -10821,7 +10830,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="1">
       <c r="A23" s="8" t="s">
         <v>53</v>
       </c>
@@ -10840,7 +10849,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="1">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -10859,7 +10868,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="1">
       <c r="A25" s="8" t="s">
         <v>55</v>
       </c>
@@ -10878,7 +10887,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="1">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -10897,7 +10906,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="1">
       <c r="A27" s="8" t="s">
         <v>57</v>
       </c>
@@ -10916,7 +10925,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="1">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -10935,7 +10944,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="1">
       <c r="A29" s="8" t="s">
         <v>59</v>
       </c>
@@ -10954,7 +10963,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="1">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -10973,7 +10982,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="1">
       <c r="A31" s="8" t="s">
         <v>61</v>
       </c>
@@ -11010,7 +11019,7 @@
       <c r="Y31" s="26"/>
       <c r="Z31" s="26"/>
     </row>
-    <row r="32">
+    <row r="32" hidden="1">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -11029,7 +11038,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="1">
       <c r="A33" s="8" t="s">
         <v>63</v>
       </c>
@@ -11048,7 +11057,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="1">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -11067,7 +11076,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="1">
       <c r="A35" s="8" t="s">
         <v>65</v>
       </c>
@@ -11086,7 +11095,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="1">
       <c r="A36" s="4" t="s">
         <v>66</v>
       </c>
@@ -11105,7 +11114,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="1">
       <c r="A37" s="8" t="s">
         <v>67</v>
       </c>
@@ -11124,7 +11133,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="1">
       <c r="A38" s="4" t="s">
         <v>68</v>
       </c>
@@ -11143,7 +11152,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="1">
       <c r="A39" s="8" t="s">
         <v>69</v>
       </c>
@@ -11162,7 +11171,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="1">
       <c r="A40" s="4" t="s">
         <v>70</v>
       </c>
@@ -11181,7 +11190,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="1">
       <c r="A41" s="8" t="s">
         <v>71</v>
       </c>
@@ -11200,7 +11209,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="1">
       <c r="A42" s="4" t="s">
         <v>72</v>
       </c>
@@ -11219,7 +11228,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="1">
       <c r="A43" s="8" t="s">
         <v>74</v>
       </c>
@@ -11244,7 +11253,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="1">
       <c r="A44" s="4" t="s">
         <v>77</v>
       </c>
@@ -11324,7 +11333,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="1">
       <c r="A48" s="4" t="s">
         <v>85</v>
       </c>
@@ -11350,7 +11359,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="1">
       <c r="A49" s="8" t="s">
         <v>88</v>
       </c>
@@ -11366,7 +11375,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="1">
       <c r="A50" s="27" t="s">
         <v>89</v>
       </c>
@@ -11388,7 +11397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="1">
       <c r="A51" s="8" t="s">
         <v>91</v>
       </c>
@@ -11410,7 +11419,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="1">
       <c r="A52" s="4" t="s">
         <v>93</v>
       </c>
@@ -11424,7 +11433,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="1">
       <c r="A53" s="8" t="s">
         <v>94</v>
       </c>
@@ -11459,7 +11468,7 @@
       <c r="Y53" s="26"/>
       <c r="Z53" s="26"/>
     </row>
-    <row r="54">
+    <row r="54" hidden="1">
       <c r="A54" s="4" t="s">
         <v>96</v>
       </c>
@@ -11476,7 +11485,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="1">
       <c r="A55" s="8" t="s">
         <v>97</v>
       </c>
@@ -11493,7 +11502,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="1">
       <c r="A56" s="19" t="s">
         <v>98</v>
       </c>
@@ -11511,7 +11520,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="1">
       <c r="A57" s="29" t="s">
         <v>99</v>
       </c>
@@ -11529,7 +11538,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="1">
       <c r="A58" s="19" t="s">
         <v>100</v>
       </c>
@@ -11547,7 +11556,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="1">
       <c r="A59" s="8" t="s">
         <v>101</v>
       </c>
@@ -11569,7 +11578,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="1">
       <c r="A60" s="4" t="s">
         <v>104</v>
       </c>
@@ -11591,7 +11600,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="1">
       <c r="A61" s="8" t="s">
         <v>106</v>
       </c>
@@ -11611,7 +11620,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="1">
       <c r="A62" s="4" t="s">
         <v>109</v>
       </c>
@@ -11628,7 +11637,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="1">
       <c r="A63" s="8" t="s">
         <v>111</v>
       </c>
@@ -11650,7 +11659,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="1">
       <c r="A64" s="4" t="s">
         <v>114</v>
       </c>
@@ -11670,7 +11679,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="1">
       <c r="A65" s="8" t="s">
         <v>117</v>
       </c>
@@ -11690,7 +11699,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="1">
       <c r="A66" s="4" t="s">
         <v>119</v>
       </c>
@@ -11707,7 +11716,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="1">
       <c r="A67" s="8" t="s">
         <v>121</v>
       </c>
@@ -11728,7 +11737,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="1">
       <c r="A68" s="4" t="s">
         <v>123</v>
       </c>
@@ -11755,7 +11764,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="1">
       <c r="A69" s="8" t="s">
         <v>128</v>
       </c>
@@ -11780,7 +11789,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="1">
       <c r="A70" s="4" t="s">
         <v>131</v>
       </c>
@@ -11802,7 +11811,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="1">
       <c r="A71" s="8" t="s">
         <v>133</v>
       </c>
@@ -11822,7 +11831,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="1">
       <c r="A72" s="4" t="s">
         <v>135</v>
       </c>
@@ -11844,7 +11853,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="1">
       <c r="A73" s="8" t="s">
         <v>137</v>
       </c>
@@ -11863,7 +11872,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="1">
       <c r="A74" s="4" t="s">
         <v>139</v>
       </c>
@@ -11899,7 +11908,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="1">
       <c r="A76" s="4" t="s">
         <v>143</v>
       </c>
@@ -11924,7 +11933,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="1">
       <c r="A77" s="8" t="s">
         <v>146</v>
       </c>
@@ -11969,7 +11978,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="1">
       <c r="A79" s="8" t="s">
         <v>151</v>
       </c>
@@ -11994,7 +12003,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="1">
       <c r="A80" s="4" t="s">
         <v>154</v>
       </c>
@@ -12014,7 +12023,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="1">
       <c r="A81" s="8" t="s">
         <v>156</v>
       </c>
@@ -12058,7 +12067,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="1">
       <c r="A83" s="8" t="s">
         <v>161</v>
       </c>
@@ -12078,7 +12087,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="1">
       <c r="A84" s="4" t="s">
         <v>163</v>
       </c>
@@ -12095,7 +12104,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="1">
       <c r="A85" s="8" t="s">
         <v>165</v>
       </c>
@@ -12112,7 +12121,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="1">
       <c r="A86" s="4" t="s">
         <v>167</v>
       </c>
@@ -12132,7 +12141,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="1">
       <c r="A87" s="8" t="s">
         <v>170</v>
       </c>
@@ -12152,7 +12161,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="1">
       <c r="A88" s="4" t="s">
         <v>172</v>
       </c>
@@ -12172,7 +12181,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="1">
       <c r="A89" s="8" t="s">
         <v>174</v>
       </c>
@@ -12192,7 +12201,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="1">
       <c r="A90" s="4" t="s">
         <v>176</v>
       </c>
@@ -12239,7 +12248,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="1">
       <c r="A92" s="4" t="s">
         <v>181</v>
       </c>
@@ -12261,7 +12270,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="1">
       <c r="A93" s="8" t="s">
         <v>183</v>
       </c>
@@ -12278,7 +12287,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="1">
       <c r="A94" s="4" t="s">
         <v>185</v>
       </c>
@@ -12300,7 +12309,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="1">
       <c r="A95" s="8" t="s">
         <v>188</v>
       </c>
@@ -12321,7 +12330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="1">
       <c r="A96" s="4" t="s">
         <v>190</v>
       </c>
@@ -12343,7 +12352,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="1">
       <c r="A97" s="8" t="s">
         <v>192</v>
       </c>
@@ -12363,7 +12372,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="1">
       <c r="A98" s="4" t="s">
         <v>195</v>
       </c>
@@ -12410,7 +12419,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="1">
       <c r="A100" s="4" t="s">
         <v>201</v>
       </c>
@@ -12429,7 +12438,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="1">
       <c r="A101" s="8" t="s">
         <v>203</v>
       </c>
@@ -12448,7 +12457,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" hidden="1">
       <c r="A102" s="4" t="s">
         <v>205</v>
       </c>
@@ -12468,7 +12477,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="1">
       <c r="A103" s="8" t="s">
         <v>208</v>
       </c>
@@ -12488,7 +12497,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" hidden="1">
       <c r="A104" s="4" t="s">
         <v>210</v>
       </c>
@@ -12507,7 +12516,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" hidden="1">
       <c r="A105" s="8" t="s">
         <v>212</v>
       </c>
@@ -12525,7 +12534,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" hidden="1">
       <c r="A106" s="4" t="s">
         <v>213</v>
       </c>
@@ -12546,7 +12555,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" hidden="1">
       <c r="A107" s="8" t="s">
         <v>216</v>
       </c>
@@ -12588,7 +12597,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" hidden="1">
       <c r="A109" s="8" t="s">
         <v>220</v>
       </c>
@@ -12608,7 +12617,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="1">
       <c r="A110" s="4" t="s">
         <v>222</v>
       </c>
@@ -12646,7 +12655,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" hidden="1">
       <c r="A112" s="4" t="s">
         <v>227</v>
       </c>
@@ -12686,7 +12695,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" hidden="1">
       <c r="A114" s="4" t="s">
         <v>231</v>
       </c>
@@ -12706,7 +12715,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" hidden="1">
       <c r="A115" s="8" t="s">
         <v>233</v>
       </c>
@@ -12747,7 +12756,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" hidden="1">
       <c r="A117" s="8" t="s">
         <v>237</v>
       </c>
@@ -12769,7 +12778,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" hidden="1">
       <c r="A118" s="4" t="s">
         <v>239</v>
       </c>
@@ -12786,7 +12795,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" hidden="1">
       <c r="A119" s="8" t="s">
         <v>241</v>
       </c>
@@ -12844,7 +12853,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" hidden="1">
       <c r="A122" s="4" t="s">
         <v>247</v>
       </c>
@@ -12869,7 +12878,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" hidden="1">
       <c r="A123" s="8" t="s">
         <v>250</v>
       </c>
@@ -12891,7 +12900,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" hidden="1">
       <c r="A124" s="4" t="s">
         <v>252</v>
       </c>
@@ -12908,7 +12917,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" hidden="1">
       <c r="A125" s="8" t="s">
         <v>254</v>
       </c>
@@ -12925,7 +12934,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" hidden="1">
       <c r="A126" s="4" t="s">
         <v>255</v>
       </c>
@@ -12945,7 +12954,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" hidden="1">
       <c r="A127" s="8" t="s">
         <v>257</v>
       </c>
@@ -12970,7 +12979,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" hidden="1">
       <c r="A128" s="4" t="s">
         <v>260</v>
       </c>
@@ -12990,7 +12999,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" hidden="1">
       <c r="A129" s="8" t="s">
         <v>262</v>
       </c>
@@ -13010,7 +13019,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" hidden="1">
       <c r="A130" s="4" t="s">
         <v>264</v>
       </c>
@@ -13065,7 +13074,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" hidden="1">
       <c r="A133" s="8" t="s">
         <v>270</v>
       </c>
@@ -13085,7 +13094,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" hidden="1">
       <c r="A134" s="4" t="s">
         <v>272</v>
       </c>
@@ -13107,7 +13116,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" hidden="1">
       <c r="A135" s="8" t="s">
         <v>274</v>
       </c>
@@ -13125,7 +13134,7 @@
       </c>
       <c r="I135" s="37"/>
     </row>
-    <row r="136">
+    <row r="136" hidden="1">
       <c r="A136" s="4" t="s">
         <v>276</v>
       </c>
@@ -13145,7 +13154,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" hidden="1">
       <c r="A137" s="8" t="s">
         <v>278</v>
       </c>
@@ -13165,7 +13174,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" hidden="1">
       <c r="A138" s="4" t="s">
         <v>280</v>
       </c>
@@ -13185,7 +13194,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" hidden="1">
       <c r="A139" s="8" t="s">
         <v>282</v>
       </c>
@@ -13202,7 +13211,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" hidden="1">
       <c r="A140" s="4" t="s">
         <v>284</v>
       </c>
@@ -13219,7 +13228,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" hidden="1">
       <c r="A141" s="8" t="s">
         <v>286</v>
       </c>
@@ -13257,7 +13266,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" hidden="1">
       <c r="A143" s="8" t="s">
         <v>290</v>
       </c>
@@ -13277,7 +13286,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" hidden="1">
       <c r="A144" s="4" t="s">
         <v>292</v>
       </c>
@@ -13295,7 +13304,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" hidden="1">
       <c r="A145" s="8" t="s">
         <v>294</v>
       </c>
@@ -13328,7 +13337,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" hidden="1">
       <c r="A147" s="8" t="s">
         <v>297</v>
       </c>
@@ -13352,7 +13361,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" hidden="1">
       <c r="A148" s="4" t="s">
         <v>300</v>
       </c>
@@ -13373,7 +13382,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" hidden="1">
       <c r="A149" s="29" t="s">
         <v>301</v>
       </c>
@@ -13398,7 +13407,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" hidden="1">
       <c r="A150" s="4" t="s">
         <v>303</v>
       </c>
@@ -13415,7 +13424,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" hidden="1">
       <c r="A151" s="8" t="s">
         <v>305</v>
       </c>
@@ -13432,7 +13441,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" hidden="1">
       <c r="A152" s="4" t="s">
         <v>307</v>
       </c>
@@ -13449,7 +13458,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" hidden="1">
       <c r="A153" s="8" t="s">
         <v>309</v>
       </c>
@@ -13511,7 +13520,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" hidden="1">
       <c r="A156" s="4" t="s">
         <v>316</v>
       </c>
@@ -13528,7 +13537,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" hidden="1">
       <c r="A157" s="8" t="s">
         <v>318</v>
       </c>
@@ -13572,7 +13581,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" hidden="1">
       <c r="A159" s="8" t="s">
         <v>323</v>
       </c>
@@ -13589,7 +13598,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" hidden="1">
       <c r="A160" s="4" t="s">
         <v>325</v>
       </c>
@@ -13632,7 +13641,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" hidden="1">
       <c r="A162" s="4" t="s">
         <v>330</v>
       </c>
@@ -13649,7 +13658,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" hidden="1">
       <c r="A163" s="8" t="s">
         <v>332</v>
       </c>
@@ -13666,7 +13675,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" hidden="1">
       <c r="A164" s="4" t="s">
         <v>334</v>
       </c>
@@ -13689,7 +13698,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" hidden="1">
       <c r="A165" s="8" t="s">
         <v>337</v>
       </c>
@@ -13706,7 +13715,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" hidden="1">
       <c r="A166" s="4" t="s">
         <v>339</v>
       </c>
@@ -13723,7 +13732,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" hidden="1">
       <c r="A167" s="8" t="s">
         <v>340</v>
       </c>
@@ -13764,7 +13773,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" hidden="1">
       <c r="A169" s="8" t="s">
         <v>343</v>
       </c>
@@ -13784,7 +13793,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" hidden="1">
       <c r="A170" s="4" t="s">
         <v>345</v>
       </c>
@@ -13807,7 +13816,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" hidden="1">
       <c r="A171" s="29" t="s">
         <v>348</v>
       </c>
@@ -13827,7 +13836,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" hidden="1">
       <c r="A172" s="4" t="s">
         <v>349</v>
       </c>
@@ -13850,7 +13859,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" hidden="1">
       <c r="A173" s="8" t="s">
         <v>351</v>
       </c>
@@ -13873,7 +13882,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" hidden="1">
       <c r="A174" s="4" t="s">
         <v>353</v>
       </c>
@@ -13893,7 +13902,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" hidden="1">
       <c r="A175" s="8" t="s">
         <v>355</v>
       </c>
@@ -13910,7 +13919,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" hidden="1">
       <c r="A176" s="19" t="s">
         <v>356</v>
       </c>
@@ -13928,7 +13937,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" hidden="1">
       <c r="A177" s="8" t="s">
         <v>357</v>
       </c>
@@ -13966,7 +13975,7 @@
       <c r="Y177" s="26"/>
       <c r="Z177" s="26"/>
     </row>
-    <row r="178">
+    <row r="178" hidden="1">
       <c r="A178" s="4" t="s">
         <v>358</v>
       </c>
@@ -13983,7 +13992,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" hidden="1">
       <c r="A179" s="8" t="s">
         <v>359</v>
       </c>
@@ -14004,7 +14013,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" hidden="1">
       <c r="A180" s="4" t="s">
         <v>361</v>
       </c>
@@ -14021,7 +14030,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" hidden="1">
       <c r="A181" s="8" t="s">
         <v>362</v>
       </c>
@@ -14060,7 +14069,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" hidden="1">
       <c r="A183" s="8" t="s">
         <v>366</v>
       </c>
@@ -14082,7 +14091,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" hidden="1">
       <c r="A184" s="4" t="s">
         <v>369</v>
       </c>
@@ -14098,7 +14107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" hidden="1">
       <c r="A185" s="8" t="s">
         <v>370</v>
       </c>
@@ -14138,7 +14147,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" hidden="1">
       <c r="A187" s="8" t="s">
         <v>374</v>
       </c>
@@ -14158,7 +14167,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" hidden="1">
       <c r="A188" s="4" t="s">
         <v>376</v>
       </c>
@@ -14178,7 +14187,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" hidden="1">
       <c r="A189" s="8" t="s">
         <v>379</v>
       </c>
@@ -14192,7 +14201,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" hidden="1">
       <c r="A190" s="4" t="s">
         <v>380</v>
       </c>
@@ -14212,7 +14221,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" hidden="1">
       <c r="A191" s="8" t="s">
         <v>382</v>
       </c>
@@ -14226,7 +14235,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" hidden="1">
       <c r="A192" s="4" t="s">
         <v>383</v>
       </c>
@@ -14248,7 +14257,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" hidden="1">
       <c r="A193" s="8" t="s">
         <v>385</v>
       </c>
@@ -14265,7 +14274,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" hidden="1">
       <c r="A194" s="4" t="s">
         <v>387</v>
       </c>
@@ -14304,7 +14313,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" hidden="1">
       <c r="A196" s="4" t="s">
         <v>391</v>
       </c>
@@ -14326,7 +14335,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" hidden="1">
       <c r="A197" s="8" t="s">
         <v>393</v>
       </c>
@@ -14343,7 +14352,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" hidden="1">
       <c r="A198" s="4" t="s">
         <v>395</v>
       </c>
@@ -14367,7 +14376,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" hidden="1">
       <c r="A199" s="8" t="s">
         <v>398</v>
       </c>
@@ -14386,7 +14395,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" hidden="1">
       <c r="A200" s="4" t="s">
         <v>400</v>
       </c>
@@ -14411,7 +14420,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" hidden="1">
       <c r="A201" s="8" t="s">
         <v>403</v>
       </c>
@@ -14434,7 +14443,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" hidden="1">
       <c r="A202" s="4" t="s">
         <v>406</v>
       </c>
@@ -14454,7 +14463,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" hidden="1">
       <c r="A203" s="8" t="s">
         <v>408</v>
       </c>
@@ -14477,7 +14486,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" hidden="1">
       <c r="A204" s="4" t="s">
         <v>412</v>
       </c>
@@ -14491,7 +14500,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" hidden="1">
       <c r="A205" s="8" t="s">
         <v>413</v>
       </c>
@@ -14508,7 +14517,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" hidden="1">
       <c r="A206" s="4" t="s">
         <v>415</v>
       </c>
@@ -14533,7 +14542,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" hidden="1">
       <c r="A207" s="8" t="s">
         <v>418</v>
       </c>
@@ -14553,7 +14562,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" hidden="1">
       <c r="A208" s="4" t="s">
         <v>420</v>
       </c>
@@ -14573,7 +14582,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" hidden="1">
       <c r="A209" s="8" t="s">
         <v>422</v>
       </c>
@@ -14593,7 +14602,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" hidden="1">
       <c r="A210" s="4" t="s">
         <v>424</v>
       </c>
@@ -14613,7 +14622,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" hidden="1">
       <c r="A211" s="8" t="s">
         <v>426</v>
       </c>
@@ -14638,7 +14647,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" hidden="1">
       <c r="A212" s="4" t="s">
         <v>429</v>
       </c>
@@ -14658,7 +14667,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" hidden="1">
       <c r="A213" s="8" t="s">
         <v>432</v>
       </c>
@@ -14677,7 +14686,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" hidden="1">
       <c r="A214" s="4" t="s">
         <v>434</v>
       </c>
@@ -14696,7 +14705,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" hidden="1">
       <c r="A215" s="8" t="s">
         <v>436</v>
       </c>
@@ -14712,7 +14721,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" hidden="1">
       <c r="A216" s="4" t="s">
         <v>437</v>
       </c>
@@ -14729,7 +14738,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" hidden="1">
       <c r="A217" s="8" t="s">
         <v>439</v>
       </c>
@@ -14747,7 +14756,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" hidden="1">
       <c r="A218" s="4" t="s">
         <v>441</v>
       </c>
@@ -14764,7 +14773,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" hidden="1">
       <c r="A219" s="8" t="s">
         <v>442</v>
       </c>
@@ -14783,7 +14792,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" hidden="1">
       <c r="A220" s="4" t="s">
         <v>444</v>
       </c>
@@ -14800,7 +14809,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" hidden="1">
       <c r="A221" s="8" t="s">
         <v>445</v>
       </c>
@@ -14842,7 +14851,7 @@
       <c r="Y221" s="26"/>
       <c r="Z221" s="26"/>
     </row>
-    <row r="222">
+    <row r="222" hidden="1">
       <c r="A222" s="4" t="s">
         <v>447</v>
       </c>
@@ -14863,7 +14872,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" hidden="1">
       <c r="A223" s="8" t="s">
         <v>449</v>
       </c>
@@ -14883,7 +14892,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" hidden="1">
       <c r="A224" s="4" t="s">
         <v>451</v>
       </c>
@@ -14906,7 +14915,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" hidden="1">
       <c r="A225" s="8" t="s">
         <v>455</v>
       </c>
@@ -14951,7 +14960,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" hidden="1">
       <c r="A227" s="8" t="s">
         <v>460</v>
       </c>
@@ -14968,7 +14977,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" hidden="1">
       <c r="A228" s="4" t="s">
         <v>462</v>
       </c>
@@ -14985,7 +14994,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" hidden="1">
       <c r="A229" s="8" t="s">
         <v>464</v>
       </c>
@@ -15004,7 +15013,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" hidden="1">
       <c r="A230" s="4" t="s">
         <v>466</v>
       </c>
@@ -15026,7 +15035,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" hidden="1">
       <c r="A231" s="8" t="s">
         <v>468</v>
       </c>
@@ -15043,7 +15052,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" hidden="1">
       <c r="A232" s="4" t="s">
         <v>470</v>
       </c>
@@ -15067,7 +15076,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" hidden="1">
       <c r="A233" s="8" t="s">
         <v>473</v>
       </c>
@@ -15089,7 +15098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" hidden="1">
       <c r="A234" s="4" t="s">
         <v>475</v>
       </c>
@@ -15106,7 +15115,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" hidden="1">
       <c r="A235" s="8" t="s">
         <v>477</v>
       </c>
@@ -15153,7 +15162,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" hidden="1">
       <c r="A237" s="8" t="s">
         <v>482</v>
       </c>
@@ -15170,7 +15179,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" hidden="1">
       <c r="A238" s="4" t="s">
         <v>484</v>
       </c>
@@ -15190,7 +15199,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" hidden="1">
       <c r="A239" s="8" t="s">
         <v>486</v>
       </c>
@@ -15209,7 +15218,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" hidden="1">
       <c r="A240" s="4" t="s">
         <v>487</v>
       </c>
@@ -15253,7 +15262,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" hidden="1">
       <c r="A242" s="4" t="s">
         <v>491</v>
       </c>
@@ -15292,7 +15301,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" hidden="1">
       <c r="A244" s="4" t="s">
         <v>495</v>
       </c>
@@ -15317,7 +15326,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" hidden="1">
       <c r="A245" s="8" t="s">
         <v>498</v>
       </c>
@@ -15339,7 +15348,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" hidden="1">
       <c r="A246" s="4" t="s">
         <v>500</v>
       </c>
@@ -15359,7 +15368,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" hidden="1">
       <c r="A247" s="8" t="s">
         <v>502</v>
       </c>
@@ -15376,7 +15385,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" hidden="1">
       <c r="A248" s="4" t="s">
         <v>504</v>
       </c>
@@ -15423,7 +15432,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" hidden="1">
       <c r="A250" s="4" t="s">
         <v>509</v>
       </c>
@@ -15443,7 +15452,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" hidden="1">
       <c r="A251" s="8" t="s">
         <v>511</v>
       </c>
@@ -15460,7 +15469,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" hidden="1">
       <c r="A252" s="4" t="s">
         <v>513</v>
       </c>
@@ -15485,7 +15494,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" hidden="1">
       <c r="A253" s="8" t="s">
         <v>516</v>
       </c>
@@ -15507,7 +15516,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" hidden="1">
       <c r="A254" s="4" t="s">
         <v>519</v>
       </c>
@@ -15524,7 +15533,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" hidden="1">
       <c r="A255" s="8" t="s">
         <v>521</v>
       </c>
@@ -15565,7 +15574,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" hidden="1">
       <c r="A257" s="8" t="s">
         <v>526</v>
       </c>
@@ -15609,7 +15618,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" hidden="1">
       <c r="A259" s="8" t="s">
         <v>530</v>
       </c>
@@ -15629,7 +15638,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" hidden="1">
       <c r="A260" s="4" t="s">
         <v>532</v>
       </c>
@@ -15688,7 +15697,7 @@
       <c r="Y261" s="26"/>
       <c r="Z261" s="26"/>
     </row>
-    <row r="262">
+    <row r="262" hidden="1">
       <c r="A262" s="4" t="s">
         <v>537</v>
       </c>
@@ -15711,7 +15720,7 @@
       </c>
       <c r="I262" s="44"/>
     </row>
-    <row r="263">
+    <row r="263" hidden="1">
       <c r="A263" s="8" t="s">
         <v>539</v>
       </c>
@@ -15731,7 +15740,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" hidden="1">
       <c r="A264" s="4" t="s">
         <v>541</v>
       </c>
@@ -15751,7 +15760,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" hidden="1">
       <c r="A265" s="8" t="s">
         <v>544</v>
       </c>
@@ -15774,7 +15783,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" hidden="1">
       <c r="A266" s="4" t="s">
         <v>547</v>
       </c>
@@ -15832,7 +15841,7 @@
       <c r="Y267" s="26"/>
       <c r="Z267" s="26"/>
     </row>
-    <row r="268">
+    <row r="268" hidden="1">
       <c r="A268" s="4" t="s">
         <v>552</v>
       </c>
@@ -15897,7 +15906,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" hidden="1">
       <c r="A271" s="8" t="s">
         <v>559</v>
       </c>
@@ -15944,7 +15953,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" hidden="1">
       <c r="A273" s="8" t="s">
         <v>564</v>
       </c>
@@ -15968,7 +15977,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" hidden="1">
       <c r="A274" s="4" t="s">
         <v>567</v>
       </c>
@@ -15987,7 +15996,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" hidden="1">
       <c r="A275" s="8" t="s">
         <v>569</v>
       </c>
@@ -16012,7 +16021,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" hidden="1">
       <c r="A276" s="4" t="s">
         <v>572</v>
       </c>
@@ -16048,7 +16057,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" hidden="1">
       <c r="A278" s="4" t="s">
         <v>575</v>
       </c>
@@ -16068,7 +16077,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" hidden="1">
       <c r="A279" s="8" t="s">
         <v>577</v>
       </c>
@@ -16113,7 +16122,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" hidden="1">
       <c r="A281" s="8" t="s">
         <v>583</v>
       </c>
@@ -16134,7 +16143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" hidden="1">
       <c r="A282" s="4" t="s">
         <v>585</v>
       </c>
@@ -16154,7 +16163,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" hidden="1">
       <c r="A283" s="8" t="s">
         <v>587</v>
       </c>
@@ -16172,7 +16181,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" hidden="1">
       <c r="A284" s="4" t="s">
         <v>589</v>
       </c>
@@ -16191,7 +16200,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" hidden="1">
       <c r="A285" s="8" t="s">
         <v>591</v>
       </c>
@@ -16213,7 +16222,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" hidden="1">
       <c r="A286" s="4" t="s">
         <v>593</v>
       </c>
@@ -16228,7 +16237,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" hidden="1">
       <c r="A287" s="8" t="s">
         <v>594</v>
       </c>
@@ -16242,7 +16251,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" hidden="1">
       <c r="A288" s="4" t="s">
         <v>595</v>
       </c>
@@ -16259,7 +16268,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" hidden="1">
       <c r="A289" s="8" t="s">
         <v>597</v>
       </c>
@@ -16305,7 +16314,7 @@
       <c r="Y289" s="26"/>
       <c r="Z289" s="26"/>
     </row>
-    <row r="290">
+    <row r="290" hidden="1">
       <c r="A290" s="19" t="s">
         <v>601</v>
       </c>
@@ -16328,7 +16337,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" hidden="1">
       <c r="A291" s="8" t="s">
         <v>605</v>
       </c>
@@ -16348,7 +16357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" hidden="1">
       <c r="A292" s="4" t="s">
         <v>607</v>
       </c>
@@ -16367,7 +16376,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" hidden="1">
       <c r="A293" s="8" t="s">
         <v>609</v>
       </c>
@@ -16392,7 +16401,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" hidden="1">
       <c r="A294" s="4" t="s">
         <v>612</v>
       </c>
@@ -16409,7 +16418,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" hidden="1">
       <c r="A295" s="8" t="s">
         <v>614</v>
       </c>
@@ -16428,7 +16437,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" hidden="1">
       <c r="A296" s="4" t="s">
         <v>616</v>
       </c>
@@ -16452,7 +16461,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" hidden="1">
       <c r="A297" s="8" t="s">
         <v>619</v>
       </c>
@@ -16475,7 +16484,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" hidden="1">
       <c r="A298" s="4" t="s">
         <v>622</v>
       </c>
@@ -16492,7 +16501,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" hidden="1">
       <c r="A299" s="8" t="s">
         <v>624</v>
       </c>
@@ -16509,7 +16518,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" hidden="1">
       <c r="A300" s="4" t="s">
         <v>626</v>
       </c>
@@ -16526,7 +16535,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" hidden="1">
       <c r="A301" s="8" t="s">
         <v>628</v>
       </c>
@@ -16550,7 +16559,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" hidden="1">
       <c r="A302" s="4" t="s">
         <v>630</v>
       </c>
@@ -16570,7 +16579,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" hidden="1">
       <c r="A303" s="8" t="s">
         <v>632</v>
       </c>
@@ -16587,7 +16596,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" hidden="1">
       <c r="A304" s="4" t="s">
         <v>634</v>
       </c>
@@ -16610,7 +16619,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" hidden="1">
       <c r="A305" s="8" t="s">
         <v>637</v>
       </c>
@@ -16635,7 +16644,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" hidden="1">
       <c r="A306" s="4" t="s">
         <v>640</v>
       </c>
@@ -16658,7 +16667,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" hidden="1">
       <c r="A307" s="8" t="s">
         <v>643</v>
       </c>
@@ -16697,7 +16706,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" hidden="1">
       <c r="A309" s="8" t="s">
         <v>647</v>
       </c>
@@ -16717,7 +16726,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" hidden="1">
       <c r="A310" s="4" t="s">
         <v>649</v>
       </c>
@@ -16739,7 +16748,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" hidden="1">
       <c r="A311" s="8" t="s">
         <v>651</v>
       </c>
@@ -16756,7 +16765,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" hidden="1">
       <c r="A312" s="4" t="s">
         <v>652</v>
       </c>
@@ -16781,7 +16790,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" hidden="1">
       <c r="A313" s="8" t="s">
         <v>654</v>
       </c>
@@ -16800,7 +16809,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" hidden="1">
       <c r="A314" s="4" t="s">
         <v>655</v>
       </c>
@@ -16823,7 +16832,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" hidden="1">
       <c r="A315" s="8" t="s">
         <v>658</v>
       </c>
@@ -16848,7 +16857,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" hidden="1">
       <c r="A316" s="4" t="s">
         <v>661</v>
       </c>
@@ -16872,7 +16881,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" hidden="1">
       <c r="A317" s="8" t="s">
         <v>663</v>
       </c>
@@ -16896,7 +16905,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" hidden="1">
       <c r="A318" s="4" t="s">
         <v>665</v>
       </c>
@@ -16917,7 +16926,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" hidden="1">
       <c r="A319" s="8" t="s">
         <v>666</v>
       </c>
@@ -16942,7 +16951,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" hidden="1">
       <c r="A320" s="4" t="s">
         <v>668</v>
       </c>
@@ -16962,7 +16971,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" hidden="1">
       <c r="A321" s="8" t="s">
         <v>670</v>
       </c>
@@ -16984,7 +16993,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" hidden="1">
       <c r="A322" s="4" t="s">
         <v>672</v>
       </c>
@@ -17006,7 +17015,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" hidden="1">
       <c r="A323" s="8" t="s">
         <v>674</v>
       </c>
@@ -17026,7 +17035,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" hidden="1">
       <c r="A324" s="4" t="s">
         <v>676</v>
       </c>
@@ -17048,7 +17057,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" hidden="1">
       <c r="A325" s="8" t="s">
         <v>678</v>
       </c>
@@ -17070,7 +17079,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" hidden="1">
       <c r="A326" s="4" t="s">
         <v>680</v>
       </c>
@@ -17112,7 +17121,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" hidden="1">
       <c r="A328" s="4" t="s">
         <v>684</v>
       </c>
@@ -17141,7 +17150,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" hidden="1">
       <c r="A329" s="8" t="s">
         <v>686</v>
       </c>
@@ -17168,7 +17177,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" hidden="1">
       <c r="A330" s="19" t="s">
         <v>688</v>
       </c>
@@ -17189,7 +17198,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" hidden="1">
       <c r="A331" s="8" t="s">
         <v>690</v>
       </c>
@@ -17216,7 +17225,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" hidden="1">
       <c r="A332" s="4" t="s">
         <v>693</v>
       </c>
@@ -17238,7 +17247,7 @@
         <v>3.0</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" hidden="1">
       <c r="A333" s="8" t="s">
         <v>693</v>
       </c>
@@ -17258,7 +17267,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" hidden="1">
       <c r="A334" s="4" t="s">
         <v>696</v>
       </c>
@@ -17277,7 +17286,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" hidden="1">
       <c r="A335" s="8" t="s">
         <v>698</v>
       </c>
@@ -17322,7 +17331,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" hidden="1">
       <c r="A337" s="8" t="s">
         <v>703</v>
       </c>
@@ -17341,7 +17350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" hidden="1">
       <c r="A338" s="4" t="s">
         <v>705</v>
       </c>
@@ -17387,7 +17396,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" hidden="1">
       <c r="A340" s="4" t="s">
         <v>710</v>
       </c>
@@ -17406,7 +17415,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" hidden="1">
       <c r="A341" s="8" t="s">
         <v>712</v>
       </c>
@@ -17427,7 +17436,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" hidden="1">
       <c r="A342" s="4" t="s">
         <v>714</v>
       </c>
@@ -17449,7 +17458,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" hidden="1">
       <c r="A343" s="8" t="s">
         <v>717</v>
       </c>
@@ -17468,7 +17477,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" hidden="1">
       <c r="A344" s="4" t="s">
         <v>719</v>
       </c>
@@ -17483,7 +17492,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" hidden="1">
       <c r="A345" s="8" t="s">
         <v>720</v>
       </c>
@@ -17508,7 +17517,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" hidden="1">
       <c r="A346" s="4" t="s">
         <v>722</v>
       </c>
@@ -17527,7 +17536,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" hidden="1">
       <c r="A347" s="8" t="s">
         <v>723</v>
       </c>
@@ -17541,7 +17550,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" hidden="1">
       <c r="A348" s="4" t="s">
         <v>724</v>
       </c>
@@ -17558,7 +17567,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" hidden="1">
       <c r="A349" s="8" t="s">
         <v>726</v>
       </c>
@@ -17578,7 +17587,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" hidden="1">
       <c r="A350" s="4" t="s">
         <v>728</v>
       </c>
@@ -17598,7 +17607,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" hidden="1">
       <c r="A351" s="8" t="s">
         <v>730</v>
       </c>
@@ -17614,7 +17623,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" hidden="1">
       <c r="A352" s="4" t="s">
         <v>731</v>
       </c>
@@ -17655,7 +17664,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" hidden="1">
       <c r="A354" s="4" t="s">
         <v>735</v>
       </c>
@@ -17674,7 +17683,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" hidden="1">
       <c r="A355" s="8" t="s">
         <v>737</v>
       </c>
@@ -17691,7 +17700,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" hidden="1">
       <c r="A356" s="4" t="s">
         <v>739</v>
       </c>
@@ -17711,7 +17720,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" hidden="1">
       <c r="A357" s="8" t="s">
         <v>742</v>
       </c>
@@ -17755,7 +17764,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" hidden="1">
       <c r="A359" s="8" t="s">
         <v>747</v>
       </c>
@@ -17774,7 +17783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" hidden="1">
       <c r="A360" s="4" t="s">
         <v>749</v>
       </c>
@@ -17794,7 +17803,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" hidden="1">
       <c r="A361" s="8" t="s">
         <v>752</v>
       </c>
@@ -17808,7 +17817,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" hidden="1">
       <c r="A362" s="4" t="s">
         <v>753</v>
       </c>
@@ -17829,7 +17838,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" hidden="1">
       <c r="A363" s="8" t="s">
         <v>755</v>
       </c>
@@ -17848,7 +17857,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" hidden="1">
       <c r="A364" s="4" t="s">
         <v>756</v>
       </c>
@@ -17863,7 +17872,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" hidden="1">
       <c r="A365" s="52" t="s">
         <v>757</v>
       </c>
@@ -17882,7 +17891,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" hidden="1">
       <c r="A366" s="4" t="s">
         <v>759</v>
       </c>
@@ -17899,7 +17908,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" hidden="1">
       <c r="A367" s="8" t="s">
         <v>761</v>
       </c>
@@ -17913,7 +17922,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" hidden="1">
       <c r="A368" s="4" t="s">
         <v>762</v>
       </c>
@@ -17954,7 +17963,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" hidden="1">
       <c r="A370" s="4" t="s">
         <v>766</v>
       </c>
@@ -17975,7 +17984,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" hidden="1">
       <c r="A371" s="8" t="s">
         <v>768</v>
       </c>
@@ -18012,7 +18021,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" hidden="1">
       <c r="A373" s="8" t="s">
         <v>771</v>
       </c>
@@ -18034,7 +18043,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" hidden="1">
       <c r="A374" s="4" t="s">
         <v>774</v>
       </c>
@@ -18079,7 +18088,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" hidden="1">
       <c r="A376" s="4" t="s">
         <v>779</v>
       </c>
@@ -18099,7 +18108,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" hidden="1">
       <c r="A377" s="8" t="s">
         <v>781</v>
       </c>
@@ -18120,7 +18129,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" hidden="1">
       <c r="A378" s="4" t="s">
         <v>783</v>
       </c>
@@ -18137,7 +18146,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" hidden="1">
       <c r="A379" s="8" t="s">
         <v>785</v>
       </c>
@@ -18157,7 +18166,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" hidden="1">
       <c r="A380" s="4" t="s">
         <v>787</v>
       </c>
@@ -18174,7 +18183,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" hidden="1">
       <c r="A381" s="29" t="s">
         <v>789</v>
       </c>
@@ -18199,7 +18208,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" hidden="1">
       <c r="A382" s="4" t="s">
         <v>792</v>
       </c>
@@ -18221,7 +18230,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" hidden="1">
       <c r="A383" s="8" t="s">
         <v>794</v>
       </c>
@@ -18238,7 +18247,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" hidden="1">
       <c r="A384" s="4" t="s">
         <v>796</v>
       </c>
@@ -18295,7 +18304,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" hidden="1">
       <c r="A387" s="8" t="s">
         <v>802</v>
       </c>
@@ -18337,7 +18346,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" hidden="1">
       <c r="A389" s="8" t="s">
         <v>807</v>
       </c>
@@ -18359,7 +18368,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" hidden="1">
       <c r="A390" s="4" t="s">
         <v>809</v>
       </c>
@@ -18378,7 +18387,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" hidden="1">
       <c r="A391" s="8" t="s">
         <v>810</v>
       </c>
@@ -18395,7 +18404,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" hidden="1">
       <c r="A392" s="4" t="s">
         <v>812</v>
       </c>
@@ -18420,7 +18429,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" hidden="1">
       <c r="A393" s="8" t="s">
         <v>815</v>
       </c>
@@ -18442,7 +18451,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" hidden="1">
       <c r="A394" s="4" t="s">
         <v>817</v>
       </c>
@@ -18463,7 +18472,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" hidden="1">
       <c r="A395" s="8" t="s">
         <v>819</v>
       </c>
@@ -18531,7 +18540,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" hidden="1">
       <c r="A398" s="4" t="s">
         <v>827</v>
       </c>
@@ -18549,7 +18558,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" hidden="1">
       <c r="A399" s="8" t="s">
         <v>829</v>
       </c>
@@ -18568,7 +18577,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" hidden="1">
       <c r="A400" s="4" t="s">
         <v>831</v>
       </c>
@@ -18584,7 +18593,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" hidden="1">
       <c r="A401" s="8" t="s">
         <v>832</v>
       </c>
@@ -18606,7 +18615,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" hidden="1">
       <c r="A402" s="4" t="s">
         <v>835</v>
       </c>
@@ -18620,7 +18629,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" hidden="1">
       <c r="A403" s="8" t="s">
         <v>836</v>
       </c>
@@ -18642,7 +18651,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" hidden="1">
       <c r="A404" s="4" t="s">
         <v>839</v>
       </c>
@@ -18662,7 +18671,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" hidden="1">
       <c r="A405" s="8" t="s">
         <v>842</v>
       </c>
@@ -18684,7 +18693,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" hidden="1">
       <c r="A406" s="4" t="s">
         <v>845</v>
       </c>
@@ -18701,7 +18710,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" hidden="1">
       <c r="A407" s="8" t="s">
         <v>847</v>
       </c>
@@ -18718,7 +18727,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" hidden="1">
       <c r="A408" s="4" t="s">
         <v>849</v>
       </c>
@@ -18740,7 +18749,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" hidden="1">
       <c r="A409" s="8" t="s">
         <v>852</v>
       </c>
@@ -18760,7 +18769,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" hidden="1">
       <c r="A410" s="4" t="s">
         <v>855</v>
       </c>
@@ -18780,7 +18789,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" hidden="1">
       <c r="A411" s="29" t="s">
         <v>858</v>
       </c>
@@ -18800,7 +18809,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" hidden="1">
       <c r="A412" s="4" t="s">
         <v>860</v>
       </c>
@@ -18822,7 +18831,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" hidden="1">
       <c r="A413" s="8" t="s">
         <v>863</v>
       </c>
@@ -18844,7 +18853,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" hidden="1">
       <c r="A414" s="4" t="s">
         <v>866</v>
       </c>
@@ -18864,7 +18873,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" hidden="1">
       <c r="A415" s="8" t="s">
         <v>869</v>
       </c>
@@ -18898,7 +18907,7 @@
       <c r="Y415" s="26"/>
       <c r="Z415" s="26"/>
     </row>
-    <row r="416">
+    <row r="416" hidden="1">
       <c r="A416" s="4" t="s">
         <v>871</v>
       </c>
@@ -18935,7 +18944,7 @@
       <c r="Y416" s="26"/>
       <c r="Z416" s="26"/>
     </row>
-    <row r="417">
+    <row r="417" hidden="1">
       <c r="A417" s="8" t="s">
         <v>873</v>
       </c>
@@ -18972,7 +18981,7 @@
       <c r="Y417" s="26"/>
       <c r="Z417" s="26"/>
     </row>
-    <row r="418">
+    <row r="418" hidden="1">
       <c r="A418" s="4" t="s">
         <v>876</v>
       </c>
@@ -19016,7 +19025,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" hidden="1">
       <c r="A420" s="4" t="s">
         <v>881</v>
       </c>
@@ -19038,7 +19047,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" hidden="1">
       <c r="A421" s="8" t="s">
         <v>884</v>
       </c>
@@ -19061,7 +19070,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" hidden="1">
       <c r="A422" s="4" t="s">
         <v>887</v>
       </c>
@@ -19108,7 +19117,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" hidden="1">
       <c r="A424" s="4" t="s">
         <v>892</v>
       </c>
@@ -19145,7 +19154,7 @@
       <c r="Y424" s="26"/>
       <c r="Z424" s="26"/>
     </row>
-    <row r="425">
+    <row r="425" hidden="1">
       <c r="A425" s="8" t="s">
         <v>895</v>
       </c>
@@ -19231,7 +19240,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" hidden="1">
       <c r="A429" s="8" t="s">
         <v>903</v>
       </c>
@@ -19255,7 +19264,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" hidden="1">
       <c r="A430" s="4" t="s">
         <v>905</v>
       </c>
@@ -19295,7 +19304,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" hidden="1">
       <c r="A432" s="4" t="s">
         <v>910</v>
       </c>
@@ -19311,7 +19320,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" hidden="1">
       <c r="A433" s="8" t="s">
         <v>911</v>
       </c>
@@ -19331,7 +19340,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" hidden="1">
       <c r="A434" s="4" t="s">
         <v>913</v>
       </c>
@@ -19372,7 +19381,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" hidden="1">
       <c r="A436" s="4" t="s">
         <v>916</v>
       </c>
@@ -19386,7 +19395,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" hidden="1">
       <c r="A437" s="8" t="s">
         <v>917</v>
       </c>
@@ -19408,7 +19417,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" hidden="1">
       <c r="A438" s="4" t="s">
         <v>920</v>
       </c>
@@ -19424,7 +19433,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" hidden="1">
       <c r="A439" s="8" t="s">
         <v>921</v>
       </c>
@@ -19445,7 +19454,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" hidden="1">
       <c r="A440" s="4" t="s">
         <v>923</v>
       </c>
@@ -19462,7 +19471,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" hidden="1">
       <c r="A441" s="8" t="s">
         <v>925</v>
       </c>
@@ -19482,7 +19491,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" hidden="1">
       <c r="A442" s="4" t="s">
         <v>927</v>
       </c>
@@ -19501,7 +19510,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" hidden="1">
       <c r="A443" s="8" t="s">
         <v>929</v>
       </c>
@@ -19523,7 +19532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" hidden="1">
       <c r="A444" s="4" t="s">
         <v>931</v>
       </c>
@@ -19543,7 +19552,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" hidden="1">
       <c r="A445" s="8" t="s">
         <v>933</v>
       </c>
@@ -19560,7 +19569,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" hidden="1">
       <c r="A446" s="4" t="s">
         <v>935</v>
       </c>
@@ -19574,7 +19583,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" hidden="1">
       <c r="A447" s="8" t="s">
         <v>936</v>
       </c>
@@ -19588,7 +19597,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" hidden="1">
       <c r="A448" s="4" t="s">
         <v>937</v>
       </c>
@@ -19602,7 +19611,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" hidden="1">
       <c r="A449" s="8" t="s">
         <v>938</v>
       </c>
@@ -19616,7 +19625,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" hidden="1">
       <c r="A450" s="4" t="s">
         <v>939</v>
       </c>
@@ -19630,7 +19639,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" hidden="1">
       <c r="A451" s="8" t="s">
         <v>940</v>
       </c>
@@ -19676,7 +19685,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" hidden="1">
       <c r="A453" s="8" t="s">
         <v>945</v>
       </c>
@@ -19690,7 +19699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" hidden="1">
       <c r="A454" s="4" t="s">
         <v>946</v>
       </c>
@@ -19751,7 +19760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" hidden="1">
       <c r="A457" s="8" t="s">
         <v>953</v>
       </c>
@@ -19771,7 +19780,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" hidden="1">
       <c r="A458" s="4" t="s">
         <v>955</v>
       </c>
@@ -19791,7 +19800,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" hidden="1">
       <c r="A459" s="8" t="s">
         <v>957</v>
       </c>
@@ -19810,7 +19819,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="460">
+    <row r="460" hidden="1">
       <c r="A460" s="4" t="s">
         <v>959</v>
       </c>
@@ -19829,7 +19838,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" hidden="1">
       <c r="A461" s="8" t="s">
         <v>961</v>
       </c>
@@ -19848,7 +19857,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" hidden="1">
       <c r="A462" s="4" t="s">
         <v>963</v>
       </c>
@@ -19870,7 +19879,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" hidden="1">
       <c r="A463" s="8" t="s">
         <v>965</v>
       </c>
@@ -19892,7 +19901,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" hidden="1">
       <c r="A464" s="4" t="s">
         <v>968</v>
       </c>
@@ -19912,7 +19921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" hidden="1">
       <c r="A465" s="8" t="s">
         <v>971</v>
       </c>
@@ -19972,7 +19981,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" hidden="1">
       <c r="A468" s="4" t="s">
         <v>977</v>
       </c>
@@ -19986,7 +19995,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" hidden="1">
       <c r="A469" s="8" t="s">
         <v>978</v>
       </c>
@@ -20007,7 +20016,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" hidden="1">
       <c r="A470" s="4" t="s">
         <v>981</v>
       </c>
@@ -20026,7 +20035,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="471">
+    <row r="471" hidden="1">
       <c r="A471" s="8" t="s">
         <v>984</v>
       </c>
@@ -20042,7 +20051,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" hidden="1">
       <c r="A472" s="4" t="s">
         <v>985</v>
       </c>
@@ -20064,7 +20073,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" hidden="1">
       <c r="A473" s="8" t="s">
         <v>988</v>
       </c>
@@ -20107,7 +20116,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" hidden="1">
       <c r="A475" s="8" t="s">
         <v>992</v>
       </c>
@@ -20124,7 +20133,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" hidden="1">
       <c r="A476" s="4" t="s">
         <v>993</v>
       </c>
@@ -20144,7 +20153,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" hidden="1">
       <c r="A477" s="8" t="s">
         <v>996</v>
       </c>
@@ -20164,7 +20173,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" hidden="1">
       <c r="A478" s="4" t="s">
         <v>999</v>
       </c>
@@ -20187,7 +20196,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" hidden="1">
       <c r="A479" s="8" t="s">
         <v>1002</v>
       </c>
@@ -20208,7 +20217,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" hidden="1">
       <c r="A480" s="4" t="s">
         <v>1004</v>
       </c>
@@ -20227,7 +20236,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" hidden="1">
       <c r="A481" s="8" t="s">
         <v>1006</v>
       </c>
@@ -20244,7 +20253,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" hidden="1">
       <c r="A482" s="57" t="s">
         <v>1008</v>
       </c>

--- a/result/Foundation Model Leaderboards.xlsx
+++ b/result/Foundation Model Leaderboards.xlsx
@@ -3702,25 +3702,25 @@
     <t>Sources</t>
   </si>
   <si>
-    <t>Has any GitHub repository?</t>
-  </si>
-  <si>
-    <t>Has many major releases?</t>
-  </si>
-  <si>
-    <t>Attaches model provenance?</t>
-  </si>
-  <si>
-    <t>Has any submission channel/protocol?</t>
-  </si>
-  <si>
-    <t>Allows other types of submission?</t>
-  </si>
-  <si>
-    <t>Workflow patterns</t>
-  </si>
-  <si>
-    <t>Smell cases</t>
+    <t>GitHub Repository Available?</t>
+  </si>
+  <si>
+    <t>Major Releases Available?</t>
+  </si>
+  <si>
+    <t>Model Provenance Available?</t>
+  </si>
+  <si>
+    <t>Submission Channel/Protocol Available?</t>
+  </si>
+  <si>
+    <t>Allows Other Submission Types?</t>
+  </si>
+  <si>
+    <t>Workflow Patterns</t>
+  </si>
+  <si>
+    <t>Smell Cases</t>
   </si>
   <si>
     <t>3D Arena</t>
@@ -10033,13 +10033,13 @@
   <tableColumns count="9">
     <tableColumn name="Name" id="1"/>
     <tableColumn name="Sources" id="2"/>
-    <tableColumn name="Has any GitHub repository?" id="3"/>
-    <tableColumn name="Has many major releases?" id="4"/>
-    <tableColumn name="Attaches model provenance?" id="5"/>
-    <tableColumn name="Has any submission channel/protocol?" id="6"/>
-    <tableColumn name="Allows other types of submission?" id="7"/>
-    <tableColumn name="Workflow patterns" id="8"/>
-    <tableColumn name="Smell cases" id="9"/>
+    <tableColumn name="GitHub Repository Available?" id="3"/>
+    <tableColumn name="Major Releases Available?" id="4"/>
+    <tableColumn name="Model Provenance Available?" id="5"/>
+    <tableColumn name="Submission Channel/Protocol Available?" id="6"/>
+    <tableColumn name="Allows Other Submission Types?" id="7"/>
+    <tableColumn name="Workflow Patterns" id="8"/>
+    <tableColumn name="Smell Cases" id="9"/>
   </tableColumns>
   <tableStyleInfo name="Leaderboard-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
